--- a/motor_sim_data_prac_1.xlsx
+++ b/motor_sim_data_prac_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F203"/>
+  <dimension ref="A1:F228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,19 +465,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1459.557494526465</v>
+        <v>30520.3642957658</v>
       </c>
       <c r="C2" t="n">
-        <v>1599.928380475317</v>
+        <v>1599.948022576673</v>
       </c>
       <c r="D2" t="n">
-        <v>4974472.511955959</v>
+        <v>5684416.669473503</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0461305</v>
+        <v>0.04506</v>
       </c>
     </row>
     <row r="3">
@@ -485,19 +485,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1481.133337876388</v>
+        <v>30984.86358290853</v>
       </c>
       <c r="C3" t="n">
-        <v>1599.926243030471</v>
+        <v>1599.946426044152</v>
       </c>
       <c r="D3" t="n">
-        <v>4974307.637668519</v>
+        <v>5684275.944534394</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0004815353535353535</v>
+        <v>0.000461050505050505</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04579332323232323</v>
+        <v>0.0447210101010101</v>
       </c>
     </row>
     <row r="4">
@@ -505,19 +505,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1503.191232241199</v>
+        <v>31460.04938152842</v>
       </c>
       <c r="C4" t="n">
-        <v>1599.924025138649</v>
+        <v>1599.94476767804</v>
       </c>
       <c r="D4" t="n">
-        <v>4974136.563554392</v>
+        <v>5684129.772868645</v>
       </c>
       <c r="E4" t="n">
-        <v>0.000963070707070707</v>
+        <v>0.00092210101010101</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04545614646464646</v>
+        <v>0.04438202020202021</v>
       </c>
     </row>
     <row r="5">
@@ -525,19 +525,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1525.745648856343</v>
+        <v>31946.25209334617</v>
       </c>
       <c r="C5" t="n">
-        <v>1599.921723132167</v>
+        <v>1599.943044578241</v>
       </c>
       <c r="D5" t="n">
-        <v>4973959.00734024</v>
+        <v>5683977.899269108</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001444606060606061</v>
+        <v>0.001383151515151515</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04511896969696969</v>
+        <v>0.04404303030303031</v>
       </c>
     </row>
     <row r="6">
@@ -545,19 +545,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1548.811606286262</v>
+        <v>32443.8149917776</v>
       </c>
       <c r="C6" t="n">
-        <v>1599.919333146283</v>
+        <v>1599.941253684435</v>
       </c>
       <c r="D6" t="n">
-        <v>4973774.671616774</v>
+        <v>5683820.054449284</v>
       </c>
       <c r="E6" t="n">
-        <v>0.001926141414141414</v>
+        <v>0.00184420202020202</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04478179292929293</v>
+        <v>0.0437040404040404</v>
       </c>
     </row>
     <row r="7">
@@ -565,19 +565,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1572.404695466831</v>
+        <v>32953.09482859317</v>
       </c>
       <c r="C7" t="n">
-        <v>1599.916851106969</v>
+        <v>1599.939391765857</v>
       </c>
       <c r="D7" t="n">
-        <v>4973583.242901794</v>
+        <v>5683655.954147227</v>
       </c>
       <c r="E7" t="n">
-        <v>0.002407676767676768</v>
+        <v>0.002305252525252525</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04444461616161616</v>
+        <v>0.04336505050505051</v>
       </c>
     </row>
     <row r="8">
@@ -585,19 +585,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1596.541106095636</v>
+        <v>33474.46247422984</v>
       </c>
       <c r="C8" t="n">
-        <v>1599.914272717811</v>
+        <v>1599.937455410342</v>
       </c>
       <c r="D8" t="n">
-        <v>4973384.390637224</v>
+        <v>5683485.298164485</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002889212121212121</v>
+        <v>0.00276630303030303</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04410743939393939</v>
+        <v>0.04302606060606061</v>
       </c>
     </row>
     <row r="9">
@@ -605,19 +605,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1621.237654452294</v>
+        <v>34008.30359389143</v>
       </c>
       <c r="C9" t="n">
-        <v>1599.911593445988</v>
+        <v>1599.935441012554</v>
       </c>
       <c r="D9" t="n">
-        <v>4973177.766115397</v>
+        <v>5683307.769334725</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003370747474747474</v>
+        <v>0.003227353535353535</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04377026262626262</v>
+        <v>0.04268707070707071</v>
       </c>
     </row>
     <row r="10">
@@ -625,19 +625,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1646.511812749235</v>
+        <v>34555.01936174438</v>
       </c>
       <c r="C10" t="n">
-        <v>1599.908808507219</v>
+        <v>1599.933344761361</v>
       </c>
       <c r="D10" t="n">
-        <v>4972963.001327304</v>
+        <v>5683123.03241681</v>
       </c>
       <c r="E10" t="n">
-        <v>0.003852282828282828</v>
+        <v>0.00368840404040404</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04343308585858586</v>
+        <v>0.04234808080808081</v>
       </c>
     </row>
     <row r="11">
@@ -645,19 +645,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1672.381740073907</v>
+        <v>35115.02721568259</v>
       </c>
       <c r="C11" t="n">
-        <v>1599.905912849666</v>
+        <v>1599.931162626261</v>
       </c>
       <c r="D11" t="n">
-        <v>4972739.707730294</v>
+        <v>5682930.732905638</v>
       </c>
       <c r="E11" t="n">
-        <v>0.004333818181818182</v>
+        <v>0.004149454545454545</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04309590909090909</v>
+        <v>0.04200909090909091</v>
       </c>
     </row>
     <row r="12">
@@ -665,19 +665,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1698.86631508778</v>
+        <v>35688.76165531909</v>
       </c>
       <c r="C12" t="n">
-        <v>1599.902901136603</v>
+        <v>1599.928890342797</v>
       </c>
       <c r="D12" t="n">
-        <v>4972507.4749228</v>
+        <v>5682730.495753942</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004815353535353535</v>
+        <v>0.00461050505050505</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04275873232323232</v>
+        <v>0.04167010101010101</v>
       </c>
     </row>
     <row r="13">
@@ -685,19 +685,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1725.98517052389</v>
+        <v>36276.67508605861</v>
       </c>
       <c r="C13" t="n">
-        <v>1599.899767727855</v>
+        <v>1599.926523396858</v>
       </c>
       <c r="D13" t="n">
-        <v>4972265.8692244</v>
+        <v>5682521.923997739</v>
       </c>
       <c r="E13" t="n">
-        <v>0.005296888888888888</v>
+        <v>0.005071555555555555</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04242155555555555</v>
+        <v>0.04133111111111111</v>
       </c>
     </row>
     <row r="14">
@@ -705,19 +705,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1753.758729645356</v>
+        <v>36879.23871231997</v>
       </c>
       <c r="C14" t="n">
-        <v>1599.896506659836</v>
+        <v>1599.924057007792</v>
       </c>
       <c r="D14" t="n">
-        <v>4972014.432150022</v>
+        <v>5682304.597277165</v>
       </c>
       <c r="E14" t="n">
-        <v>0.005778424242424242</v>
+        <v>0.00553260606060606</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04208437878787879</v>
+        <v>0.04099212121212122</v>
       </c>
     </row>
     <row r="15">
@@ -725,19 +725,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1782.208244783128</v>
+        <v>37496.94348320895</v>
       </c>
       <c r="C15" t="n">
-        <v>1599.893111624089</v>
+        <v>1599.921486110212</v>
       </c>
       <c r="D15" t="n">
-        <v>4971752.678769547</v>
+        <v>5682078.070243648</v>
       </c>
       <c r="E15" t="n">
-        <v>0.006259959595959596</v>
+        <v>0.005993656565656565</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04174720202020202</v>
+        <v>0.04065313131313131</v>
       </c>
     </row>
     <row r="16">
@@ -745,19 +745,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1811.355838066592</v>
+        <v>38130.30109419346</v>
       </c>
       <c r="C16" t="n">
-        <v>1599.889575944222</v>
+        <v>1599.918805334388</v>
       </c>
       <c r="D16" t="n">
-        <v>4971480.095945762</v>
+        <v>5681841.870843858</v>
       </c>
       <c r="E16" t="n">
-        <v>0.006741494949494949</v>
+        <v>0.00645470707070707</v>
       </c>
       <c r="F16" t="n">
-        <v>0.04141002525252525</v>
+        <v>0.04031414141414141</v>
       </c>
     </row>
     <row r="17">
@@ -765,19 +765,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1841.224544534898</v>
+        <v>38779.84504860767</v>
       </c>
       <c r="C17" t="n">
-        <v>1599.885892551057</v>
+        <v>1599.916008985102</v>
       </c>
       <c r="D17" t="n">
-        <v>4971196.140436294</v>
+        <v>5681595.498469385</v>
       </c>
       <c r="E17" t="n">
-        <v>0.007223030303030302</v>
+        <v>0.006915757575757575</v>
       </c>
       <c r="F17" t="n">
-        <v>0.04107284848484848</v>
+        <v>0.03997515151515152</v>
       </c>
     </row>
     <row r="18">
@@ -785,19 +785,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1871.838357745651</v>
+        <v>39446.13178309979</v>
       </c>
       <c r="C18" t="n">
-        <v>1599.882053955888</v>
+        <v>1599.913091018832</v>
       </c>
       <c r="D18" t="n">
-        <v>4970900.236851798</v>
+        <v>5681338.421960623</v>
       </c>
       <c r="E18" t="n">
-        <v>0.007704565656565656</v>
+        <v>0.00737680808080808</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04073567171717172</v>
+        <v>0.03963616161616162</v>
       </c>
     </row>
     <row r="19">
@@ -805,19 +805,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1903.222278075011</v>
+        <v>40129.74186153806</v>
       </c>
       <c r="C19" t="n">
-        <v>1599.878052221648</v>
+        <v>1599.910045019104</v>
       </c>
       <c r="D19" t="n">
-        <v>4970591.775455495</v>
+        <v>5681070.077451418</v>
       </c>
       <c r="E19" t="n">
-        <v>0.00818610101010101</v>
+        <v>0.007837858585858585</v>
       </c>
       <c r="F19" t="n">
-        <v>0.04039849494949495</v>
+        <v>0.03929717171717172</v>
       </c>
     </row>
     <row r="20">
@@ -825,19 +825,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1935.402363877067</v>
+        <v>40831.28124187911</v>
       </c>
       <c r="C20" t="n">
-        <v>1599.873878931828</v>
+        <v>1599.906864169877</v>
       </c>
       <c r="D20" t="n">
-        <v>4970270.109791862</v>
+        <v>5680789.866041806</v>
       </c>
       <c r="E20" t="n">
-        <v>0.008667636363636363</v>
+        <v>0.008298909090909089</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04006131818181818</v>
+        <v>0.03895818181818182</v>
       </c>
     </row>
     <row r="21">
@@ -845,19 +845,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1968.405785720023</v>
+        <v>41551.3826218446</v>
       </c>
       <c r="C21" t="n">
-        <v>1599.869525156915</v>
+        <v>1599.903541226728</v>
       </c>
       <c r="D21" t="n">
-        <v>4969934.554127079</v>
+        <v>5680497.151279988</v>
       </c>
       <c r="E21" t="n">
-        <v>0.009149171717171717</v>
+        <v>0.008759959595959595</v>
       </c>
       <c r="F21" t="n">
-        <v>0.03972414141414141</v>
+        <v>0.03861919191919192</v>
       </c>
     </row>
     <row r="22">
@@ -865,19 +865,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2002.260883876911</v>
+        <v>42290.70686809588</v>
       </c>
       <c r="C22" t="n">
-        <v>1599.864981418173</v>
+        <v>1599.900068485703</v>
       </c>
       <c r="D22" t="n">
-        <v>4969584.380688286</v>
+        <v>5680191.256440392</v>
       </c>
       <c r="E22" t="n">
-        <v>0.009630707070707071</v>
+        <v>0.0092210101010101</v>
       </c>
       <c r="F22" t="n">
-        <v>0.03938696464646464</v>
+        <v>0.03828020202020202</v>
       </c>
     </row>
     <row r="23">
@@ -885,19 +885,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2036.997229333457</v>
+        <v>43049.94453566169</v>
       </c>
       <c r="C23" t="n">
-        <v>1599.860237648485</v>
+        <v>1599.896437749566</v>
       </c>
       <c r="D23" t="n">
-        <v>4969218.816679761</v>
+        <v>5679871.461575774</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01011224242424242</v>
+        <v>0.009682060606060605</v>
       </c>
       <c r="F23" t="n">
-        <v>0.03904978787878788</v>
+        <v>0.03794121212121213</v>
       </c>
     </row>
     <row r="24">
@@ -905,19 +905,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2072.645688535192</v>
+        <v>43829.81748402475</v>
       </c>
       <c r="C24" t="n">
-        <v>1599.855283150015</v>
+        <v>1599.892640291218</v>
       </c>
       <c r="D24" t="n">
-        <v>4968837.041058635</v>
+        <v>5679537.000323061</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01059377777777778</v>
+        <v>0.01014311111111111</v>
       </c>
       <c r="F24" t="n">
-        <v>0.03871261111111111</v>
+        <v>0.03760222222222222</v>
       </c>
     </row>
     <row r="25">
@@ -925,19 +925,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2109.238492157821</v>
+        <v>44631.08059643443</v>
       </c>
       <c r="C25" t="n">
-        <v>1599.850106548382</v>
+        <v>1599.888666814036</v>
       </c>
       <c r="D25" t="n">
-        <v>4968438.181045952</v>
+        <v>5679187.056442077</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01107531313131313</v>
+        <v>0.01060416161616162</v>
       </c>
       <c r="F25" t="n">
-        <v>0.03837543434343434</v>
+        <v>0.03726323232323232</v>
       </c>
     </row>
     <row r="26">
@@ -945,19 +945,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2146.809308168605</v>
+        <v>45454.52361108147</v>
       </c>
       <c r="C26" t="n">
-        <v>1599.84469574303</v>
+        <v>1599.884507408802</v>
       </c>
       <c r="D26" t="n">
-        <v>4968021.308351233</v>
+        <v>5678820.760057134</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01155684848484848</v>
+        <v>0.01106521212121212</v>
       </c>
       <c r="F26" t="n">
-        <v>0.03803825757575757</v>
+        <v>0.03692424242424243</v>
       </c>
     </row>
     <row r="27">
@@ -965,19 +965,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2185.393319508094</v>
+        <v>46300.97307151067</v>
       </c>
       <c r="C27" t="n">
-        <v>1599.839037853443</v>
+        <v>1599.880151506928</v>
       </c>
       <c r="D27" t="n">
-        <v>4967585.435081455</v>
+        <v>5678437.183578124</v>
       </c>
       <c r="E27" t="n">
-        <v>0.01203838383838384</v>
+        <v>0.01152626262626263</v>
       </c>
       <c r="F27" t="n">
-        <v>0.03770108080808081</v>
+        <v>0.03658525252525253</v>
       </c>
     </row>
     <row r="28">
@@ -985,19 +985,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2225.027306717699</v>
+        <v>47171.29440585863</v>
       </c>
       <c r="C28" t="n">
-        <v>1599.833119160785</v>
+        <v>1599.8755878296</v>
       </c>
       <c r="D28" t="n">
-        <v>4967129.509306101</v>
+        <v>5678035.337266585</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01251991919191919</v>
+        <v>0.01198731313131313</v>
       </c>
       <c r="F28" t="n">
-        <v>0.03736390404040404</v>
+        <v>0.03624626262626263</v>
       </c>
     </row>
     <row r="29">
@@ -1005,19 +1005,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2265.749735880569</v>
+        <v>48066.39414451091</v>
       </c>
       <c r="C29" t="n">
-        <v>1599.826925044561</v>
+        <v>1599.870804332433</v>
       </c>
       <c r="D29" t="n">
-        <v>4966652.410245251</v>
+        <v>5677614.164413529</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01300145454545455</v>
+        <v>0.01244836363636364</v>
       </c>
       <c r="F29" t="n">
-        <v>0.03702672727272727</v>
+        <v>0.03590727272727273</v>
       </c>
     </row>
     <row r="30">
@@ -1025,19 +1025,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2307.600852270519</v>
+        <v>48987.22228704568</v>
       </c>
       <c r="C30" t="n">
-        <v>1599.82043991379</v>
+        <v>1599.865788145201</v>
       </c>
       <c r="D30" t="n">
-        <v>4966152.943044482</v>
+        <v>5677172.536089581</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0134829898989899</v>
+        <v>0.01290941414141414</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0366895505050505</v>
+        <v>0.03556828282828283</v>
       </c>
     </row>
     <row r="31">
@@ -1045,19 +1045,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2350.622780136845</v>
+        <v>49934.77482951785</v>
       </c>
       <c r="C31" t="n">
-        <v>1599.813647132157</v>
+        <v>1599.860525506155</v>
       </c>
       <c r="D31" t="n">
-        <v>4965629.833096432</v>
+        <v>5676709.245427152</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01396452525252525</v>
+        <v>0.01337046464646465</v>
       </c>
       <c r="F31" t="n">
-        <v>0.03635237373737374</v>
+        <v>0.03522929292929293</v>
       </c>
     </row>
     <row r="32">
@@ -1065,19 +1065,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2394.859629089814</v>
+        <v>50910.09646551302</v>
       </c>
       <c r="C32" t="n">
-        <v>1599.806528936567</v>
+        <v>1599.85500169034</v>
       </c>
       <c r="D32" t="n">
-        <v>4965081.719864864</v>
+        <v>5676223.001383208</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0144460606060606</v>
+        <v>0.01383151515151515</v>
       </c>
       <c r="F32" t="n">
-        <v>0.03601519696969697</v>
+        <v>0.03489030303030304</v>
       </c>
     </row>
     <row r="33">
@@ -1085,19 +1085,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2440.3576075948</v>
+        <v>51914.28347404185</v>
       </c>
       <c r="C33" t="n">
-        <v>1599.799066348404</v>
+        <v>1599.849200931341</v>
       </c>
       <c r="D33" t="n">
-        <v>4964507.150161146</v>
+        <v>5675712.421933503</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01492759595959596</v>
+        <v>0.01429256565656566</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0356780202020202</v>
+        <v>0.03455131313131313</v>
       </c>
     </row>
     <row r="34">
@@ -1105,19 +1105,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2487.16514410763</v>
+        <v>52948.48680942986</v>
       </c>
       <c r="C34" t="n">
-        <v>1599.791239076807</v>
+        <v>1599.843106335746</v>
       </c>
       <c r="D34" t="n">
-        <v>4963904.57082033</v>
+        <v>5675176.026638091</v>
       </c>
       <c r="E34" t="n">
-        <v>0.01540913131313131</v>
+        <v>0.01475361616161616</v>
       </c>
       <c r="F34" t="n">
-        <v>0.03534084343434343</v>
+        <v>0.03421232323232323</v>
       </c>
     </row>
     <row r="35">
@@ -1125,19 +1125,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2535.333016486814</v>
+        <v>54013.91540971743</v>
       </c>
       <c r="C35" t="n">
-        <v>1599.783025413071</v>
+        <v>1599.836699789563</v>
       </c>
       <c r="D35" t="n">
-        <v>4963272.320711524</v>
+        <v>5674612.22851169</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01589066666666666</v>
+        <v>0.01521466666666666</v>
       </c>
       <c r="F35" t="n">
-        <v>0.03500366666666667</v>
+        <v>0.03387333333333333</v>
       </c>
     </row>
     <row r="36">
@@ -1145,19 +1145,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2584.914490279327</v>
+        <v>55111.83974123815</v>
       </c>
       <c r="C36" t="n">
-        <v>1599.774402115338</v>
+        <v>1599.829961855739</v>
       </c>
       <c r="D36" t="n">
-        <v>4962608.622020525</v>
+        <v>5674019.325127001</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01637220202020202</v>
+        <v>0.01567571717171717</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0346664898989899</v>
+        <v>0.03353434343434343</v>
       </c>
     </row>
     <row r="37">
@@ -1165,19 +1165,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2635.965466634234</v>
+        <v>56243.59559895574</v>
       </c>
       <c r="C37" t="n">
-        <v>1599.765344282501</v>
+        <v>1599.822871661815</v>
       </c>
       <c r="D37" t="n">
-        <v>4961911.570723766</v>
+        <v>5673395.488867757</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01685373737373737</v>
+        <v>0.01613676767676768</v>
       </c>
       <c r="F37" t="n">
-        <v>0.03432931313131313</v>
+        <v>0.03319535353535354</v>
       </c>
     </row>
     <row r="38">
@@ -1185,19 +1185,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2688.544640592855</v>
+        <v>57410.58818389761</v>
       </c>
       <c r="C38" t="n">
-        <v>1599.755825216187</v>
+        <v>1599.815406776655</v>
       </c>
       <c r="D38" t="n">
-        <v>4961179.126171938</v>
+        <v>5672738.756240742</v>
       </c>
       <c r="E38" t="n">
-        <v>0.01733527272727273</v>
+        <v>0.01659781818181818</v>
       </c>
       <c r="F38" t="n">
-        <v>0.03399213636363636</v>
+        <v>0.03285636363636363</v>
       </c>
     </row>
     <row r="39">
@@ -1205,19 +1205,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2742.71367060637</v>
+        <v>58614.29648106115</v>
       </c>
       <c r="C39" t="n">
-        <v>1599.745816269553</v>
+        <v>1599.807543075027</v>
       </c>
       <c r="D39" t="n">
-        <v>4960409.099687502</v>
+        <v>5672047.016142989</v>
       </c>
       <c r="E39" t="n">
-        <v>0.01781680808080808</v>
+        <v>0.01705886868686868</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0336549595959596</v>
+        <v>0.03251737373737373</v>
       </c>
     </row>
     <row r="40">
@@ -1225,19 +1225,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2798.537360201765</v>
+        <v>59856.27796349776</v>
       </c>
       <c r="C40" t="n">
-        <v>1599.735286681451</v>
+        <v>1599.799254588675</v>
       </c>
       <c r="D40" t="n">
-        <v>4959599.142070653</v>
+        <v>5671317.996968562</v>
       </c>
       <c r="E40" t="n">
-        <v>0.01829834343434343</v>
+        <v>0.01751991919191919</v>
       </c>
       <c r="F40" t="n">
-        <v>0.03331778282828283</v>
+        <v>0.03217838383838384</v>
       </c>
     </row>
     <row r="41">
@@ -1245,19 +1245,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2856.083852804351</v>
+        <v>61138.17365030861</v>
       </c>
       <c r="C41" t="n">
-        <v>1599.724203394338</v>
+        <v>1599.790513342392</v>
       </c>
       <c r="D41" t="n">
-        <v>4958746.729894935</v>
+        <v>5670549.252427209</v>
       </c>
       <c r="E41" t="n">
-        <v>0.01877987878787879</v>
+        <v>0.0179809696969697</v>
       </c>
       <c r="F41" t="n">
-        <v>0.03298060606060606</v>
+        <v>0.03183939393939394</v>
       </c>
     </row>
     <row r="42">
@@ -1265,19 +1265,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2915.424840820639</v>
+        <v>62461.71355035705</v>
       </c>
       <c r="C42" t="n">
-        <v>1599.712530854142</v>
+        <v>1599.781289173296</v>
       </c>
       <c r="D42" t="n">
-        <v>4957849.150459172</v>
+        <v>5669738.145923063</v>
       </c>
       <c r="E42" t="n">
-        <v>0.01926141414141414</v>
+        <v>0.0184420202020202</v>
       </c>
       <c r="F42" t="n">
-        <v>0.03264342929292929</v>
+        <v>0.03150040404040404</v>
       </c>
     </row>
     <row r="43">
@@ -1285,19 +1285,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2976.635790191028</v>
+        <v>63828.72252436362</v>
       </c>
       <c r="C43" t="n">
-        <v>1599.700230790017</v>
+        <v>1599.771549531453</v>
       </c>
       <c r="D43" t="n">
-        <v>4956903.485246223</v>
+        <v>5668881.833336134</v>
       </c>
       <c r="E43" t="n">
-        <v>0.01974294949494949</v>
+        <v>0.01890307070707071</v>
       </c>
       <c r="F43" t="n">
-        <v>0.03230625252525253</v>
+        <v>0.03116141414141414</v>
       </c>
     </row>
     <row r="44">
@@ -1305,19 +1305,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3039.796181738935</v>
+        <v>65241.12660388247</v>
       </c>
       <c r="C44" t="n">
-        <v>1599.687261971707</v>
+        <v>1599.761259259577</v>
       </c>
       <c r="D44" t="n">
-        <v>4955906.591719776</v>
+        <v>5667977.244013502</v>
       </c>
       <c r="E44" t="n">
-        <v>0.02022448484848485</v>
+        <v>0.01936412121212121</v>
       </c>
       <c r="F44" t="n">
-        <v>0.03196907575757576</v>
+        <v>0.03082242424242424</v>
       </c>
     </row>
     <row r="45">
@@ -1325,19 +1325,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>3104.989770773005</v>
+        <v>66700.95980773137</v>
       </c>
       <c r="C45" t="n">
-        <v>1599.673579941886</v>
+        <v>1599.750380349342</v>
       </c>
       <c r="D45" t="n">
-        <v>4954855.083269152</v>
+        <v>5667021.059763486</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0207060202020202</v>
+        <v>0.01982517171717172</v>
       </c>
       <c r="F45" t="n">
-        <v>0.03163189898989899</v>
+        <v>0.03048343434343434</v>
       </c>
     </row>
     <row r="46">
@@ -1345,19 +1345,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>3172.304866543403</v>
+        <v>68210.37150148241</v>
       </c>
       <c r="C46" t="n">
-        <v>1599.659136720566</v>
+        <v>1599.738871671476</v>
       </c>
       <c r="D46" t="n">
-        <v>4953745.307087516</v>
+        <v>5666009.691612578</v>
       </c>
       <c r="E46" t="n">
-        <v>0.02118755555555555</v>
+        <v>0.02028622222222222</v>
       </c>
       <c r="F46" t="n">
-        <v>0.03129472222222222</v>
+        <v>0.03014444444444445</v>
       </c>
     </row>
     <row r="47">
@@ -1365,19 +1365,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3241.83463331329</v>
+        <v>69771.634350141</v>
       </c>
       <c r="C47" t="n">
-        <v>1599.643880478201</v>
+        <v>1599.726688676416</v>
       </c>
       <c r="D47" t="n">
-        <v>4952573.319740697</v>
+        <v>5664939.254054968</v>
       </c>
       <c r="E47" t="n">
-        <v>0.02166909090909091</v>
+        <v>0.02074727272727273</v>
       </c>
       <c r="F47" t="n">
-        <v>0.03095754545454546</v>
+        <v>0.02980545454545454</v>
       </c>
     </row>
     <row r="48">
@@ -1385,19 +1385,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3313.677414989926</v>
+        <v>71387.15291946419</v>
       </c>
       <c r="C48" t="n">
-        <v>1599.627755173701</v>
+        <v>1599.713783061855</v>
       </c>
       <c r="D48" t="n">
-        <v>4951334.860151138</v>
+        <v>5663805.536486749</v>
       </c>
       <c r="E48" t="n">
-        <v>0.02215062626262626</v>
+        <v>0.02120832323232323</v>
       </c>
       <c r="F48" t="n">
-        <v>0.03062036868686869</v>
+        <v>0.02946646464646465</v>
       </c>
     </row>
     <row r="49">
@@ -1405,19 +1405,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3387.937085440838</v>
+        <v>73059.47298728912</v>
       </c>
       <c r="C49" t="n">
-        <v>1599.61070015308</v>
+        <v>1599.700102403019</v>
       </c>
       <c r="D49" t="n">
-        <v>4950025.319686876</v>
+        <v>5662603.97147436</v>
       </c>
       <c r="E49" t="n">
-        <v>0.02263216161616162</v>
+        <v>0.02166937373737374</v>
       </c>
       <c r="F49" t="n">
-        <v>0.03028319191919192</v>
+        <v>0.02912747474747475</v>
       </c>
     </row>
     <row r="50">
@@ -1425,19 +1425,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3464.723426886116</v>
+        <v>74791.29163288754</v>
       </c>
       <c r="C50" t="n">
-        <v>1599.592649703731</v>
+        <v>1599.685589740876</v>
       </c>
       <c r="D50" t="n">
-        <v>4948639.708995981</v>
+        <v>5661329.599457772</v>
       </c>
       <c r="E50" t="n">
-        <v>0.02311369696969697</v>
+        <v>0.02213042424242424</v>
       </c>
       <c r="F50" t="n">
-        <v>0.02994601515151515</v>
+        <v>0.02878848484848485</v>
       </c>
     </row>
     <row r="51">
@@ -1445,19 +1445,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>3544.152538942034</v>
+        <v>76585.4681798112</v>
       </c>
       <c r="C51" t="n">
-        <v>1599.573532558815</v>
+        <v>1599.670183122819</v>
       </c>
       <c r="D51" t="n">
-        <v>4947172.621188303</v>
+        <v>5659977.02943187</v>
       </c>
       <c r="E51" t="n">
-        <v>0.02359523232323232</v>
+        <v>0.02259147474747475</v>
       </c>
       <c r="F51" t="n">
-        <v>0.02960883838383839</v>
+        <v>0.02844949494949495</v>
       </c>
     </row>
     <row r="52">
@@ -1465,19 +1465,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>3626.347281234924</v>
+        <v>78445.03607607483</v>
       </c>
       <c r="C52" t="n">
-        <v>1599.553271345248</v>
+        <v>1599.653815089532</v>
       </c>
       <c r="D52" t="n">
-        <v>4945618.190897884</v>
+        <v>5658540.395082974</v>
       </c>
       <c r="E52" t="n">
-        <v>0.02407676767676768</v>
+        <v>0.02305252525252525</v>
       </c>
       <c r="F52" t="n">
-        <v>0.02927166161616162</v>
+        <v>0.02811050505050505</v>
       </c>
     </row>
     <row r="53">
@@ -1485,19 +1485,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>3711.437752771114</v>
+        <v>80373.21580498469</v>
       </c>
       <c r="C53" t="n">
-        <v>1599.531781967959</v>
+        <v>1599.636412100828</v>
       </c>
       <c r="D53" t="n">
-        <v>4943970.048701573</v>
+        <v>5657013.305780416</v>
       </c>
       <c r="E53" t="n">
-        <v>0.02455830303030303</v>
+        <v>0.02351357575757575</v>
       </c>
       <c r="F53" t="n">
-        <v>0.02893448484848485</v>
+        <v>0.02777151515151515</v>
       </c>
     </row>
     <row r="54">
@@ -1505,19 +1505,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3799.561811624006</v>
+        <v>82373.42893030864</v>
       </c>
       <c r="C54" t="n">
-        <v>1599.508972921901</v>
+        <v>1599.617893892123</v>
       </c>
       <c r="D54" t="n">
-        <v>4942221.270287197</v>
+        <v>5655388.791735309</v>
       </c>
       <c r="E54" t="n">
-        <v>0.02503983838383838</v>
+        <v>0.02397462626262626</v>
       </c>
       <c r="F54" t="n">
-        <v>0.02859730808080808</v>
+        <v>0.02743252525252525</v>
       </c>
     </row>
     <row r="55">
@@ -1525,19 +1525,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>3890.865638876391</v>
+        <v>84449.31339233946</v>
       </c>
       <c r="C55" t="n">
-        <v>1599.484744522087</v>
+        <v>1599.598172751895</v>
       </c>
       <c r="D55" t="n">
-        <v>4940364.319679157</v>
+        <v>5653659.242527005</v>
       </c>
       <c r="E55" t="n">
-        <v>0.02552137373737373</v>
+        <v>0.02443567676767677</v>
       </c>
       <c r="F55" t="n">
-        <v>0.02826013131313132</v>
+        <v>0.02709353535353535</v>
       </c>
     </row>
     <row r="56">
@@ -1545,19 +1545,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>3985.504351225988</v>
+        <v>86604.74018334069</v>
       </c>
       <c r="C56" t="n">
-        <v>1599.458988040295</v>
+        <v>1599.577152709059</v>
       </c>
       <c r="D56" t="n">
-        <v>4938390.985718516</v>
+        <v>5651816.338087613</v>
       </c>
       <c r="E56" t="n">
-        <v>0.02600290909090909</v>
+        <v>0.02489672727272727</v>
       </c>
       <c r="F56" t="n">
-        <v>0.02792295454545455</v>
+        <v>0.02675454545454545</v>
       </c>
     </row>
     <row r="57">
@@ -1565,19 +1565,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4083.642667122346</v>
+        <v>88843.83154827511</v>
       </c>
       <c r="C57" t="n">
-        <v>1599.431584735457</v>
+        <v>1599.554728617219</v>
       </c>
       <c r="D57" t="n">
-        <v>4936292.31088054</v>
+        <v>5649850.971074834</v>
       </c>
       <c r="E57" t="n">
-        <v>0.02648444444444444</v>
+        <v>0.02535777777777777</v>
       </c>
       <c r="F57" t="n">
-        <v>0.02758577777777778</v>
+        <v>0.02641555555555555</v>
       </c>
     </row>
     <row r="58">
@@ -1585,19 +1585,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4185.455631918272</v>
+        <v>91170.98087253938</v>
       </c>
       <c r="C58" t="n">
-        <v>1599.402404762475</v>
+        <v>1599.530785120812</v>
       </c>
       <c r="D58" t="n">
-        <v>4934058.511358385</v>
+        <v>5647753.15940555</v>
       </c>
       <c r="E58" t="n">
-        <v>0.02696597979797979</v>
+        <v>0.02581882828282828</v>
       </c>
       <c r="F58" t="n">
-        <v>0.02724860101010101</v>
+        <v>0.02607656565656566</v>
       </c>
     </row>
     <row r="59">
@@ -1605,19 +1605,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4291.12940812234</v>
+        <v>93590.87443932597</v>
       </c>
       <c r="C59" t="n">
-        <v>1599.371305941839</v>
+        <v>1599.505195485496</v>
       </c>
       <c r="D59" t="n">
-        <v>4931678.887179537</v>
+        <v>5645511.947514389</v>
       </c>
       <c r="E59" t="n">
-        <v>0.02744751515151515</v>
+        <v>0.02627987878787879</v>
       </c>
       <c r="F59" t="n">
-        <v>0.02691142424242424</v>
+        <v>0.02573757575757576</v>
       </c>
     </row>
     <row r="60">
@@ -1625,19 +1625,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4400.862137586156</v>
+        <v>96108.5152612407</v>
       </c>
       <c r="C60" t="n">
-        <v>1599.338132369412</v>
+        <v>1599.477820272232</v>
       </c>
       <c r="D60" t="n">
-        <v>4929141.720916122</v>
+        <v>5643115.294666809</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0279290505050505</v>
+        <v>0.02674092929292929</v>
       </c>
       <c r="F60" t="n">
-        <v>0.02657424747474748</v>
+        <v>0.02539858585858586</v>
       </c>
     </row>
     <row r="61">
@@ -1645,19 +1645,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4514.864883281854</v>
+        <v>98729.24921716201</v>
       </c>
       <c r="C61" t="n">
-        <v>1599.302712842206</v>
+        <v>1599.44850583085</v>
       </c>
       <c r="D61" t="n">
-        <v>4926434.163313427</v>
+        <v>5640549.94836963</v>
       </c>
       <c r="E61" t="n">
-        <v>0.02841058585858586</v>
+        <v>0.02720197979797979</v>
       </c>
       <c r="F61" t="n">
-        <v>0.02623707070707071</v>
+        <v>0.02505959595959596</v>
       </c>
     </row>
     <row r="62">
@@ -1665,19 +1665,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4633.362659268851</v>
+        <v>101458.7937544482</v>
       </c>
       <c r="C62" t="n">
-        <v>1599.264859071786</v>
+        <v>1599.417082584645</v>
       </c>
       <c r="D62" t="n">
-        <v>4923542.103877218</v>
+        <v>5637801.300586619</v>
       </c>
       <c r="E62" t="n">
-        <v>0.02889212121212121</v>
+        <v>0.0276630303030303</v>
       </c>
       <c r="F62" t="n">
-        <v>0.02589989393939394</v>
+        <v>0.02472060606060606</v>
       </c>
     </row>
     <row r="63">
@@ -1685,19 +1685,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4756.595558527745</v>
+        <v>104303.2694509794</v>
       </c>
       <c r="C63" t="n">
-        <v>1599.224363651826</v>
+        <v>1599.383363072317</v>
       </c>
       <c r="D63" t="n">
-        <v>4920450.024120412</v>
+        <v>5634853.224058153</v>
       </c>
       <c r="E63" t="n">
-        <v>0.02937365656565656</v>
+        <v>0.02812408080808081</v>
       </c>
       <c r="F63" t="n">
-        <v>0.02556271717171717</v>
+        <v>0.02438161616161616</v>
       </c>
     </row>
     <row r="64">
@@ -1705,19 +1705,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4884.819989553579</v>
+        <v>107269.2347700599</v>
       </c>
       <c r="C64" t="n">
-        <v>1599.180997740299</v>
+        <v>1599.347139707366</v>
       </c>
       <c r="D64" t="n">
-        <v>4917140.830768334</v>
+        <v>5631687.885540563</v>
       </c>
       <c r="E64" t="n">
-        <v>0.02985519191919192</v>
+        <v>0.02858513131313131</v>
       </c>
       <c r="F64" t="n">
-        <v>0.02522554040404041</v>
+        <v>0.02404262626262626</v>
       </c>
     </row>
     <row r="65">
@@ -1725,19 +1725,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>5018.31003406707</v>
+        <v>110363.7243864794</v>
       </c>
       <c r="C65" t="n">
-        <v>1599.134508409205</v>
+        <v>1599.308182207413</v>
       </c>
       <c r="D65" t="n">
-        <v>4913595.665719845</v>
+        <v>5628285.532189888</v>
       </c>
       <c r="E65" t="n">
-        <v>0.03033672727272727</v>
+        <v>0.02904618181818181</v>
       </c>
       <c r="F65" t="n">
-        <v>0.02488836363636364</v>
+        <v>0.02370363636363636</v>
       </c>
     </row>
     <row r="66">
@@ -1745,19 +1745,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>5157.358939728299</v>
+        <v>113594.2915136565</v>
       </c>
       <c r="C66" t="n">
-        <v>1599.084615606038</v>
+        <v>1599.266234636703</v>
       </c>
       <c r="D66" t="n">
-        <v>4909793.688994886</v>
+        <v>5624624.246605663</v>
       </c>
       <c r="E66" t="n">
-        <v>0.03081826262626262</v>
+        <v>0.02950723232323232</v>
       </c>
       <c r="F66" t="n">
-        <v>0.02455118686868687</v>
+        <v>0.02336464646464646</v>
       </c>
     </row>
     <row r="67">
@@ -1765,19 +1765,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>5302.280763729254</v>
+        <v>116969.054722041</v>
       </c>
       <c r="C67" t="n">
-        <v>1599.031008659824</v>
+        <v>1599.221011993698</v>
       </c>
       <c r="D67" t="n">
-        <v>4905711.830153909</v>
+        <v>5620679.665181527</v>
       </c>
       <c r="E67" t="n">
-        <v>0.03129979797979798</v>
+        <v>0.02996828282828283</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0242140101010101</v>
+        <v>0.02302565656565657</v>
       </c>
     </row>
     <row r="68">
@@ -1785,19 +1785,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5453.412185218446</v>
+        <v>120496.7498082777</v>
       </c>
       <c r="C68" t="n">
-        <v>1598.973342251324</v>
+        <v>1599.172196261754</v>
       </c>
       <c r="D68" t="n">
-        <v>4901324.502821106</v>
+        <v>5616424.65335604</v>
       </c>
       <c r="E68" t="n">
-        <v>0.03178133333333333</v>
+        <v>0.03042933333333333</v>
       </c>
       <c r="F68" t="n">
-        <v>0.02387683333333334</v>
+        <v>0.02268666666666666</v>
       </c>
     </row>
     <row r="69">
@@ -1805,19 +1805,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>5611.114507071252</v>
+        <v>124186.7873570407</v>
       </c>
       <c r="C69" t="n">
-        <v>1598.911231750167</v>
+        <v>1599.119431823538</v>
       </c>
       <c r="D69" t="n">
-        <v>4896603.275862085</v>
+        <v>5611828.930042487</v>
       </c>
       <c r="E69" t="n">
-        <v>0.03226286868686869</v>
+        <v>0.03089038383838384</v>
       </c>
       <c r="F69" t="n">
-        <v>0.02353965656565657</v>
+        <v>0.02234767676767677</v>
       </c>
     </row>
     <row r="70">
@@ -1825,19 +1825,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>5775.775870436382</v>
+        <v>128049.3167303044</v>
       </c>
       <c r="C70" t="n">
-        <v>1598.844247800989</v>
+        <v>1599.062320118612</v>
       </c>
       <c r="D70" t="n">
-        <v>4891516.493447244</v>
+        <v>5606858.631935013</v>
       </c>
       <c r="E70" t="n">
-        <v>0.03274440404040404</v>
+        <v>0.03135143434343434</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0232024797979798</v>
+        <v>0.02200868686868687</v>
       </c>
     </row>
     <row r="71">
@@ -1845,19 +1845,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>5947.813708914082</v>
+        <v>132095.2973326221</v>
       </c>
       <c r="C71" t="n">
-        <v>1598.771910014771</v>
+        <v>1599.00041339652</v>
       </c>
       <c r="D71" t="n">
-        <v>4886028.834595565</v>
+        <v>5601475.806364875</v>
       </c>
       <c r="E71" t="n">
-        <v>0.03322593939393939</v>
+        <v>0.03181248484848485</v>
       </c>
       <c r="F71" t="n">
-        <v>0.02286530303030303</v>
+        <v>0.02166969696969697</v>
       </c>
     </row>
     <row r="72">
@@ -1865,19 +1865,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>6127.677473239146</v>
+        <v>136336.5781301116</v>
       </c>
       <c r="C72" t="n">
-        <v>1598.693679589039</v>
+        <v>1598.933207384151</v>
       </c>
       <c r="D72" t="n">
-        <v>4880100.800751857</v>
+        <v>5595637.818911927</v>
       </c>
       <c r="E72" t="n">
-        <v>0.03370747474747474</v>
+        <v>0.03227353535353535</v>
       </c>
       <c r="F72" t="n">
-        <v>0.02252812626262627</v>
+        <v>0.02133070707070707</v>
       </c>
     </row>
     <row r="73">
@@ -1885,19 +1885,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>6315.851662076884</v>
+        <v>140785.9865566367</v>
       </c>
       <c r="C73" t="n">
-        <v>1598.608950639434</v>
+        <v>1598.860132643281</v>
       </c>
       <c r="D73" t="n">
-        <v>4873688.117389634</v>
+        <v>5589296.658834751</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0341890101010101</v>
+        <v>0.03273458585858586</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0221909494949495</v>
+        <v>0.02099171717171717</v>
       </c>
     </row>
     <row r="74">
@@ -1905,19 +1905,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>6512.859200149361</v>
+        <v>145457.4281241879</v>
       </c>
       <c r="C74" t="n">
-        <v>1598.517039972683</v>
+        <v>1598.780544339597</v>
       </c>
       <c r="D74" t="n">
-        <v>4866741.032394569</v>
+        <v>5582398.121423336</v>
       </c>
       <c r="E74" t="n">
-        <v>0.03467054545454545</v>
+        <v>0.03319563636363636</v>
       </c>
       <c r="F74" t="n">
-        <v>0.02185377272727273</v>
+        <v>0.02065272727272727</v>
       </c>
     </row>
     <row r="75">
@@ -1925,19 +1925,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>6719.265211576704</v>
+        <v>150365.9982736828</v>
       </c>
       <c r="C75" t="n">
-        <v>1598.417174963708</v>
+        <v>1598.693710074316</v>
       </c>
       <c r="D75" t="n">
-        <v>4859203.489867461</v>
+        <v>5574880.841328056</v>
       </c>
       <c r="E75" t="n">
-        <v>0.03515208080808081</v>
+        <v>0.03365668686868686</v>
       </c>
       <c r="F75" t="n">
-        <v>0.02151659595959596</v>
+        <v>0.02031373737373737</v>
       </c>
     </row>
     <row r="76">
@@ -1945,19 +1945,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>6935.681244349627</v>
+        <v>155528.1082651626</v>
       </c>
       <c r="C76" t="n">
-        <v>1598.308479112218</v>
+        <v>1598.598795338445</v>
       </c>
       <c r="D76" t="n">
-        <v>4851012.15268754</v>
+        <v>5566675.144430358</v>
       </c>
       <c r="E76" t="n">
-        <v>0.03563361616161616</v>
+        <v>0.03411773737373737</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0211794191919192</v>
+        <v>0.01997474747474747</v>
       </c>
     </row>
     <row r="77">
@@ -1965,19 +1965,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>7162.770011429244</v>
+        <v>160961.6272232598</v>
       </c>
       <c r="C77" t="n">
-        <v>1598.18995474045</v>
+        <v>1598.494846030715</v>
       </c>
       <c r="D77" t="n">
-        <v>4842095.240356818</v>
+        <v>5557701.677416052</v>
       </c>
       <c r="E77" t="n">
-        <v>0.03611515151515151</v>
+        <v>0.03457878787878788</v>
       </c>
       <c r="F77" t="n">
-        <v>0.02084224242424243</v>
+        <v>0.01963575757575757</v>
       </c>
     </row>
     <row r="78">
@@ -1985,19 +1985,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>7401.250725754654</v>
+        <v>166686.0428382865</v>
       </c>
       <c r="C78" t="n">
-        <v>1598.060462143163</v>
+        <v>1598.380767323023</v>
       </c>
       <c r="D78" t="n">
-        <v>4832371.139684701</v>
+        <v>5547869.763225142</v>
       </c>
       <c r="E78" t="n">
-        <v>0.03659668686868687</v>
+        <v>0.03503983838383838</v>
       </c>
       <c r="F78" t="n">
-        <v>0.02050506565656566</v>
+        <v>0.01929676767676768</v>
       </c>
     </row>
     <row r="79">
@@ -2005,19 +2005,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>7651.905120753231</v>
+        <v>172722.6436940402</v>
       </c>
       <c r="C79" t="n">
-        <v>1597.91869430084</v>
+        <v>1598.255297947532</v>
       </c>
       <c r="D79" t="n">
-        <v>4821746.734088738</v>
+        <v>5537075.416037336</v>
       </c>
       <c r="E79" t="n">
-        <v>0.03707822222222222</v>
+        <v>0.03550088888888889</v>
       </c>
       <c r="F79" t="n">
-        <v>0.02016788888888889</v>
+        <v>0.01895777777777777</v>
       </c>
     </row>
     <row r="80">
@@ -2025,19 +2025,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>7915.584265694036</v>
+        <v>179094.7267723309</v>
       </c>
       <c r="C80" t="n">
-        <v>1597.763145997236</v>
+        <v>1598.116978696982</v>
       </c>
       <c r="D80" t="n">
-        <v>4810115.381553547</v>
+        <v>5525198.930102411</v>
       </c>
       <c r="E80" t="n">
-        <v>0.03755975757575757</v>
+        <v>0.03596193939393939</v>
       </c>
       <c r="F80" t="n">
-        <v>0.01983071212121212</v>
+        <v>0.01861878787878788</v>
       </c>
     </row>
     <row r="81">
@@ -2045,19 +2045,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>8193.216307446888</v>
+        <v>185827.8344070642</v>
       </c>
       <c r="C81" t="n">
-        <v>1597.59207581419</v>
+        <v>1597.96411354365</v>
       </c>
       <c r="D81" t="n">
-        <v>4797354.450031023</v>
+        <v>5512101.930558328</v>
       </c>
       <c r="E81" t="n">
-        <v>0.03804129292929292</v>
+        <v>0.0364229898989899</v>
       </c>
       <c r="F81" t="n">
-        <v>0.01949353535353536</v>
+        <v>0.01827979797979798</v>
       </c>
     </row>
     <row r="82">
@@ -2065,19 +2065,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>8485.815298288035</v>
+        <v>192950.0258679074</v>
       </c>
       <c r="C82" t="n">
-        <v>1597.403458967989</v>
+        <v>1597.794721248863</v>
       </c>
       <c r="D82" t="n">
-        <v>4783322.290005441</v>
+        <v>5497623.738624417</v>
       </c>
       <c r="E82" t="n">
-        <v>0.03852282828282828</v>
+        <v>0.0368840404040404</v>
       </c>
       <c r="F82" t="n">
-        <v>0.01915635858585859</v>
+        <v>0.01794080808080808</v>
       </c>
     </row>
     <row r="83">
@@ -2085,19 +2085,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>8794.491305518084</v>
+        <v>200492.1899109778</v>
       </c>
       <c r="C83" t="n">
-        <v>1597.194928238004</v>
+        <v>1597.606474586041</v>
       </c>
       <c r="D83" t="n">
-        <v>4767854.483591787</v>
+        <v>5481576.853923735</v>
       </c>
       <c r="E83" t="n">
-        <v>0.03900436363636364</v>
+        <v>0.0373450909090909</v>
       </c>
       <c r="F83" t="n">
-        <v>0.01881918181818182</v>
+        <v>0.01760181818181818</v>
       </c>
     </row>
     <row r="84">
@@ -2105,19 +2105,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9120.462045778761</v>
+        <v>208488.4061300009</v>
       </c>
       <c r="C84" t="n">
-        <v>1596.96369922194</v>
+        <v>1597.396623232931</v>
       </c>
       <c r="D84" t="n">
-        <v>4750759.152656199</v>
+        <v>5463741.286749813</v>
       </c>
       <c r="E84" t="n">
-        <v>0.03948589898989899</v>
+        <v>0.03780614141414141</v>
       </c>
       <c r="F84" t="n">
-        <v>0.01848200505050505</v>
+        <v>0.01726282828282828</v>
       </c>
     </row>
     <row r="85">
@@ -2125,19 +2125,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9465.066349706096</v>
+        <v>216976.3649080928</v>
       </c>
       <c r="C85" t="n">
-        <v>1596.706474678076</v>
+        <v>1597.161894840555</v>
       </c>
       <c r="D85" t="n">
-        <v>4731811.026812926</v>
+        <v>5443857.372821124</v>
       </c>
       <c r="E85" t="n">
-        <v>0.03996743434343434</v>
+        <v>0.03826719191919192</v>
       </c>
       <c r="F85" t="n">
-        <v>0.01814482828282829</v>
+        <v>0.01692383838383838</v>
       </c>
     </row>
     <row r="86">
@@ -2145,19 +2145,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9829.779847936559</v>
+        <v>225997.8584095891</v>
       </c>
       <c r="C86" t="n">
-        <v>1596.419320535385</v>
+        <v>1596.898366496823</v>
       </c>
       <c r="D86" t="n">
-        <v>4710743.852695837</v>
+        <v>5421616.556470187</v>
       </c>
       <c r="E86" t="n">
-        <v>0.04044896969696969</v>
+        <v>0.03872824242424242</v>
       </c>
       <c r="F86" t="n">
-        <v>0.01780765151515152</v>
+        <v>0.01658484848484848</v>
       </c>
     </row>
     <row r="87">
@@ -2165,19 +2165,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>10216.23338850439</v>
+        <v>235599.3586736677</v>
       </c>
       <c r="C87" t="n">
-        <v>1596.097502859843</v>
+        <v>1596.601295342982</v>
       </c>
       <c r="D87" t="n">
-        <v>4687240.547310586</v>
+        <v>5396649.409278418</v>
       </c>
       <c r="E87" t="n">
-        <v>0.04093050505050505</v>
+        <v>0.03918929292929293</v>
       </c>
       <c r="F87" t="n">
-        <v>0.01747047474747475</v>
+        <v>0.01624585858585858</v>
       </c>
     </row>
     <row r="88">
@@ -2185,19 +2185,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>10626.23486671847</v>
+        <v>245832.703983155</v>
       </c>
       <c r="C88" t="n">
-        <v>1595.735269966161</v>
+        <v>1596.264891744008</v>
       </c>
       <c r="D88" t="n">
-        <v>4660920.224509849</v>
+        <v>5368509.816092592</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0414120404040404</v>
+        <v>0.03965034343434343</v>
       </c>
       <c r="F88" t="n">
-        <v>0.01713329797979798</v>
+        <v>0.01590686868686868</v>
       </c>
     </row>
     <row r="89">
@@ -2205,19 +2205,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>11061.79540228447</v>
+        <v>256755.9221261624</v>
       </c>
       <c r="C89" t="n">
-        <v>1595.325555749866</v>
+        <v>1595.882009888911</v>
       </c>
       <c r="D89" t="n">
-        <v>4631320.792406773</v>
+        <v>5336653.7332838</v>
       </c>
       <c r="E89" t="n">
-        <v>0.04189357575757575</v>
+        <v>0.04011139393939393</v>
       </c>
       <c r="F89" t="n">
-        <v>0.01679612121212122</v>
+        <v>0.01556787878787878</v>
       </c>
     </row>
     <row r="90">
@@ -2225,19 +2225,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>11525.16118947492</v>
+        <v>268434.2304208041</v>
       </c>
       <c r="C90" t="n">
-        <v>1594.859566987066</v>
+        <v>1595.443716698334</v>
       </c>
       <c r="D90" t="n">
-        <v>4597875.118277439</v>
+        <v>5300410.06850326</v>
       </c>
       <c r="E90" t="n">
-        <v>0.04237511111111111</v>
+        <v>0.04057244444444444</v>
       </c>
       <c r="F90" t="n">
-        <v>0.01645894444444445</v>
+        <v>0.01522888888888889</v>
       </c>
     </row>
     <row r="91">
@@ -2245,19 +2245,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>12018.85297512965</v>
+        <v>280941.2701315039</v>
       </c>
       <c r="C91" t="n">
-        <v>1594.326194655838</v>
+        <v>1594.938676087555</v>
       </c>
       <c r="D91" t="n">
-        <v>4559877.575042089</v>
+        <v>5258939.79109837</v>
       </c>
       <c r="E91" t="n">
-        <v>0.04285664646464646</v>
+        <v>0.04103349494949494</v>
       </c>
       <c r="F91" t="n">
-        <v>0.01612176767676768</v>
+        <v>0.01488989898989899</v>
       </c>
     </row>
     <row r="92">
@@ -2265,19 +2265,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>12545.71618208778</v>
+        <v>294360.6623698939</v>
       </c>
       <c r="C92" t="n">
-        <v>1593.711149031533</v>
+        <v>1594.352243332719</v>
       </c>
       <c r="D92" t="n">
-        <v>4516435.703374426</v>
+        <v>5211176.854109691</v>
       </c>
       <c r="E92" t="n">
-        <v>0.04333818181818182</v>
+        <v>0.04149454545454545</v>
       </c>
       <c r="F92" t="n">
-        <v>0.01578459090909091</v>
+        <v>0.01455090909090909</v>
       </c>
     </row>
     <row r="93">
@@ -2285,19 +2285,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>13108.98659614147</v>
+        <v>308788.0243910737</v>
       </c>
       <c r="C93" t="n">
-        <v>1592.995643099039</v>
+        <v>1593.665085392479</v>
       </c>
       <c r="D93" t="n">
-        <v>4466397.877589908</v>
+        <v>5155739.843887243</v>
       </c>
       <c r="E93" t="n">
-        <v>0.04381971717171717</v>
+        <v>0.04195559595959596</v>
       </c>
       <c r="F93" t="n">
-        <v>0.01544741414141415</v>
+        <v>0.01421191919191919</v>
       </c>
     </row>
     <row r="94">
@@ -2305,19 +2305,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>13712.38016506102</v>
+        <v>324333.6827509287</v>
       </c>
       <c r="C94" t="n">
-        <v>1592.154299878473</v>
+        <v>1592.850986901537</v>
       </c>
       <c r="D94" t="n">
-        <v>4408240.315118269</v>
+        <v>5090794.137743935</v>
       </c>
       <c r="E94" t="n">
-        <v>0.04430125252525252</v>
+        <v>0.04241664646464646</v>
       </c>
       <c r="F94" t="n">
-        <v>0.01511023737373738</v>
+        <v>0.01387292929292929</v>
       </c>
     </row>
     <row r="95">
@@ -2325,19 +2325,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>14360.22296042166</v>
+        <v>341126.5189305797</v>
       </c>
       <c r="C95" t="n">
-        <v>1591.151642040016</v>
+        <v>1591.873169319847</v>
       </c>
       <c r="D95" t="n">
-        <v>4339880.832785227</v>
+        <v>5013825.107343018</v>
       </c>
       <c r="E95" t="n">
-        <v>0.04478278787878787</v>
+        <v>0.04287769696969697</v>
       </c>
       <c r="F95" t="n">
-        <v>0.01477306060606061</v>
+        <v>0.01353393939393939</v>
       </c>
     </row>
     <row r="96">
@@ -2345,19 +2345,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>15057.65442254298</v>
+        <v>359319.8316202013</v>
       </c>
       <c r="C96" t="n">
-        <v>1589.935781971026</v>
+        <v>1590.677676382725</v>
       </c>
       <c r="D96" t="n">
-        <v>4258349.879930276</v>
+        <v>4921238.495481314</v>
       </c>
       <c r="E96" t="n">
-        <v>0.04526432323232323</v>
+        <v>0.04333874747474747</v>
       </c>
       <c r="F96" t="n">
-        <v>0.01443588383838385</v>
+        <v>0.01319494949494949</v>
       </c>
     </row>
     <row r="97">
@@ -2365,19 +2365,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>15810.98091772316</v>
+        <v>379101.2444248039</v>
       </c>
       <c r="C97" t="n">
-        <v>1588.425985162804</v>
+        <v>1589.180347161707</v>
       </c>
       <c r="D97" t="n">
-        <v>4159153.272713442</v>
+        <v>4807588.67266059</v>
       </c>
       <c r="E97" t="n">
-        <v>0.04574585858585858</v>
+        <v>0.04379979797979797</v>
       </c>
       <c r="F97" t="n">
-        <v>0.01409870707070707</v>
+        <v>0.01285595959595959</v>
       </c>
     </row>
     <row r="98">
@@ -2385,19 +2385,19 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>16628.38993587618</v>
+        <v>400712.1383865901</v>
       </c>
       <c r="C98" t="n">
-        <v>1586.484762470496</v>
+        <v>1587.237626711098</v>
       </c>
       <c r="D98" t="n">
-        <v>4034866.187528949</v>
+        <v>4663882.55225408</v>
       </c>
       <c r="E98" t="n">
-        <v>0.04622739393939394</v>
+        <v>0.04426084848484848</v>
       </c>
       <c r="F98" t="n">
-        <v>0.01376153030303031</v>
+        <v>0.01251696969696969</v>
       </c>
     </row>
     <row r="99">
@@ -2405,19 +2405,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>17521.75188802808</v>
+        <v>424495.3708345068</v>
       </c>
       <c r="C99" t="n">
-        <v>1583.841417798293</v>
+        <v>1584.566817399636</v>
       </c>
       <c r="D99" t="n">
-        <v>3871344.698163017</v>
+        <v>4473032.869757964</v>
       </c>
       <c r="E99" t="n">
-        <v>0.04670892929292929</v>
+        <v>0.04472189898989899</v>
       </c>
       <c r="F99" t="n">
-        <v>0.01342435353535354</v>
+        <v>0.01217797979797979</v>
       </c>
     </row>
     <row r="100">
@@ -2425,19 +2425,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>18513.30366431339</v>
+        <v>451068.1548078577</v>
       </c>
       <c r="C100" t="n">
-        <v>1579.790603294307</v>
+        <v>1580.433447822298</v>
       </c>
       <c r="D100" t="n">
-        <v>3633033.888621243</v>
+        <v>4192369.357475933</v>
       </c>
       <c r="E100" t="n">
-        <v>0.04719046464646464</v>
+        <v>0.04518294949494949</v>
       </c>
       <c r="F100" t="n">
-        <v>0.01308717676767678</v>
+        <v>0.0118389898989899</v>
       </c>
     </row>
     <row r="101">
@@ -2445,19 +2445,19 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>19584.99781944952</v>
+        <v>475283.1575319038</v>
       </c>
       <c r="C101" t="n">
-        <v>1574.368477951338</v>
+        <v>1580.433447822298</v>
       </c>
       <c r="D101" t="n">
-        <v>3335994.627467112</v>
+        <v>4192369.357475933</v>
       </c>
       <c r="E101" t="n">
-        <v>0.047672</v>
+        <v>0.045644</v>
       </c>
       <c r="F101" t="n">
-        <v>0.01275</v>
+        <v>0.0115</v>
       </c>
     </row>
     <row r="102">
@@ -2465,19 +2465,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>17481.65478204045</v>
+        <v>484686.6793553257</v>
       </c>
       <c r="C102" t="n">
-        <v>1567.091080723033</v>
+        <v>1567.091087169442</v>
       </c>
       <c r="D102" t="n">
-        <v>2973753.287998139</v>
+        <v>3397125.337748252</v>
       </c>
       <c r="E102" t="n">
-        <v>0.047672</v>
+        <v>0.045644</v>
       </c>
       <c r="F102" t="n">
-        <v>0.01275</v>
+        <v>0.0115</v>
       </c>
     </row>
     <row r="103">
@@ -2485,19 +2485,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>17481.65478204045</v>
+        <v>484686.6793553257</v>
       </c>
       <c r="C103" t="n">
-        <v>1567.091080723033</v>
+        <v>1567.091087169442</v>
       </c>
       <c r="D103" t="n">
-        <v>2973753.287998139</v>
+        <v>3397125.337748252</v>
       </c>
       <c r="E103" t="n">
-        <v>0.049672</v>
+        <v>0.047644</v>
       </c>
       <c r="F103" t="n">
-        <v>0.01275</v>
+        <v>0.0115</v>
       </c>
     </row>
     <row r="104">
@@ -2505,19 +2505,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>17500.0417004827</v>
+        <v>484686.6793553257</v>
       </c>
       <c r="C104" t="n">
-        <v>1566.052093256239</v>
+        <v>1567.091087169442</v>
       </c>
       <c r="D104" t="n">
-        <v>2925222.723403918</v>
+        <v>3397125.337748252</v>
       </c>
       <c r="E104" t="n">
-        <v>0.049672</v>
+        <v>0.047644</v>
       </c>
       <c r="F104" t="n">
-        <v>0.01275</v>
+        <v>0.0115</v>
       </c>
     </row>
     <row r="105">
@@ -2525,19 +2525,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>17049.1042609087</v>
+        <v>474044.7141244409</v>
       </c>
       <c r="C105" t="n">
-        <v>1552.380178003428</v>
+        <v>1553.006991223763</v>
       </c>
       <c r="D105" t="n">
-        <v>2353322.256085111</v>
+        <v>2715423.994868213</v>
       </c>
       <c r="E105" t="n">
-        <v>0.05089567676767677</v>
+        <v>0.04857204838709677</v>
       </c>
       <c r="F105" t="n">
-        <v>0.01301010101010101</v>
+        <v>0.01171370967741935</v>
       </c>
     </row>
     <row r="106">
@@ -2545,19 +2545,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>16508.92413203968</v>
+        <v>460403.3573933783</v>
       </c>
       <c r="C106" t="n">
-        <v>1545.290873609665</v>
+        <v>1546.329938878152</v>
       </c>
       <c r="D106" t="n">
-        <v>2100698.933442321</v>
+        <v>2440129.751833874</v>
       </c>
       <c r="E106" t="n">
-        <v>0.05211935353535354</v>
+        <v>0.04950009677419355</v>
       </c>
       <c r="F106" t="n">
-        <v>0.01327020202020202</v>
+        <v>0.01192741935483871</v>
       </c>
     </row>
     <row r="107">
@@ -2565,19 +2565,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>15976.12772792243</v>
+        <v>446863.1090081908</v>
       </c>
       <c r="C107" t="n">
-        <v>1539.53670761584</v>
+        <v>1540.90697054605</v>
       </c>
       <c r="D107" t="n">
-        <v>1914994.979734789</v>
+        <v>2236453.749355446</v>
       </c>
       <c r="E107" t="n">
-        <v>0.0533430303030303</v>
+        <v>0.05042814516129032</v>
       </c>
       <c r="F107" t="n">
-        <v>0.01353030303030303</v>
+        <v>0.01214112903225806</v>
       </c>
     </row>
     <row r="108">
@@ -2585,19 +2585,19 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>15460.66709850836</v>
+        <v>433691.893022937</v>
       </c>
       <c r="C108" t="n">
-        <v>1534.491520192528</v>
+        <v>1536.150890350409</v>
       </c>
       <c r="D108" t="n">
-        <v>1765225.87592692</v>
+        <v>2071343.244253843</v>
       </c>
       <c r="E108" t="n">
-        <v>0.05456670707070707</v>
+        <v>0.05135619354838709</v>
       </c>
       <c r="F108" t="n">
-        <v>0.01379040404040404</v>
+        <v>0.01235483870967742</v>
       </c>
     </row>
     <row r="109">
@@ -2605,19 +2605,19 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>14965.30829302206</v>
+        <v>420971.0271730187</v>
       </c>
       <c r="C109" t="n">
-        <v>1529.912762996685</v>
+        <v>1531.833094675875</v>
       </c>
       <c r="D109" t="n">
-        <v>1639086.454319615</v>
+        <v>1931631.123822319</v>
       </c>
       <c r="E109" t="n">
-        <v>0.05579038383838384</v>
+        <v>0.05228424193548387</v>
       </c>
       <c r="F109" t="n">
-        <v>0.01405050505050505</v>
+        <v>0.01256854838709677</v>
       </c>
     </row>
     <row r="110">
@@ -2625,19 +2625,19 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>14490.67126681742</v>
+        <v>408725.1198466854</v>
       </c>
       <c r="C110" t="n">
-        <v>1525.675435845985</v>
+        <v>1527.835588462484</v>
       </c>
       <c r="D110" t="n">
-        <v>1530095.186808949</v>
+        <v>1810379.821404027</v>
       </c>
       <c r="E110" t="n">
-        <v>0.05701406060606061</v>
+        <v>0.05321229032258065</v>
       </c>
       <c r="F110" t="n">
-        <v>0.01431060606060606</v>
+        <v>0.01278225806451613</v>
       </c>
     </row>
     <row r="111">
@@ -2645,19 +2645,19 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>14036.5214793475</v>
+        <v>396955.6341647344</v>
       </c>
       <c r="C111" t="n">
-        <v>1521.704722106348</v>
+        <v>1524.087734055307</v>
       </c>
       <c r="D111" t="n">
-        <v>1434299.618763846</v>
+        <v>1703360.293405056</v>
       </c>
       <c r="E111" t="n">
-        <v>0.05823773737373737</v>
+        <v>0.05414033870967742</v>
       </c>
       <c r="F111" t="n">
-        <v>0.01457070707070707</v>
+        <v>0.01299596774193548</v>
       </c>
     </row>
     <row r="112">
@@ -2665,19 +2665,19 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>13602.24153254514</v>
+        <v>385653.2351506659</v>
       </c>
       <c r="C112" t="n">
-        <v>1517.951410210948</v>
+        <v>1520.543093094203</v>
       </c>
       <c r="D112" t="n">
-        <v>1349059.839025962</v>
+        <v>1607749.041055768</v>
       </c>
       <c r="E112" t="n">
-        <v>0.05946141414141414</v>
+        <v>0.0550683870967742</v>
       </c>
       <c r="F112" t="n">
-        <v>0.01483080808080808</v>
+        <v>0.01320967741935484</v>
       </c>
     </row>
     <row r="113">
@@ -2685,19 +2685,19 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>13187.03852265968</v>
+        <v>374803.2729810442</v>
       </c>
       <c r="C113" t="n">
-        <v>1514.380937762622</v>
+        <v>1517.169082482122</v>
       </c>
       <c r="D113" t="n">
-        <v>1272499.525971002</v>
+        <v>1521539.731859706</v>
       </c>
       <c r="E113" t="n">
-        <v>0.06068509090909091</v>
+        <v>0.05599643548387097</v>
       </c>
       <c r="F113" t="n">
-        <v>0.01509090909090909</v>
+        <v>0.01342338709677419</v>
       </c>
     </row>
     <row r="114">
@@ -2705,19 +2705,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>12790.0459449713</v>
+        <v>364388.5178387293</v>
       </c>
       <c r="C114" t="n">
-        <v>1510.967827439197</v>
+        <v>1513.941714088878</v>
       </c>
       <c r="D114" t="n">
-        <v>1203223.625367072</v>
+        <v>1443240.618202886</v>
       </c>
       <c r="E114" t="n">
-        <v>0.06190876767676768</v>
+        <v>0.05692448387096774</v>
       </c>
       <c r="F114" t="n">
-        <v>0.0153510101010101</v>
+        <v>0.01363709677419355</v>
       </c>
     </row>
     <row r="115">
@@ -2725,19 +2725,19 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>12410.37731441669</v>
+        <v>354390.6304208626</v>
       </c>
       <c r="C115" t="n">
-        <v>1507.692586166571</v>
+        <v>1510.842660693703</v>
       </c>
       <c r="D115" t="n">
-        <v>1140158.979515836</v>
+        <v>1371703.815594865</v>
       </c>
       <c r="E115" t="n">
-        <v>0.06313244444444445</v>
+        <v>0.05785253225806451</v>
       </c>
       <c r="F115" t="n">
-        <v>0.01561111111111111</v>
+        <v>0.0138508064516129</v>
       </c>
     </row>
     <row r="116">
@@ -2745,19 +2745,19 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>12047.15546109777</v>
+        <v>344790.9912728703</v>
       </c>
       <c r="C116" t="n">
-        <v>1504.539851856404</v>
+        <v>1507.857501439554</v>
       </c>
       <c r="D116" t="n">
-        <v>1082457.828307315</v>
+        <v>1306022.01029165</v>
       </c>
       <c r="E116" t="n">
-        <v>0.06435612121212121</v>
+        <v>0.05878058064516129</v>
       </c>
       <c r="F116" t="n">
-        <v>0.01587121212121212</v>
+        <v>0.01406451612903226</v>
       </c>
     </row>
     <row r="117">
@@ -2765,19 +2765,19 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>11699.52870175922</v>
+        <v>335571.1809539411</v>
       </c>
       <c r="C117" t="n">
-        <v>1501.497223399751</v>
+        <v>1504.974613814267</v>
       </c>
       <c r="D117" t="n">
-        <v>1029436.086317859</v>
+        <v>1245462.45217559</v>
       </c>
       <c r="E117" t="n">
-        <v>0.06557979797979799</v>
+        <v>0.05970862903225806</v>
       </c>
       <c r="F117" t="n">
-        <v>0.01613131313131313</v>
+        <v>0.01427822580645161</v>
       </c>
     </row>
     <row r="118">
@@ -2785,19 +2785,19 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>11366.67957118871</v>
+        <v>326713.2596804274</v>
       </c>
       <c r="C118" t="n">
-        <v>1498.554488647056</v>
+        <v>1502.184442455871</v>
       </c>
       <c r="D118" t="n">
-        <v>980532.0838487288</v>
+        <v>1189422.875934087</v>
       </c>
       <c r="E118" t="n">
-        <v>0.06680347474747475</v>
+        <v>0.06063667741935484</v>
       </c>
       <c r="F118" t="n">
-        <v>0.01639141414141414</v>
+        <v>0.01449193548387097</v>
       </c>
     </row>
     <row r="119">
@@ -2805,19 +2805,19 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>11047.82918614601</v>
+        <v>318199.9271602929</v>
       </c>
       <c r="C119" t="n">
-        <v>1495.703096081172</v>
+        <v>1499.47899879525</v>
       </c>
       <c r="D119" t="n">
-        <v>935277.9696556868</v>
+        <v>1137400.980080979</v>
       </c>
       <c r="E119" t="n">
-        <v>0.06802715151515151</v>
+        <v>0.06156472580645161</v>
       </c>
       <c r="F119" t="n">
-        <v>0.01665151515151515</v>
+        <v>0.01470564516129032</v>
       </c>
     </row>
     <row r="120">
@@ -2825,19 +2825,19 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>10742.23898718253</v>
+        <v>310014.6087497745</v>
       </c>
       <c r="C120" t="n">
-        <v>1492.935782010183</v>
+        <v>1496.851508058806</v>
       </c>
       <c r="D120" t="n">
-        <v>893279.2802761584</v>
+        <v>1088972.643146948</v>
       </c>
       <c r="E120" t="n">
-        <v>0.06925082828282829</v>
+        <v>0.06249277419354839</v>
       </c>
       <c r="F120" t="n">
-        <v>0.01691161616161616</v>
+        <v>0.01491935483870968</v>
       </c>
     </row>
     <row r="121">
@@ -2845,19 +2845,19 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>10449.21088924529</v>
+        <v>302141.4954065767</v>
       </c>
       <c r="C121" t="n">
-        <v>1490.246300532592</v>
+        <v>1494.29615366903</v>
       </c>
       <c r="D121" t="n">
-        <v>854199.9643056262</v>
+        <v>1043775.97052549</v>
       </c>
       <c r="E121" t="n">
-        <v>0.07047450505050505</v>
+        <v>0.06342082258064516</v>
       </c>
       <c r="F121" t="n">
-        <v>0.01717171717171717</v>
+        <v>0.01513306451612903</v>
       </c>
     </row>
     <row r="122">
@@ -2865,19 +2865,19 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>10168.0864688456</v>
+        <v>294565.5543548847</v>
       </c>
       <c r="C122" t="n">
-        <v>1487.62922347555</v>
+        <v>1491.807887963311</v>
       </c>
       <c r="D122" t="n">
-        <v>817751.1609147446</v>
+        <v>1001499.350228892</v>
       </c>
       <c r="E122" t="n">
-        <v>0.07169818181818183</v>
+        <v>0.06434887096774194</v>
       </c>
       <c r="F122" t="n">
-        <v>0.01743181818181818</v>
+        <v>0.01534677419354839</v>
       </c>
     </row>
     <row r="123">
@@ -2885,19 +2885,19 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>9898.245579122879</v>
+        <v>287272.5211579702</v>
       </c>
       <c r="C123" t="n">
-        <v>1485.079789220563</v>
+        <v>1489.382289246392</v>
       </c>
       <c r="D123" t="n">
-        <v>783682.6296921949</v>
+        <v>961872.3370534808</v>
       </c>
       <c r="E123" t="n">
-        <v>0.07292185858585859</v>
+        <v>0.0652769193548387</v>
       </c>
       <c r="F123" t="n">
-        <v>0.01769191919191919</v>
+        <v>0.01556048387096774</v>
       </c>
     </row>
     <row r="124">
@@ -2905,19 +2905,19 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>9639.104640905643</v>
+        <v>280248.8801055594</v>
       </c>
       <c r="C124" t="n">
-        <v>1482.593786467508</v>
+        <v>1487.01545195176</v>
       </c>
       <c r="D124" t="n">
-        <v>751776.0955690193</v>
+        <v>924658.5777478931</v>
       </c>
       <c r="E124" t="n">
-        <v>0.07414553535353535</v>
+        <v>0.06620496774193549</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0179520202020202</v>
+        <v>0.0157741935483871</v>
       </c>
     </row>
     <row r="125">
@@ -2925,19 +2925,19 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>9390.114768761256</v>
+        <v>273481.8374489682</v>
       </c>
       <c r="C125" t="n">
-        <v>1480.167463470581</v>
+        <v>1484.703900936704</v>
       </c>
       <c r="D125" t="n">
-        <v>721840.0046739974</v>
+        <v>889650.2384838514</v>
       </c>
       <c r="E125" t="n">
-        <v>0.07536921212121213</v>
+        <v>0.06713301612903226</v>
       </c>
       <c r="F125" t="n">
-        <v>0.01821212121212121</v>
+        <v>0.01598790322580645</v>
       </c>
     </row>
     <row r="126">
@@ -2945,19 +2945,19 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>9150.759834356804</v>
+        <v>266959.2904931202</v>
       </c>
       <c r="C126" t="n">
-        <v>1477.797456178064</v>
+        <v>1482.444523683196</v>
       </c>
       <c r="D126" t="n">
-        <v>693705.3380819104</v>
+        <v>856663.5577393303</v>
       </c>
       <c r="E126" t="n">
-        <v>0.07659288888888889</v>
+        <v>0.06806106451612903</v>
       </c>
       <c r="F126" t="n">
-        <v>0.01847222222222222</v>
+        <v>0.0162016129032258</v>
       </c>
     </row>
     <row r="127">
@@ -2965,19 +2965,19 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>8920.554532767381</v>
+        <v>260669.7945565158</v>
       </c>
       <c r="C127" t="n">
-        <v>1475.480730626585</v>
+        <v>1480.234515995893</v>
       </c>
       <c r="D127" t="n">
-        <v>667222.2312420291</v>
+        <v>825535.2555865163</v>
       </c>
       <c r="E127" t="n">
-        <v>0.07781656565656567</v>
+        <v>0.0689891129032258</v>
       </c>
       <c r="F127" t="n">
-        <v>0.01873232323232323</v>
+        <v>0.01641532258064516</v>
       </c>
     </row>
     <row r="128">
@@ -2985,19 +2985,19 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>8699.042493285595</v>
+        <v>254602.5291455011</v>
       </c>
       <c r="C128" t="n">
-        <v>1473.214536239364</v>
+        <v>1478.071338020577</v>
       </c>
       <c r="D128" t="n">
-        <v>642257.2156532175</v>
+        <v>796119.6039206845</v>
       </c>
       <c r="E128" t="n">
-        <v>0.07904024242424243</v>
+        <v>0.06991716129032258</v>
       </c>
       <c r="F128" t="n">
-        <v>0.01899242424242424</v>
+        <v>0.01662903225806452</v>
       </c>
     </row>
     <row r="129">
@@ -3005,19 +3005,19 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>8485.794460315161</v>
+        <v>248747.2642402941</v>
       </c>
       <c r="C129" t="n">
-        <v>1470.996367575008</v>
+        <v>1475.952678256884</v>
       </c>
       <c r="D129" t="n">
-        <v>618690.9472142276</v>
+        <v>768286.013294759</v>
       </c>
       <c r="E129" t="n">
-        <v>0.08026391919191919</v>
+        <v>0.07084520967741936</v>
       </c>
       <c r="F129" t="n">
-        <v>0.01925252525252525</v>
+        <v>0.01684274193548387</v>
       </c>
     </row>
     <row r="130">
@@ -3025,19 +3025,19 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>8280.40655927013</v>
+        <v>243094.3272837946</v>
       </c>
       <c r="C130" t="n">
-        <v>1468.823932703236</v>
+        <v>1473.876423837202</v>
       </c>
       <c r="D130" t="n">
-        <v>596416.3195756193</v>
+        <v>741917.0282166417</v>
       </c>
       <c r="E130" t="n">
-        <v>0.08148759595959595</v>
+        <v>0.07177325806451613</v>
       </c>
       <c r="F130" t="n">
-        <v>0.01951262626262626</v>
+        <v>0.01705645161290322</v>
       </c>
     </row>
     <row r="131">
@@ -3045,19 +3045,19 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>8082.498655268673</v>
+        <v>237634.5712532313</v>
       </c>
       <c r="C131" t="n">
-        <v>1466.695126834866</v>
+        <v>1471.840635769427</v>
       </c>
       <c r="D131" t="n">
-        <v>575336.8852374546</v>
+        <v>716906.6487839599</v>
       </c>
       <c r="E131" t="n">
-        <v>0.08271127272727273</v>
+        <v>0.07270130645161291</v>
       </c>
       <c r="F131" t="n">
-        <v>0.01977272727272728</v>
+        <v>0.01727016129032258</v>
       </c>
     </row>
     <row r="132">
@@ -3065,19 +3065,19 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>7891.712807646108</v>
+        <v>232359.3440488367</v>
       </c>
       <c r="C132" t="n">
-        <v>1464.608010158136</v>
+        <v>1469.843528153303</v>
       </c>
       <c r="D132" t="n">
-        <v>555365.5249576434</v>
+        <v>693158.9155705663</v>
       </c>
       <c r="E132" t="n">
-        <v>0.08393494949494951</v>
+        <v>0.07362935483870968</v>
       </c>
       <c r="F132" t="n">
-        <v>0.02003282828282828</v>
+        <v>0.01748387096774193</v>
       </c>
     </row>
     <row r="133">
@@ -3085,19 +3085,19 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>7707.711820161628</v>
+        <v>227260.4593323858</v>
       </c>
       <c r="C133" t="n">
-        <v>1462.560789075338</v>
+        <v>1467.883450604228</v>
       </c>
       <c r="D133" t="n">
-        <v>536423.3192691347</v>
+        <v>670586.7087033897</v>
       </c>
       <c r="E133" t="n">
-        <v>0.08515862626262627</v>
+        <v>0.07455740322580645</v>
       </c>
       <c r="F133" t="n">
-        <v>0.02029292929292929</v>
+        <v>0.01769758064516129</v>
       </c>
     </row>
     <row r="134">
@@ -3105,19 +3105,19 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>7530.177884717805</v>
+        <v>222330.1688784054</v>
       </c>
       <c r="C134" t="n">
-        <v>1460.551800210062</v>
+        <v>1465.958873290048</v>
       </c>
       <c r="D134" t="n">
-        <v>518438.5857919628</v>
+        <v>649110.7226405384</v>
       </c>
       <c r="E134" t="n">
-        <v>0.08638230303030303</v>
+        <v>0.07548545161290324</v>
       </c>
       <c r="F134" t="n">
-        <v>0.0205530303030303</v>
+        <v>0.01791129032258065</v>
       </c>
     </row>
     <row r="135">
@@ -3125,19 +3125,19 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>7358.81131511602</v>
+        <v>217561.1364524829</v>
       </c>
       <c r="C135" t="n">
-        <v>1458.579496690868</v>
+        <v>1464.068374112465</v>
       </c>
       <c r="D135" t="n">
-        <v>501346.0535550498</v>
+        <v>628658.5861355298</v>
       </c>
       <c r="E135" t="n">
-        <v>0.08760597979797979</v>
+        <v>0.0764135</v>
       </c>
       <c r="F135" t="n">
-        <v>0.02081313131313131</v>
+        <v>0.018125</v>
       </c>
     </row>
     <row r="136">
@@ -3145,19 +3145,19 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>7193.329366592623</v>
+        <v>212946.4131981966</v>
       </c>
       <c r="C136" t="n">
-        <v>1456.642436318609</v>
+        <v>1462.210627661815</v>
       </c>
       <c r="D136" t="n">
-        <v>485086.1512993724</v>
+        <v>609164.102997352</v>
       </c>
       <c r="E136" t="n">
-        <v>0.08882965656565657</v>
+        <v>0.07734154838709678</v>
       </c>
       <c r="F136" t="n">
-        <v>0.02107323232323232</v>
+        <v>0.01833870967741935</v>
       </c>
     </row>
     <row r="137">
@@ -3165,19 +3165,19 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>7033.465136460387</v>
+        <v>208479.4144921543</v>
       </c>
       <c r="C137" t="n">
-        <v>1454.739271303264</v>
+        <v>1460.384395647929</v>
       </c>
       <c r="D137" t="n">
-        <v>469604.3911973666</v>
+        <v>590566.5939868191</v>
       </c>
       <c r="E137" t="n">
-        <v>0.09005333333333335</v>
+        <v>0.07826959677419355</v>
       </c>
       <c r="F137" t="n">
-        <v>0.02133333333333334</v>
+        <v>0.01855241935483871</v>
       </c>
     </row>
     <row r="138">
@@ -3185,19 +3185,19 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>6878.966541004505</v>
+        <v>204153.8982123992</v>
       </c>
       <c r="C138" t="n">
-        <v>1452.868739317417</v>
+        <v>1458.588518568143</v>
       </c>
       <c r="D138" t="n">
-        <v>454850.8329136097</v>
+        <v>572810.3238942259</v>
       </c>
       <c r="E138" t="n">
-        <v>0.09127701010101011</v>
+        <v>0.07919764516129033</v>
       </c>
       <c r="F138" t="n">
-        <v>0.02159343434343435</v>
+        <v>0.01876612903225806</v>
       </c>
     </row>
     <row r="139">
@@ -3205,19 +3205,19 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>6729.595363769019</v>
+        <v>199963.9443566732</v>
       </c>
       <c r="C139" t="n">
-        <v>1451.029655659457</v>
+        <v>1456.821908417602</v>
       </c>
       <c r="D139" t="n">
-        <v>440779.6156652099</v>
+        <v>555844.0007444154</v>
       </c>
       <c r="E139" t="n">
-        <v>0.09250068686868687</v>
+        <v>0.0801256935483871</v>
       </c>
       <c r="F139" t="n">
-        <v>0.02185353535353535</v>
+        <v>0.01897983870967742</v>
       </c>
     </row>
     <row r="140">
@@ -3225,19 +3225,19 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>6585.126370472555</v>
+        <v>195903.9359422316</v>
       </c>
       <c r="C140" t="n">
-        <v>1449.220906359521</v>
+        <v>1455.083542283136</v>
       </c>
       <c r="D140" t="n">
-        <v>427348.5481423585</v>
+        <v>539620.3363925446</v>
       </c>
       <c r="E140" t="n">
-        <v>0.09372436363636363</v>
+        <v>0.08105374193548387</v>
       </c>
       <c r="F140" t="n">
-        <v>0.02211363636363636</v>
+        <v>0.01919354838709677</v>
       </c>
     </row>
     <row r="141">
@@ -3245,19 +3245,19 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>6445.346485958775</v>
+        <v>191968.5411168741</v>
       </c>
       <c r="C141" t="n">
-        <v>1447.441442088586</v>
+        <v>1453.372456690528</v>
       </c>
       <c r="D141" t="n">
-        <v>414518.7478752467</v>
+        <v>524095.659624341</v>
       </c>
       <c r="E141" t="n">
-        <v>0.09494804040404041</v>
+        <v>0.08198179032258066</v>
       </c>
       <c r="F141" t="n">
-        <v>0.02237373737373737</v>
+        <v>0.01940725806451613</v>
       </c>
     </row>
     <row r="142">
@@ -3265,19 +3265,19 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>6310.054028803005</v>
+        <v>188152.6964106664</v>
       </c>
       <c r="C142" t="n">
-        <v>1445.690272756403</v>
+        <v>1451.687742595542</v>
       </c>
       <c r="D142" t="n">
-        <v>402254.323051863</v>
+        <v>509229.5743441592</v>
       </c>
       <c r="E142" t="n">
-        <v>0.09617171717171719</v>
+        <v>0.08290983870967741</v>
       </c>
       <c r="F142" t="n">
-        <v>0.02263383838383838</v>
+        <v>0.01962096774193548</v>
       </c>
     </row>
     <row r="143">
@@ -3285,19 +3285,19 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>6179.057999434486</v>
+        <v>184451.591059188</v>
       </c>
       <c r="C143" t="n">
-        <v>1443.966462702577</v>
+        <v>1450.028540930707</v>
       </c>
       <c r="D143" t="n">
-        <v>390522.0909267981</v>
+        <v>494984.6566719972</v>
       </c>
       <c r="E143" t="n">
-        <v>0.09739539393939395</v>
+        <v>0.0838378870967742</v>
       </c>
       <c r="F143" t="n">
-        <v>0.02289393939393939</v>
+        <v>0.01983467741935484</v>
       </c>
     </row>
     <row r="144">
@@ -3305,19 +3305,19 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>6052.177417883358</v>
+        <v>180860.6523311226</v>
       </c>
       <c r="C144" t="n">
-        <v>1442.269126400752</v>
+        <v>1448.394038630778</v>
       </c>
       <c r="D144" t="n">
-        <v>379291.3278923288</v>
+        <v>481326.1857195214</v>
       </c>
       <c r="E144" t="n">
-        <v>0.09861907070707071</v>
+        <v>0.08476593548387097</v>
       </c>
       <c r="F144" t="n">
-        <v>0.02315404040404041</v>
+        <v>0.02004838709677419</v>
       </c>
     </row>
     <row r="145">
@@ -3325,19 +3325,19 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5929.240707513815</v>
+        <v>177375.531795818</v>
       </c>
       <c r="C145" t="n">
-        <v>1440.597424608549</v>
+        <v>1446.783465074441</v>
       </c>
       <c r="D145" t="n">
-        <v>368533.5470463823</v>
+        <v>468221.9036458874</v>
       </c>
       <c r="E145" t="n">
-        <v>0.09984274747474747</v>
+        <v>0.08569398387096774</v>
       </c>
       <c r="F145" t="n">
-        <v>0.02341414141414142</v>
+        <v>0.02026209677419355</v>
       </c>
     </row>
     <row r="146">
@@ -3345,19 +3345,19 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5810.085121352461</v>
+        <v>173992.092469456</v>
       </c>
       <c r="C146" t="n">
-        <v>1438.950560906256</v>
+        <v>1445.196088888432</v>
       </c>
       <c r="D146" t="n">
-        <v>358222.2997214902</v>
+        <v>455641.8012487175</v>
       </c>
       <c r="E146" t="n">
-        <v>0.1010664242424242</v>
+        <v>0.08662203225806453</v>
       </c>
       <c r="F146" t="n">
-        <v>0.02367424242424242</v>
+        <v>0.0204758064516129</v>
       </c>
     </row>
     <row r="147">
@@ -3365,19 +3365,19 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5694.556207860941</v>
+        <v>170706.3967817462</v>
       </c>
       <c r="C147" t="n">
-        <v>1437.327778575879</v>
+        <v>1443.631215068655</v>
       </c>
       <c r="D147" t="n">
-        <v>348332.9979610512</v>
+        <v>443557.9258997283</v>
       </c>
       <c r="E147" t="n">
-        <v>0.102290101010101</v>
+        <v>0.08755008064516129</v>
       </c>
       <c r="F147" t="n">
-        <v>0.02393434343434343</v>
+        <v>0.02068951612903226</v>
       </c>
     </row>
     <row r="148">
@@ -3385,19 +3385,19 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5582.507313230612</v>
+        <v>167514.6953083725</v>
       </c>
       <c r="C148" t="n">
-        <v>1435.728357779231</v>
+        <v>1442.088182379546</v>
       </c>
       <c r="D148" t="n">
-        <v>338842.7553641507</v>
+        <v>431944.2090937509</v>
       </c>
       <c r="E148" t="n">
-        <v>0.1035137777777778</v>
+        <v>0.08847812903225807</v>
       </c>
       <c r="F148" t="n">
-        <v>0.02419444444444445</v>
+        <v>0.02090322580645161</v>
       </c>
     </row>
     <row r="149">
@@ -3405,19 +3405,19 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5473.799117494041</v>
+        <v>164413.4162177416</v>
       </c>
       <c r="C149" t="n">
-        <v>1434.151612999674</v>
+        <v>1440.5663609985</v>
       </c>
       <c r="D149" t="n">
-        <v>329730.2440842171</v>
+        <v>420776.311264277</v>
       </c>
       <c r="E149" t="n">
-        <v>0.1047374545454546</v>
+        <v>0.08940617741935485</v>
       </c>
       <c r="F149" t="n">
-        <v>0.02445454545454545</v>
+        <v>0.02111693548387097</v>
       </c>
     </row>
     <row r="150">
@@ -3425,19 +3425,19 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5368.299201951541</v>
+        <v>161399.1553838222</v>
       </c>
       <c r="C150" t="n">
-        <v>1432.596890717049</v>
+        <v>1439.065150376832</v>
       </c>
       <c r="D150" t="n">
-        <v>320975.5660728725</v>
+        <v>410031.4818418963</v>
       </c>
       <c r="E150" t="n">
-        <v>0.1059611313131313</v>
+        <v>0.09033422580645162</v>
       </c>
       <c r="F150" t="n">
-        <v>0.02471464646464647</v>
+        <v>0.02133064516129032</v>
       </c>
     </row>
     <row r="151">
@@ -3445,19 +3445,19 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5265.881645601675</v>
+        <v>158468.6671200067</v>
       </c>
       <c r="C151" t="n">
-        <v>1431.063567289506</v>
+        <v>1437.583977292683</v>
       </c>
       <c r="D151" t="n">
-        <v>312560.1369185681</v>
+        <v>399688.4328047844</v>
       </c>
       <c r="E151" t="n">
-        <v>0.1071848080808081</v>
+        <v>0.09126227419354839</v>
       </c>
       <c r="F151" t="n">
-        <v>0.02497474747474748</v>
+        <v>0.02154435483870968</v>
       </c>
     </row>
     <row r="152">
@@ -3465,19 +3465,19 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5166.426648441774</v>
+        <v>155618.8554919262</v>
       </c>
       <c r="C152" t="n">
-        <v>1429.551047019453</v>
+        <v>1436.122294074546</v>
       </c>
       <c r="D152" t="n">
-        <v>304466.5808484285</v>
+        <v>389727.2242016062</v>
       </c>
       <c r="E152" t="n">
-        <v>0.1084084848484849</v>
+        <v>0.09219032258064516</v>
       </c>
       <c r="F152" t="n">
-        <v>0.02523484848484848</v>
+        <v>0.02175806451612903</v>
       </c>
     </row>
     <row r="153">
@@ -3485,19 +3485,19 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5069.820179669258</v>
+        <v>152846.7661700042</v>
       </c>
       <c r="C153" t="n">
-        <v>1428.058760383785</v>
+        <v>1434.679576976916</v>
       </c>
       <c r="D153" t="n">
-        <v>296678.6356478347</v>
+        <v>380129.1603237138</v>
       </c>
       <c r="E153" t="n">
-        <v>0.1096321616161616</v>
+        <v>0.09311837096774195</v>
       </c>
       <c r="F153" t="n">
-        <v>0.02549494949494949</v>
+        <v>0.02197177419354839</v>
       </c>
     </row>
     <row r="154">
@@ -3505,19 +3505,19 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4975.953648966924</v>
+        <v>150149.5787852384</v>
       </c>
       <c r="C154" t="n">
-        <v>1426.586162411129</v>
+        <v>1433.25532469192</v>
       </c>
       <c r="D154" t="n">
-        <v>289181.0664111107</v>
+        <v>370876.6953715447</v>
       </c>
       <c r="E154" t="n">
-        <v>0.1108558383838384</v>
+        <v>0.09404641935483871</v>
       </c>
       <c r="F154" t="n">
-        <v>0.0257550505050505</v>
+        <v>0.02218548387096774</v>
       </c>
     </row>
     <row r="155">
@@ -3525,19 +3525,19 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4884.723599196157</v>
+        <v>147524.5997542289</v>
       </c>
       <c r="C155" t="n">
-        <v>1425.132731190949</v>
+        <v>1431.84905698282</v>
       </c>
       <c r="D155" t="n">
-        <v>281959.5871725916</v>
+        <v>361953.3476036834</v>
       </c>
       <c r="E155" t="n">
-        <v>0.1120795151515152</v>
+        <v>0.09497446774193549</v>
       </c>
       <c r="F155" t="n">
-        <v>0.02601515151515152</v>
+        <v>0.0223991935483871</v>
       </c>
     </row>
     <row r="156">
@@ -3545,19 +3545,19 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4796.031418952139</v>
+        <v>144969.2555418616</v>
       </c>
       <c r="C156" t="n">
-        <v>1423.697966501289</v>
+        <v>1430.460313427016</v>
       </c>
       <c r="D156" t="n">
-        <v>275000.7895845197</v>
+        <v>353343.6210807396</v>
       </c>
       <c r="E156" t="n">
-        <v>0.1133031919191919</v>
+        <v>0.09590251612903226</v>
       </c>
       <c r="F156" t="n">
-        <v>0.02627525252525252</v>
+        <v>0.02261290322580645</v>
       </c>
     </row>
     <row r="157">
@@ -3565,19 +3565,19 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4709.783073554458</v>
+        <v>142481.0863322738</v>
       </c>
       <c r="C157" t="n">
-        <v>1422.281388543297</v>
+        <v>1429.088652257663</v>
       </c>
       <c r="D157" t="n">
-        <v>268292.0779077395</v>
+        <v>345032.9342226168</v>
       </c>
       <c r="E157" t="n">
-        <v>0.1145268686868687</v>
+        <v>0.09683056451612904</v>
       </c>
       <c r="F157" t="n">
-        <v>0.02653535353535354</v>
+        <v>0.0228266129032258</v>
       </c>
     </row>
     <row r="158">
@@ -3585,19 +3585,19 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4625.888853157645</v>
+        <v>140057.7400808091</v>
       </c>
       <c r="C158" t="n">
-        <v>1420.882536772458</v>
+        <v>1427.733649294293</v>
       </c>
       <c r="D158" t="n">
-        <v>261821.6096702075</v>
+        <v>337007.5544897919</v>
       </c>
       <c r="E158" t="n">
-        <v>0.1157505454545455</v>
+        <v>0.09775861290322582</v>
       </c>
       <c r="F158" t="n">
-        <v>0.02679545454545455</v>
+        <v>0.02304032258064516</v>
       </c>
     </row>
     <row r="159">
@@ -3605,19 +3605,19 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4544.26313676671</v>
+        <v>137696.9669216019</v>
       </c>
       <c r="C159" t="n">
-        <v>1419.500968817173</v>
+        <v>1426.394896953956</v>
       </c>
       <c r="D159" t="n">
-        <v>255578.2414213605</v>
+        <v>329254.5385789703</v>
       </c>
       <c r="E159" t="n">
-        <v>0.1169742222222222</v>
+        <v>0.09868666129032258</v>
       </c>
       <c r="F159" t="n">
-        <v>0.02705555555555555</v>
+        <v>0.02325403225806452</v>
       </c>
     </row>
     <row r="160">
@@ -3625,19 +3625,19 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4464.824171036841</v>
+        <v>135396.6139072316</v>
       </c>
       <c r="C160" t="n">
-        <v>1418.13625947668</v>
+        <v>1425.072003335443</v>
       </c>
       <c r="D160" t="n">
-        <v>249551.4790774474</v>
+        <v>321761.6775936498</v>
       </c>
       <c r="E160" t="n">
-        <v>0.118197898989899</v>
+        <v>0.09961470967741937</v>
       </c>
       <c r="F160" t="n">
-        <v>0.02731565656565656</v>
+        <v>0.02346774193548387</v>
       </c>
     </row>
     <row r="161">
@@ -3645,19 +3645,19 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4387.493862821994</v>
+        <v>133154.6200585444</v>
       </c>
       <c r="C161" t="n">
-        <v>1416.787999791092</v>
+        <v>1423.764591369586</v>
       </c>
       <c r="D161" t="n">
-        <v>243731.4324093915</v>
+        <v>314517.4467078687</v>
       </c>
       <c r="E161" t="n">
-        <v>0.1194215757575758</v>
+        <v>0.1005427580645161</v>
       </c>
       <c r="F161" t="n">
-        <v>0.02757575757575758</v>
+        <v>0.02368145161290322</v>
       </c>
     </row>
     <row r="162">
@@ -3665,19 +3665,19 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4312.197584516083</v>
+        <v>130969.0117043206</v>
       </c>
       <c r="C162" t="n">
-        <v>1415.455796177097</v>
+        <v>1422.472298030168</v>
       </c>
       <c r="D162" t="n">
-        <v>238108.7732745647</v>
+        <v>307510.9588993437</v>
       </c>
       <c r="E162" t="n">
-        <v>0.1206452525252525</v>
+        <v>0.1014708064516129</v>
       </c>
       <c r="F162" t="n">
-        <v>0.02783585858585859</v>
+        <v>0.02389516129032258</v>
       </c>
     </row>
     <row r="163">
@@ -3685,19 +3685,19 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4238.863991303154</v>
+        <v>128837.8980918675</v>
       </c>
       <c r="C163" t="n">
-        <v>1414.139269623593</v>
+        <v>1421.194773599688</v>
       </c>
       <c r="D163" t="n">
-        <v>232674.6972375609</v>
+        <v>300731.9223687419</v>
       </c>
       <c r="E163" t="n">
-        <v>0.1218689292929293</v>
+        <v>0.1023988548387097</v>
       </c>
       <c r="F163" t="n">
-        <v>0.0280959595959596</v>
+        <v>0.02410887096774193</v>
       </c>
     </row>
     <row r="164">
@@ -3705,19 +3705,19 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4167.424849499598</v>
+        <v>126759.4672509766</v>
       </c>
       <c r="C164" t="n">
-        <v>1412.838054942092</v>
+        <v>1419.931680985428</v>
       </c>
       <c r="D164" t="n">
-        <v>227420.8882631682</v>
+        <v>294170.6013064142</v>
       </c>
       <c r="E164" t="n">
-        <v>0.1230926060606061</v>
+        <v>0.1033269032258065</v>
       </c>
       <c r="F164" t="n">
-        <v>0.02835606060606061</v>
+        <v>0.02432258064516129</v>
       </c>
     </row>
     <row r="165">
@@ -3725,19 +3725,19 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4097.814875232903</v>
+        <v>124731.9820949081</v>
       </c>
       <c r="C165" t="n">
-        <v>1411.551800067276</v>
+        <v>1418.68269508149</v>
       </c>
       <c r="D165" t="n">
-        <v>222339.4861984588</v>
+        <v>287817.7797020311</v>
       </c>
       <c r="E165" t="n">
-        <v>0.1243162828282828</v>
+        <v>0.1042549516129032</v>
       </c>
       <c r="F165" t="n">
-        <v>0.02861616161616162</v>
+        <v>0.02453629032258065</v>
       </c>
     </row>
     <row r="166">
@@ -3745,19 +3745,19 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4029.971582757848</v>
+        <v>122753.7767432148</v>
       </c>
       <c r="C166" t="n">
-        <v>1410.280165403558</v>
+        <v>1417.44750217298</v>
       </c>
       <c r="D166" t="n">
-        <v>217423.056790455</v>
+        <v>281664.7279244745</v>
       </c>
       <c r="E166" t="n">
-        <v>0.1255399595959596</v>
+        <v>0.105183</v>
       </c>
       <c r="F166" t="n">
-        <v>0.02887626262626262</v>
+        <v>0.02475</v>
       </c>
     </row>
     <row r="167">
@@ -3765,19 +3765,19 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>3963.835141763018</v>
+        <v>120823.2530522749</v>
       </c>
       <c r="C167" t="n">
-        <v>1409.022823213875</v>
+        <v>1416.225799378885</v>
       </c>
       <c r="D167" t="n">
-        <v>212664.5640119874</v>
+        <v>275703.1718270578</v>
       </c>
       <c r="E167" t="n">
-        <v>0.1267636363636364</v>
+        <v>0.1061110483870968</v>
       </c>
       <c r="F167" t="n">
-        <v>0.02913636363636364</v>
+        <v>0.02496370967741935</v>
       </c>
     </row>
     <row r="168">
@@ -3785,19 +3785,19 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>3899.348243068354</v>
+        <v>118938.8773403869</v>
       </c>
       <c r="C168" t="n">
-        <v>1407.779457047382</v>
+        <v>1415.0172941305</v>
       </c>
       <c r="D168" t="n">
-        <v>208057.3444915845</v>
+        <v>269925.2641578505</v>
       </c>
       <c r="E168" t="n">
-        <v>0.1279873131313131</v>
+        <v>0.1070390967741936</v>
       </c>
       <c r="F168" t="n">
-        <v>0.02939646464646465</v>
+        <v>0.02517741935483871</v>
       </c>
     </row>
     <row r="169">
@@ -3805,19 +3805,19 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>3836.455972158179</v>
+        <v>117099.1772951904</v>
       </c>
       <c r="C169" t="n">
-        <v>1406.549761202833</v>
+        <v>1413.821703682611</v>
       </c>
       <c r="D169" t="n">
-        <v>203595.0838631061</v>
+        <v>264323.5580766874</v>
       </c>
       <c r="E169" t="n">
-        <v>0.1292109898989899</v>
+        <v>0.1079671451612903</v>
       </c>
       <c r="F169" t="n">
-        <v>0.02965656565656566</v>
+        <v>0.02539112903225806</v>
       </c>
     </row>
     <row r="170">
@@ -3825,19 +3825,19 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>3775.105690035417</v>
+        <v>115302.7390520182</v>
       </c>
       <c r="C170" t="n">
-        <v>1405.333440225273</v>
+        <v>1412.638754654882</v>
       </c>
       <c r="D170" t="n">
-        <v>199271.7948709486</v>
+        <v>258890.9825999504</v>
       </c>
       <c r="E170" t="n">
-        <v>0.1304346666666667</v>
+        <v>0.1088951935483871</v>
       </c>
       <c r="F170" t="n">
-        <v>0.02991666666666667</v>
+        <v>0.02560483870967742</v>
       </c>
     </row>
     <row r="171">
@@ -3845,19 +3845,19 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>3715.246920918679</v>
+        <v>113548.2044325661</v>
       </c>
       <c r="C171" t="n">
-        <v>1404.130208432891</v>
+        <v>1411.4681826011</v>
       </c>
       <c r="D171" t="n">
-        <v>195081.7970790984</v>
+        <v>253620.8198113369</v>
       </c>
       <c r="E171" t="n">
-        <v>0.1316583434343434</v>
+        <v>0.1098232419354839</v>
       </c>
       <c r="F171" t="n">
-        <v>0.03017676767676768</v>
+        <v>0.02581854838709677</v>
       </c>
     </row>
     <row r="172">
@@ -3865,19 +3865,19 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>3656.831246339888</v>
+        <v>111834.2683339918</v>
       </c>
       <c r="C172" t="n">
-        <v>1402.939789472364</v>
+        <v>1410.309731604221</v>
       </c>
       <c r="D172" t="n">
-        <v>191019.698051257</v>
+        <v>248506.6836924165</v>
       </c>
       <c r="E172" t="n">
-        <v>0.1328820202020202</v>
+        <v>0.1107512903225807</v>
       </c>
       <c r="F172" t="n">
-        <v>0.03043686868686869</v>
+        <v>0.02603225806451613</v>
       </c>
     </row>
     <row r="173">
@@ -3885,19 +3885,19 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>3599.812205230634</v>
+        <v>110159.6762592242</v>
       </c>
       <c r="C173" t="n">
-        <v>1401.761915900266</v>
+        <v>1409.163153895263</v>
       </c>
       <c r="D173" t="n">
-        <v>187080.3758786182</v>
+        <v>243542.5004403891</v>
       </c>
       <c r="E173" t="n">
-        <v>0.134105696969697</v>
+        <v>0.1116793387096774</v>
       </c>
       <c r="F173" t="n">
-        <v>0.0306969696969697</v>
+        <v>0.02624596774193548</v>
       </c>
     </row>
     <row r="174">
@@ -3905,19 +3905,19 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>3544.145199615067</v>
+        <v>108523.2219798861</v>
       </c>
       <c r="C174" t="n">
-        <v>1400.596328788642</v>
+        <v>1408.02820949436</v>
       </c>
       <c r="D174" t="n">
-        <v>183258.9629446084</v>
+        <v>238722.4901529655</v>
       </c>
       <c r="E174" t="n">
-        <v>0.1353293737373737</v>
+        <v>0.1126073870967742</v>
       </c>
       <c r="F174" t="n">
-        <v>0.03095707070707071</v>
+        <v>0.02645967741935484</v>
       </c>
     </row>
     <row r="175">
@@ -3925,19 +3925,19 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>3489.787405554642</v>
+        <v>106923.7453238062</v>
       </c>
       <c r="C175" t="n">
-        <v>1399.442777353352</v>
+        <v>1406.90466587216</v>
       </c>
       <c r="D175" t="n">
-        <v>179550.8308273474</v>
+        <v>234041.1497703048</v>
       </c>
       <c r="E175" t="n">
-        <v>0.1365530505050505</v>
+        <v>0.113535435483871</v>
       </c>
       <c r="F175" t="n">
-        <v>0.03121717171717172</v>
+        <v>0.02667338709677419</v>
       </c>
     </row>
     <row r="176">
@@ -3945,19 +3945,19 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>3436.697689013723</v>
+        <v>105360.1300796533</v>
       </c>
       <c r="C176" t="n">
-        <v>1398.301018603014</v>
+        <v>1405.79229763074</v>
       </c>
       <c r="D176" t="n">
-        <v>175951.576246659</v>
+        <v>229493.2371772835</v>
       </c>
       <c r="E176" t="n">
-        <v>0.1377767272727273</v>
+        <v>0.1144634838709677</v>
       </c>
       <c r="F176" t="n">
-        <v>0.03147727272727273</v>
+        <v>0.02688709677419355</v>
       </c>
     </row>
     <row r="177">
@@ -3965,19 +3965,19 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>3384.836526339337</v>
+        <v>103831.3020116714</v>
       </c>
       <c r="C177" t="n">
-        <v>1397.170817007527</v>
+        <v>1404.690886201691</v>
       </c>
       <c r="D177" t="n">
-        <v>172457.0079741384</v>
+        <v>225073.756371467</v>
       </c>
       <c r="E177" t="n">
-        <v>0.1390004040404041</v>
+        <v>0.1153915322580645</v>
       </c>
       <c r="F177" t="n">
-        <v>0.03173737373737374</v>
+        <v>0.0271008064516129</v>
       </c>
     </row>
     <row r="178">
@@ -3985,19 +3985,19 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>3334.165929069416</v>
+        <v>102336.2269780202</v>
       </c>
       <c r="C178" t="n">
-        <v>1396.05194418507</v>
+        <v>1403.60021956112</v>
       </c>
       <c r="D178" t="n">
-        <v>169063.134631444</v>
+        <v>220777.9436183599</v>
       </c>
       <c r="E178" t="n">
-        <v>0.1402240808080808</v>
+        <v>0.1163195806451613</v>
       </c>
       <c r="F178" t="n">
-        <v>0.03199747474747475</v>
+        <v>0.02731451612903226</v>
       </c>
     </row>
     <row r="179">
@@ -4005,19 +4005,19 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>3284.649372802089</v>
+        <v>100873.9091466065</v>
       </c>
       <c r="C179" t="n">
-        <v>1394.944178605407</v>
+        <v>1402.52009195999</v>
       </c>
       <c r="D179" t="n">
-        <v>165766.1533050793</v>
+        <v>216601.2545168387</v>
       </c>
       <c r="E179" t="n">
-        <v>0.1414477575757576</v>
+        <v>0.1172476290322581</v>
       </c>
       <c r="F179" t="n">
-        <v>0.03225757575757576</v>
+        <v>0.02752822580645161</v>
       </c>
     </row>
     <row r="180">
@@ -4025,19 +4025,19 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>3236.251729879184</v>
+        <v>99443.3893026974</v>
       </c>
       <c r="C180" t="n">
-        <v>1393.847305309475</v>
+        <v>1401.450303668636</v>
       </c>
       <c r="D180" t="n">
-        <v>162562.4389182319</v>
+        <v>212539.3519055072</v>
       </c>
       <c r="E180" t="n">
-        <v>0.1426714343434344</v>
+        <v>0.1181756774193548</v>
       </c>
       <c r="F180" t="n">
-        <v>0.03251767676767676</v>
+        <v>0.02774193548387097</v>
       </c>
     </row>
     <row r="181">
@@ -4045,19 +4045,19 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>3188.939205651865</v>
+        <v>98043.7432430011</v>
       </c>
       <c r="C181" t="n">
-        <v>1392.761115643523</v>
+        <v>1400.390660734996</v>
       </c>
       <c r="D181" t="n">
-        <v>159448.5343001978</v>
+        <v>208588.0945490684</v>
       </c>
       <c r="E181" t="n">
-        <v>0.1438951111111111</v>
+        <v>0.1191037258064516</v>
       </c>
       <c r="F181" t="n">
-        <v>0.03277777777777778</v>
+        <v>0.02795564516129032</v>
       </c>
     </row>
     <row r="182">
@@ -4065,19 +4065,19 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>3142.679278112972</v>
+        <v>96674.08025120589</v>
       </c>
       <c r="C182" t="n">
-        <v>1391.685407007085</v>
+        <v>1399.340974755179</v>
       </c>
       <c r="D182" t="n">
-        <v>156421.1409016655</v>
+        <v>204743.5265451792</v>
       </c>
       <c r="E182" t="n">
-        <v>0.1451187878787879</v>
+        <v>0.1200317741935484</v>
       </c>
       <c r="F182" t="n">
-        <v>0.03303787878787878</v>
+        <v>0.02816935483870968</v>
       </c>
     </row>
     <row r="183">
@@ -4085,19 +4085,19 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>3097.440640694719</v>
+        <v>95333.54165031921</v>
       </c>
       <c r="C183" t="n">
-        <v>1390.619982613868</v>
+        <v>1398.301062655877</v>
       </c>
       <c r="D183" t="n">
-        <v>153477.1101077404</v>
+        <v>201001.8674002808</v>
       </c>
       <c r="E183" t="n">
-        <v>0.1463424646464647</v>
+        <v>0.1209598225806452</v>
       </c>
       <c r="F183" t="n">
-        <v>0.0332979797979798</v>
+        <v>0.02838306451612903</v>
       </c>
     </row>
     <row r="184">
@@ -4105,19 +4105,19 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>3053.193148043906</v>
+        <v>94021.29942742287</v>
       </c>
       <c r="C184" t="n">
-        <v>1389.564651264749</v>
+        <v>1397.270746487634</v>
       </c>
       <c r="D184" t="n">
-        <v>150613.4351047235</v>
+        <v>197359.5027251002</v>
       </c>
       <c r="E184" t="n">
-        <v>0.1475661414141414</v>
+        <v>0.121887870967742</v>
       </c>
       <c r="F184" t="n">
-        <v>0.03355808080808081</v>
+        <v>0.02859677419354838</v>
       </c>
     </row>
     <row r="185">
@@ -4125,19 +4125,19 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>3009.907764599093</v>
+        <v>92736.55492676726</v>
       </c>
       <c r="C185" t="n">
-        <v>1388.519227132115</v>
+        <v>1396.249853228835</v>
       </c>
       <c r="D185" t="n">
-        <v>147827.2432603149</v>
+        <v>193812.9755074167</v>
       </c>
       <c r="E185" t="n">
-        <v>0.1487898181818182</v>
+        <v>0.1228159193548387</v>
       </c>
       <c r="F185" t="n">
-        <v>0.03381818181818182</v>
+        <v>0.02881048387096774</v>
       </c>
     </row>
     <row r="186">
@@ -4145,19 +4145,19 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>2967.556515805792</v>
+        <v>91478.5376073307</v>
       </c>
       <c r="C186" t="n">
-        <v>1387.483529554866</v>
+        <v>1395.238214598789</v>
       </c>
       <c r="D186" t="n">
-        <v>145115.7889802065</v>
+        <v>190358.9779177028</v>
       </c>
       <c r="E186" t="n">
-        <v>0.150013494949495</v>
+        <v>0.1237439677419355</v>
       </c>
       <c r="F186" t="n">
-        <v>0.03407828282828283</v>
+        <v>0.0290241935483871</v>
       </c>
     </row>
     <row r="187">
@@ -4165,19 +4165,19 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>2926.112441816359</v>
+        <v>90246.50386127782</v>
       </c>
       <c r="C187" t="n">
-        <v>1386.457382843407</v>
+        <v>1394.23566688037</v>
       </c>
       <c r="D187" t="n">
-        <v>142476.4470070503</v>
+        <v>186994.3436138419</v>
       </c>
       <c r="E187" t="n">
-        <v>0.1512371717171717</v>
+        <v>0.1246720161290323</v>
       </c>
       <c r="F187" t="n">
-        <v>0.03433838383838383</v>
+        <v>0.02923790322580645</v>
       </c>
     </row>
     <row r="188">
@@ -4185,19 +4185,19 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>2885.549553531166</v>
+        <v>89039.73588992</v>
       </c>
       <c r="C188" t="n">
-        <v>1385.440616094067</v>
+        <v>1393.242050751</v>
       </c>
       <c r="D188" t="n">
-        <v>139906.7061305204</v>
+        <v>183716.0405080066</v>
       </c>
       <c r="E188" t="n">
-        <v>0.1524608484848485</v>
+        <v>0.125600064516129</v>
       </c>
       <c r="F188" t="n">
-        <v>0.03459848484848485</v>
+        <v>0.02945161290322581</v>
       </c>
     </row>
     <row r="189">
@@ -4205,19 +4205,19 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>2845.84279084694</v>
+        <v>87857.54063401457</v>
       </c>
       <c r="C189" t="n">
-        <v>1384.433063012352</v>
+        <v>1392.257211121724</v>
       </c>
       <c r="D189" t="n">
-        <v>137404.1632796682</v>
+        <v>180521.1639646564</v>
       </c>
       <c r="E189" t="n">
-        <v>0.1536845252525253</v>
+        <v>0.1265281129032258</v>
       </c>
       <c r="F189" t="n">
-        <v>0.03485858585858586</v>
+        <v>0.02966532258064516</v>
       </c>
     </row>
     <row r="190">
@@ -4225,19 +4225,19 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>2806.967982986573</v>
+        <v>86699.24875542815</v>
       </c>
       <c r="C190" t="n">
-        <v>1383.434561744534</v>
+        <v>1391.280996983833</v>
       </c>
       <c r="D190" t="n">
-        <v>134966.51797105</v>
+        <v>177406.9304001082</v>
       </c>
       <c r="E190" t="n">
-        <v>0.154908202020202</v>
+        <v>0.1274561612903226</v>
       </c>
       <c r="F190" t="n">
-        <v>0.03511868686868687</v>
+        <v>0.02987903225806451</v>
       </c>
     </row>
     <row r="191">
@@ -4245,19 +4245,19 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>2768.901810792837</v>
+        <v>85564.21366737082</v>
       </c>
       <c r="C191" t="n">
-        <v>1382.444954717099</v>
+        <v>1390.313261262627</v>
       </c>
       <c r="D191" t="n">
-        <v>132591.5670881966</v>
+        <v>174370.6712565983</v>
       </c>
       <c r="E191" t="n">
-        <v>0.1561318787878788</v>
+        <v>0.1283842096774194</v>
       </c>
       <c r="F191" t="n">
-        <v>0.03537878787878788</v>
+        <v>0.03009274193548387</v>
       </c>
     </row>
     <row r="192">
@@ -4265,19 +4265,19 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>2731.621770875694</v>
+        <v>84451.8106105749</v>
       </c>
       <c r="C192" t="n">
-        <v>1381.464088483584</v>
+        <v>1389.353860677892</v>
       </c>
       <c r="D192" t="n">
-        <v>130277.1999698173</v>
+        <v>171409.8273257359</v>
       </c>
       <c r="E192" t="n">
-        <v>0.1573555555555556</v>
+        <v>0.1293122580645161</v>
       </c>
       <c r="F192" t="n">
-        <v>0.03563888888888889</v>
+        <v>0.03030645161290322</v>
       </c>
     </row>
     <row r="193">
@@ -4285,19 +4285,19 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>2695.106141509902</v>
+        <v>83361.43577295382</v>
       </c>
       <c r="C193" t="n">
-        <v>1380.491813578406</v>
+        <v>1388.402655610728</v>
       </c>
       <c r="D193" t="n">
-        <v>128021.3937859553</v>
+        <v>168521.9433982129</v>
       </c>
       <c r="E193" t="n">
-        <v>0.1585792323232323</v>
+        <v>0.1302403064516129</v>
       </c>
       <c r="F193" t="n">
-        <v>0.0358989898989899</v>
+        <v>0.03052016129032258</v>
       </c>
     </row>
     <row r="194">
@@ -4305,19 +4305,19 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>2659.333950185991</v>
+        <v>82292.50545042023</v>
       </c>
       <c r="C194" t="n">
-        <v>1379.527984377282</v>
+        <v>1387.459509976355</v>
       </c>
       <c r="D194" t="n">
-        <v>125822.2091828095</v>
+        <v>165704.6632183075</v>
       </c>
       <c r="E194" t="n">
-        <v>0.1598029090909091</v>
+        <v>0.1311683548387097</v>
       </c>
       <c r="F194" t="n">
-        <v>0.0361590909090909</v>
+        <v>0.03073387096774194</v>
       </c>
     </row>
     <row r="195">
@@ -4325,19 +4325,19 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>2624.284942723685</v>
+        <v>81244.45524668235</v>
       </c>
       <c r="C195" t="n">
-        <v>1378.572458963934</v>
+        <v>1386.524291102573</v>
       </c>
       <c r="D195" t="n">
-        <v>123677.7861785505</v>
+        <v>162955.7247233474</v>
       </c>
       <c r="E195" t="n">
-        <v>0.1610265858585859</v>
+        <v>0.1320964032258065</v>
       </c>
       <c r="F195" t="n">
-        <v>0.03641919191919192</v>
+        <v>0.03094758064516129</v>
       </c>
     </row>
     <row r="196">
@@ -4345,19 +4345,19 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>2589.939553862165</v>
+        <v>80216.73930996603</v>
       </c>
       <c r="C196" t="n">
-        <v>1377.625099002415</v>
+        <v>1385.59686961358</v>
       </c>
       <c r="D196" t="n">
-        <v>121586.3402929424</v>
+        <v>160272.9555497415</v>
       </c>
       <c r="E196" t="n">
-        <v>0.1622502626262626</v>
+        <v>0.1330244516129032</v>
       </c>
       <c r="F196" t="n">
-        <v>0.03667929292929293</v>
+        <v>0.03116129032258064</v>
       </c>
     </row>
     <row r="197">
@@ -4365,19 +4365,19 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>2556.278879247734</v>
+        <v>79208.82960473002</v>
       </c>
       <c r="C197" t="n">
-        <v>1376.685769615535</v>
+        <v>1384.677119318835</v>
       </c>
       <c r="D197" t="n">
-        <v>119546.158897263</v>
+        <v>157654.2687885131</v>
       </c>
       <c r="E197" t="n">
-        <v>0.1634739393939394</v>
+        <v>0.1339525</v>
       </c>
       <c r="F197" t="n">
-        <v>0.03693939393939394</v>
+        <v>0.031375</v>
       </c>
     </row>
     <row r="198">
@@ -4385,19 +4385,19 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>2523.284648742583</v>
+        <v>78220.21521655483</v>
       </c>
       <c r="C198" t="n">
-        <v>1375.754339268044</v>
+        <v>1383.764917106716</v>
       </c>
       <c r="D198" t="n">
-        <v>117555.5977680685</v>
+        <v>155097.6589745266</v>
       </c>
       <c r="E198" t="n">
-        <v>0.1646976161616162</v>
+        <v>0.1348805483870968</v>
       </c>
       <c r="F198" t="n">
-        <v>0.03719949494949495</v>
+        <v>0.03158870967741935</v>
       </c>
     </row>
     <row r="199">
@@ -4405,19 +4405,19 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>2490.939200984638</v>
+        <v>77250.40168849085</v>
       </c>
       <c r="C199" t="n">
-        <v>1374.830679655061</v>
+        <v>1382.860142842709</v>
       </c>
       <c r="D199" t="n">
-        <v>115613.077833388</v>
+        <v>152601.1982946905</v>
       </c>
       <c r="E199" t="n">
-        <v>0.1659212929292929</v>
+        <v>0.1358085967741936</v>
       </c>
       <c r="F199" t="n">
-        <v>0.03745959595959596</v>
+        <v>0.03180241935483871</v>
       </c>
     </row>
     <row r="200">
@@ -4425,19 +4425,19 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>2459.22545913163</v>
+        <v>76298.9103872511</v>
       </c>
       <c r="C200" t="n">
-        <v>1373.914665595178</v>
+        <v>1381.962679271895</v>
       </c>
       <c r="D200" t="n">
-        <v>113717.0820984855</v>
+        <v>150163.033001512</v>
       </c>
       <c r="E200" t="n">
-        <v>0.1671449696969697</v>
+        <v>0.1367366451612903</v>
       </c>
       <c r="F200" t="n">
-        <v>0.03771969696969697</v>
+        <v>0.03201612903225806</v>
       </c>
     </row>
     <row r="201">
@@ -4445,19 +4445,19 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>2428.126907726894</v>
+        <v>75365.27789772462</v>
       </c>
       <c r="C201" t="n">
-        <v>1373.006174928096</v>
+        <v>1381.072411925514</v>
       </c>
       <c r="D201" t="n">
-        <v>111866.1527400893</v>
+        <v>147781.3800192819</v>
       </c>
       <c r="E201" t="n">
-        <v>0.1683686464646465</v>
+        <v>0.1376646935483871</v>
       </c>
       <c r="F201" t="n">
-        <v>0.03797979797979797</v>
+        <v>0.03222983870967742</v>
       </c>
     </row>
     <row r="202">
@@ -4465,19 +4465,19 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>2397.627570627891</v>
+        <v>74449.055444375</v>
       </c>
       <c r="C202" t="n">
-        <v>1372.10508841645</v>
+        <v>1380.189229031391</v>
       </c>
       <c r="D202" t="n">
-        <v>110058.8883583779</v>
+        <v>145454.5237310828</v>
       </c>
       <c r="E202" t="n">
-        <v>0.1695923232323232</v>
+        <v>0.1385927419354839</v>
       </c>
       <c r="F202" t="n">
-        <v>0.03823989898989899</v>
+        <v>0.03244354838709677</v>
       </c>
     </row>
     <row r="203">
@@ -4485,19 +4485,519 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>2367.711989942126</v>
+        <v>73549.80833817049</v>
       </c>
       <c r="C203" t="n">
-        <v>1371.211289651724</v>
+        <v>1379.31302142808</v>
       </c>
       <c r="D203" t="n">
-        <v>108293.9413771445</v>
+        <v>143180.8129357692</v>
       </c>
       <c r="E203" t="n">
-        <v>0.170816</v>
+        <v>0.1395207903225807</v>
       </c>
       <c r="F203" t="n">
-        <v>0.0385</v>
+        <v>0.03265725806451612</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>72667.11544775794</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1378.443682482258</v>
+      </c>
+      <c r="D204" t="n">
+        <v>140958.6579638857</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.1404488387096774</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.03287096774193549</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>71800.56869369489</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1377.581108009899</v>
+      </c>
+      <c r="D205" t="n">
+        <v>138786.5279448754</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.1413768870967742</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.03308467741935484</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>70949.77256457118</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1376.725196200141</v>
+      </c>
+      <c r="D206" t="n">
+        <v>136662.9482142039</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.142304935483871</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.03329838709677419</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>70114.3436539642</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1375.875847542371</v>
+      </c>
+      <c r="D207" t="n">
+        <v>134586.4978538864</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0.1432329838709678</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.03351209677419355</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>69293.91021720083</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1375.032964756115</v>
+      </c>
+      <c r="D208" t="n">
+        <v>132555.8073579673</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0.1441610322580645</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0.0337258064516129</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>68488.11174696505</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1374.196452723645</v>
+      </c>
+      <c r="D209" t="n">
+        <v>130569.5564157795</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.1450890806451613</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0.03393951612903226</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>67696.59856684176</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1373.366218425182</v>
+      </c>
+      <c r="D210" t="n">
+        <v>128626.4718062908</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.1460171290322581</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0.03415322580645161</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>66919.03144193426</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1372.542170876565</v>
+      </c>
+      <c r="D211" t="n">
+        <v>126725.325397093</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.1469451774193549</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.03436693548387097</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>66155.08120574091</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1371.724221069232</v>
+      </c>
+      <c r="D212" t="n">
+        <v>124864.9322421051</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.1478732258064516</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.03458064516129032</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>65404.42840252021</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1370.912281912499</v>
+      </c>
+      <c r="D213" t="n">
+        <v>123044.1487725534</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.1488012741935484</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.03479435483870967</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>64666.76294441307</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1370.106268177947</v>
+      </c>
+      <c r="D214" t="n">
+        <v>121261.8710759148</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.1497293225806452</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.03500806451612903</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>63941.78378262976</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1369.306096445863</v>
+      </c>
+      <c r="D215" t="n">
+        <v>119517.0332579746</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.150657370967742</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0.03522177419354838</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>63229.19859204648</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1368.511685053633</v>
+      </c>
+      <c r="D216" t="n">
+        <v>117808.6058834267</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0.1515854193548387</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0.03543548387096774</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>62528.72346858955</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1367.722954045995</v>
+      </c>
+      <c r="D217" t="n">
+        <v>116135.5944907295</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0.1525134677419355</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0.0356491935483871</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>61840.08263881645</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1366.939825127035</v>
+      </c>
+      <c r="D218" t="n">
+        <v>114497.0381770916</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0.1534415161290323</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0.03586290322580644</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>61163.00818114318</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1366.162221614165</v>
+      </c>
+      <c r="D219" t="n">
+        <v>112892.0082504713</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.154369564516129</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0.03607661290322581</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>60497.23975816242</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1365.390068393008</v>
+      </c>
+      <c r="D220" t="n">
+        <v>111319.6069429647</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0.1552976129032258</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0.03629032258064516</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>59842.52435959197</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1364.623291874864</v>
+      </c>
+      <c r="D221" t="n">
+        <v>109778.966185861</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0.1562256612903226</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0.03650403225806451</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>59198.61605533078</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1363.861819954845</v>
+      </c>
+      <c r="D222" t="n">
+        <v>108269.246439373</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0.1571537096774194</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0.03671774193548387</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>58565.27575819751</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1363.105581971817</v>
+      </c>
+      <c r="D223" t="n">
+        <v>106789.6355766159</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0.1580817580645162</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0.03693145161290322</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>57942.27099590994</v>
+      </c>
+      <c r="C224" t="n">
+        <v>1362.354508669629</v>
+      </c>
+      <c r="D224" t="n">
+        <v>105339.3478180768</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.1590098064516129</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0.03714516129032258</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>57329.37569189887</v>
+      </c>
+      <c r="C225" t="n">
+        <v>1361.608532159711</v>
+      </c>
+      <c r="D225" t="n">
+        <v>103917.6227142247</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0.1599378548387097</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0.03735887096774193</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>56726.36995455905</v>
+      </c>
+      <c r="C226" t="n">
+        <v>1360.867585884668</v>
+      </c>
+      <c r="D226" t="n">
+        <v>102523.7241732137</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0.1608659032258065</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0.03757258064516129</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>56133.03987458984</v>
+      </c>
+      <c r="C227" t="n">
+        <v>1360.131604583717</v>
+      </c>
+      <c r="D227" t="n">
+        <v>101156.9395330528</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0.1617939516129032</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0.03778629032258064</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>55549.17733003777</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1359.400524258476</v>
+      </c>
+      <c r="D228" t="n">
+        <v>99816.57867329573</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.162722</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0.038</v>
       </c>
     </row>
   </sheetData>

--- a/motor_sim_data_prac_1.xlsx
+++ b/motor_sim_data_prac_1.xlsx
@@ -465,7 +465,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>30520.3642957658</v>
+        <v>538.0929126736569</v>
       </c>
       <c r="C2" t="n">
         <v>1599.948022576673</v>
@@ -485,7 +485,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30984.86358290853</v>
+        <v>546.2823226011177</v>
       </c>
       <c r="C3" t="n">
         <v>1599.946426044152</v>
@@ -505,7 +505,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31460.04938152842</v>
+        <v>554.6601423401833</v>
       </c>
       <c r="C4" t="n">
         <v>1599.94476767804</v>
@@ -525,7 +525,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>31946.25209334617</v>
+        <v>563.2321970776865</v>
       </c>
       <c r="C5" t="n">
         <v>1599.943044578241</v>
@@ -545,7 +545,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>32443.8149917776</v>
+        <v>572.0045389364124</v>
       </c>
       <c r="C6" t="n">
         <v>1599.941253684435</v>
@@ -565,7 +565,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>32953.09482859317</v>
+        <v>580.983457670881</v>
       </c>
       <c r="C7" t="n">
         <v>1599.939391765857</v>
@@ -585,7 +585,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>33474.46247422984</v>
+        <v>590.1754919564405</v>
       </c>
       <c r="C8" t="n">
         <v>1599.937455410342</v>
@@ -605,7 +605,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>34008.30359389143</v>
+        <v>599.5874413093362</v>
       </c>
       <c r="C9" t="n">
         <v>1599.935441012554</v>
@@ -625,7 +625,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>34555.01936174438</v>
+        <v>609.2263786784232</v>
       </c>
       <c r="C10" t="n">
         <v>1599.933344761361</v>
@@ -645,7 +645,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>35115.02721568259</v>
+        <v>619.0996637521383</v>
       </c>
       <c r="C11" t="n">
         <v>1599.931162626261</v>
@@ -665,7 +665,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>35688.76165531909</v>
+        <v>629.2149570275866</v>
       </c>
       <c r="C12" t="n">
         <v>1599.928890342797</v>
@@ -685,7 +685,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>36276.67508605861</v>
+        <v>639.5802346920633</v>
       </c>
       <c r="C13" t="n">
         <v>1599.926523396858</v>
@@ -705,7 +705,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>36879.23871231997</v>
+        <v>650.2038043711171</v>
       </c>
       <c r="C14" t="n">
         <v>1599.924057007792</v>
@@ -725,7 +725,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>37496.94348320895</v>
+        <v>661.094321801349</v>
       </c>
       <c r="C15" t="n">
         <v>1599.921486110212</v>
@@ -745,7 +745,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>38130.30109419346</v>
+        <v>672.2608084905647</v>
       </c>
       <c r="C16" t="n">
         <v>1599.918805334388</v>
@@ -765,7 +765,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>38779.84504860767</v>
+        <v>683.71267043275</v>
       </c>
       <c r="C17" t="n">
         <v>1599.916008985102</v>
@@ -785,7 +785,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>39446.13178309979</v>
+        <v>695.4597179504111</v>
       </c>
       <c r="C18" t="n">
         <v>1599.913091018832</v>
@@ -805,7 +805,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>40129.74186153806</v>
+        <v>707.5121867438763</v>
       </c>
       <c r="C19" t="n">
         <v>1599.910045019104</v>
@@ -825,7 +825,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>40831.28124187911</v>
+        <v>719.8807602269708</v>
       </c>
       <c r="C20" t="n">
         <v>1599.906864169877</v>
@@ -845,7 +845,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>41551.3826218446</v>
+        <v>732.5765932521258</v>
       </c>
       <c r="C21" t="n">
         <v>1599.903541226728</v>
@@ -865,7 +865,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>42290.70686809588</v>
+        <v>745.6113373076154</v>
       </c>
       <c r="C22" t="n">
         <v>1599.900068485703</v>
@@ -885,7 +885,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>43049.94453566169</v>
+        <v>758.9971673060048</v>
       </c>
       <c r="C23" t="n">
         <v>1599.896437749566</v>
@@ -905,7 +905,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>43829.81748402475</v>
+        <v>772.7468100767595</v>
       </c>
       <c r="C24" t="n">
         <v>1599.892640291218</v>
@@ -925,7 +925,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>44631.08059643443</v>
+        <v>786.8735746787895</v>
       </c>
       <c r="C25" t="n">
         <v>1599.888666814036</v>
@@ -945,7 +945,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>45454.52361108147</v>
+        <v>801.3913846851947</v>
       </c>
       <c r="C26" t="n">
         <v>1599.884507408802</v>
@@ -965,7 +965,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>46300.97307151067</v>
+        <v>816.3148125702472</v>
       </c>
       <c r="C27" t="n">
         <v>1599.880151506928</v>
@@ -985,7 +985,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>47171.29440585863</v>
+        <v>831.6591163676395</v>
       </c>
       <c r="C28" t="n">
         <v>1599.8755878296</v>
@@ -1005,7 +1005,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>48066.39414451091</v>
+        <v>847.4402787691531</v>
       </c>
       <c r="C29" t="n">
         <v>1599.870804332433</v>
@@ -1025,7 +1025,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>48987.22228704568</v>
+        <v>863.6750488553395</v>
       </c>
       <c r="C30" t="n">
         <v>1599.865788145201</v>
@@ -1045,7 +1045,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>49934.77482951785</v>
+        <v>880.3809866531038</v>
       </c>
       <c r="C31" t="n">
         <v>1599.860525506155</v>
@@ -1065,7 +1065,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>50910.09646551302</v>
+        <v>897.5765107569591</v>
       </c>
       <c r="C32" t="n">
         <v>1599.85500169034</v>
@@ -1085,7 +1085,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>51914.28347404185</v>
+        <v>915.2809492443886</v>
       </c>
       <c r="C33" t="n">
         <v>1599.849200931341</v>
@@ -1105,7 +1105,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>52948.48680942986</v>
+        <v>933.5145941525179</v>
       </c>
       <c r="C34" t="n">
         <v>1599.843106335746</v>
@@ -1125,7 +1125,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>54013.91540971743</v>
+        <v>952.2987598072541</v>
       </c>
       <c r="C35" t="n">
         <v>1599.836699789563</v>
@@ -1145,7 +1145,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>55111.83974123815</v>
+        <v>971.6558453163946</v>
       </c>
       <c r="C36" t="n">
         <v>1599.829961855739</v>
@@ -1165,7 +1165,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>56243.59559895574</v>
+        <v>991.6094015719214</v>
       </c>
       <c r="C37" t="n">
         <v>1599.822871661815</v>
@@ -1185,7 +1185,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>57410.58818389761</v>
+        <v>1012.184203137676</v>
       </c>
       <c r="C38" t="n">
         <v>1599.815406776655</v>
@@ -1205,7 +1205,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>58614.29648106115</v>
+        <v>1033.40632543456</v>
       </c>
       <c r="C39" t="n">
         <v>1599.807543075027</v>
@@ -1225,7 +1225,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>59856.27796349776</v>
+        <v>1055.303227676443</v>
       </c>
       <c r="C40" t="n">
         <v>1599.799254588675</v>
@@ -1245,7 +1245,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>61138.17365030861</v>
+        <v>1077.903842045766</v>
       </c>
       <c r="C41" t="n">
         <v>1599.790513342392</v>
@@ -1265,7 +1265,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>62461.71355035705</v>
+        <v>1101.238669669553</v>
       </c>
       <c r="C42" t="n">
         <v>1599.781289173296</v>
@@ -1285,7 +1285,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>63828.72252436362</v>
+        <v>1125.339883971777</v>
       </c>
       <c r="C43" t="n">
         <v>1599.771549531453</v>
@@ -1305,7 +1305,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>65241.12660388247</v>
+        <v>1150.24144208083</v>
       </c>
       <c r="C44" t="n">
         <v>1599.761259259577</v>
@@ -1325,7 +1325,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>66700.95980773137</v>
+        <v>1175.979205007393</v>
       </c>
       <c r="C45" t="n">
         <v>1599.750380349342</v>
@@ -1345,7 +1345,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>68210.37150148241</v>
+        <v>1202.591067396823</v>
       </c>
       <c r="C46" t="n">
         <v>1599.738871671476</v>
@@ -1365,7 +1365,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>69771.634350141</v>
+        <v>1230.117097739797</v>
       </c>
       <c r="C47" t="n">
         <v>1599.726688676416</v>
@@ -1385,7 +1385,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>71387.15291946419</v>
+        <v>1258.599690018883</v>
       </c>
       <c r="C48" t="n">
         <v>1599.713783061855</v>
@@ -1405,7 +1405,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>73059.47298728912</v>
+        <v>1288.083727873024</v>
       </c>
       <c r="C49" t="n">
         <v>1599.700102403019</v>
@@ -1425,7 +1425,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>74791.29163288754</v>
+        <v>1318.616762479098</v>
       </c>
       <c r="C50" t="n">
         <v>1599.685589740876</v>
@@ -1445,7 +1445,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>76585.4681798112</v>
+        <v>1350.24920548106</v>
       </c>
       <c r="C51" t="n">
         <v>1599.670183122819</v>
@@ -1465,7 +1465,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>78445.03607607483</v>
+        <v>1383.034538444918</v>
       </c>
       <c r="C52" t="n">
         <v>1599.653815089532</v>
@@ -1485,7 +1485,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>80373.21580498469</v>
+        <v>1417.029540484633</v>
       </c>
       <c r="C53" t="n">
         <v>1599.636412100828</v>
@@ -1505,7 +1505,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>82373.42893030864</v>
+        <v>1452.29453588716</v>
       </c>
       <c r="C54" t="n">
         <v>1599.617893892123</v>
@@ -1525,7 +1525,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>84449.31339233946</v>
+        <v>1488.893663791512</v>
       </c>
       <c r="C55" t="n">
         <v>1599.598172751895</v>
@@ -1545,7 +1545,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>86604.74018334069</v>
+        <v>1526.89517218719</v>
       </c>
       <c r="C56" t="n">
         <v>1599.577152709059</v>
@@ -1565,7 +1565,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>88843.83154827511</v>
+        <v>1566.371738804291</v>
       </c>
       <c r="C57" t="n">
         <v>1599.554728617219</v>
@@ -1585,7 +1585,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>91170.98087253938</v>
+        <v>1607.400821746581</v>
       </c>
       <c r="C58" t="n">
         <v>1599.530785120812</v>
@@ -1605,7 +1605,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>93590.87443932597</v>
+        <v>1650.065043087252</v>
       </c>
       <c r="C59" t="n">
         <v>1599.505195485496</v>
@@ -1625,7 +1625,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>96108.5152612407</v>
+        <v>1694.452609035084</v>
       </c>
       <c r="C60" t="n">
         <v>1599.477820272232</v>
@@ -1645,7 +1645,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>98729.24921716201</v>
+        <v>1740.657770743462</v>
       </c>
       <c r="C61" t="n">
         <v>1599.44850583085</v>
@@ -1665,7 +1665,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>101458.7937544482</v>
+        <v>1788.781330348043</v>
       </c>
       <c r="C62" t="n">
         <v>1599.417082584645</v>
@@ -1685,7 +1685,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>104303.2694509794</v>
+        <v>1838.931197425097</v>
       </c>
       <c r="C63" t="n">
         <v>1599.383363072317</v>
@@ -1705,7 +1705,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>107269.2347700599</v>
+        <v>1891.223001741944</v>
       </c>
       <c r="C64" t="n">
         <v>1599.347139707366</v>
@@ -1725,7 +1725,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>110363.7243864794</v>
+        <v>1945.780768969137</v>
       </c>
       <c r="C65" t="n">
         <v>1599.308182207413</v>
@@ -1745,7 +1745,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>113594.2915136565</v>
+        <v>2002.7376669342</v>
       </c>
       <c r="C66" t="n">
         <v>1599.266234636703</v>
@@ -1765,7 +1765,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>116969.054722041</v>
+        <v>2062.236831059036</v>
       </c>
       <c r="C67" t="n">
         <v>1599.221011993698</v>
@@ -1785,7 +1785,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>120496.7498082777</v>
+        <v>2124.432278845384</v>
       </c>
       <c r="C68" t="n">
         <v>1599.172196261754</v>
@@ -1805,7 +1805,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>124186.7873570407</v>
+        <v>2189.489924725598</v>
       </c>
       <c r="C69" t="n">
         <v>1599.119431823538</v>
@@ -1825,7 +1825,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>128049.3167303044</v>
+        <v>2257.588708233086</v>
       </c>
       <c r="C70" t="n">
         <v>1599.062320118612</v>
@@ -1845,7 +1845,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>132095.2973326221</v>
+        <v>2328.921850453289</v>
       </c>
       <c r="C71" t="n">
         <v>1599.00041339652</v>
@@ -1865,7 +1865,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>136336.5781301116</v>
+        <v>2403.698255992609</v>
       </c>
       <c r="C72" t="n">
         <v>1598.933207384151</v>
@@ -1885,7 +1885,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>140785.9865566367</v>
+        <v>2482.14408044942</v>
       </c>
       <c r="C73" t="n">
         <v>1598.860132643281</v>
@@ -1905,7 +1905,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>145457.4281241879</v>
+        <v>2564.504486606734</v>
       </c>
       <c r="C74" t="n">
         <v>1598.780544339597</v>
@@ -1925,7 +1925,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>150365.9982736828</v>
+        <v>2651.045616431029</v>
       </c>
       <c r="C75" t="n">
         <v>1598.693710074316</v>
@@ -1945,7 +1945,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>155528.1082651626</v>
+        <v>2742.056810594348</v>
       </c>
       <c r="C76" t="n">
         <v>1598.598795338445</v>
@@ -1965,7 +1965,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>160961.6272232598</v>
+        <v>2837.853112823798</v>
       </c>
       <c r="C77" t="n">
         <v>1598.494846030715</v>
@@ -1985,7 +1985,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>166686.0428382865</v>
+        <v>2938.778103161203</v>
       </c>
       <c r="C78" t="n">
         <v>1598.380767323023</v>
@@ -2005,7 +2005,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>172722.6436940402</v>
+        <v>3045.207112515179</v>
       </c>
       <c r="C79" t="n">
         <v>1598.255297947532</v>
@@ -2025,7 +2025,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>179094.7267723309</v>
+        <v>3157.550881094365</v>
       </c>
       <c r="C80" t="n">
         <v>1598.116978696982</v>
@@ -2045,7 +2045,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>185827.8344070642</v>
+        <v>3276.259736054577</v>
       </c>
       <c r="C81" t="n">
         <v>1597.96411354365</v>
@@ -2065,7 +2065,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>192950.0258679074</v>
+        <v>3401.828379686927</v>
       </c>
       <c r="C82" t="n">
         <v>1597.794721248863</v>
@@ -2085,7 +2085,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>200492.1899109778</v>
+        <v>3534.801399879918</v>
       </c>
       <c r="C83" t="n">
         <v>1597.606474586041</v>
@@ -2105,7 +2105,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>208488.4061300009</v>
+        <v>3675.779640964</v>
       </c>
       <c r="C84" t="n">
         <v>1597.396623232931</v>
@@ -2125,7 +2125,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>216976.3649080928</v>
+        <v>3825.42760772143</v>
       </c>
       <c r="C85" t="n">
         <v>1597.161894840555</v>
@@ -2145,7 +2145,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>225997.8584095891</v>
+        <v>3984.4821218761</v>
       </c>
       <c r="C86" t="n">
         <v>1596.898366496823</v>
@@ -2165,7 +2165,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>235599.3586736677</v>
+        <v>4153.762514241917</v>
       </c>
       <c r="C87" t="n">
         <v>1596.601295342982</v>
@@ -2185,7 +2185,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>245832.703983155</v>
+        <v>4334.182725829669</v>
       </c>
       <c r="C88" t="n">
         <v>1596.264891744008</v>
@@ -2205,7 +2205,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>256755.9221261624</v>
+        <v>4526.765822459222</v>
       </c>
       <c r="C89" t="n">
         <v>1595.882009888911</v>
@@ -2225,7 +2225,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>268434.2304208041</v>
+        <v>4732.661625814246</v>
       </c>
       <c r="C90" t="n">
         <v>1595.443716698334</v>
@@ -2245,7 +2245,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>280941.2701315039</v>
+        <v>4953.168476965731</v>
       </c>
       <c r="C91" t="n">
         <v>1594.938676087555</v>
@@ -2265,7 +2265,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>294360.6623698939</v>
+        <v>5189.760667867834</v>
       </c>
       <c r="C92" t="n">
         <v>1594.352243332719</v>
@@ -2285,7 +2285,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>308788.0243910737</v>
+        <v>5444.123989908881</v>
       </c>
       <c r="C93" t="n">
         <v>1593.665085392479</v>
@@ -2305,7 +2305,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>324333.6827509287</v>
+        <v>5718.203568554161</v>
       </c>
       <c r="C94" t="n">
         <v>1592.850986901537</v>
@@ -2325,7 +2325,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>341126.5189305797</v>
+        <v>6014.271664085169</v>
       </c>
       <c r="C95" t="n">
         <v>1591.873169319847</v>
@@ -2345,7 +2345,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>359319.8316202013</v>
+        <v>6335.031027291698</v>
       </c>
       <c r="C96" t="n">
         <v>1590.677676382725</v>
@@ -2365,7 +2365,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>379101.2444248039</v>
+        <v>6683.789578457004</v>
       </c>
       <c r="C97" t="n">
         <v>1589.180347161707</v>
@@ -2385,7 +2385,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>400712.1383865901</v>
+        <v>7064.80301475443</v>
       </c>
       <c r="C98" t="n">
         <v>1587.237626711098</v>
@@ -2405,7 +2405,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>424495.3708345068</v>
+        <v>7484.116123099915</v>
       </c>
       <c r="C99" t="n">
         <v>1584.566817399636</v>
@@ -2425,7 +2425,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>451068.1548078577</v>
+        <v>7952.610751391491</v>
       </c>
       <c r="C100" t="n">
         <v>1580.433447822298</v>
@@ -2445,7 +2445,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>475283.1575319038</v>
+        <v>8379.536236943122</v>
       </c>
       <c r="C101" t="n">
         <v>1580.433447822298</v>
@@ -2465,7 +2465,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>484686.6793553257</v>
+        <v>8545.326146864265</v>
       </c>
       <c r="C102" t="n">
         <v>1567.091087169442</v>
@@ -2485,7 +2485,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>484686.6793553257</v>
+        <v>8545.326146864265</v>
       </c>
       <c r="C103" t="n">
         <v>1567.091087169442</v>
@@ -2505,7 +2505,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>484686.6793553257</v>
+        <v>8545.326146864265</v>
       </c>
       <c r="C104" t="n">
         <v>1567.091087169442</v>
@@ -2525,7 +2525,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>474044.7141244409</v>
+        <v>8357.701713152866</v>
       </c>
       <c r="C105" t="n">
         <v>1553.006991223763</v>
@@ -2545,7 +2545,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>460403.3573933783</v>
+        <v>8117.196150863224</v>
       </c>
       <c r="C106" t="n">
         <v>1546.329938878152</v>
@@ -2565,7 +2565,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>446863.1090081908</v>
+        <v>7878.473191290912</v>
       </c>
       <c r="C107" t="n">
         <v>1540.90697054605</v>
@@ -2585,7 +2585,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>433691.893022937</v>
+        <v>7646.256501336714</v>
       </c>
       <c r="C108" t="n">
         <v>1536.150890350409</v>
@@ -2605,7 +2605,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>420971.0271730187</v>
+        <v>7421.979763006201</v>
       </c>
       <c r="C109" t="n">
         <v>1531.833094675875</v>
@@ -2625,7 +2625,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>408725.1198466854</v>
+        <v>7206.07683741522</v>
       </c>
       <c r="C110" t="n">
         <v>1527.835588462484</v>
@@ -2645,7 +2645,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>396955.6341647344</v>
+        <v>6998.573520289004</v>
       </c>
       <c r="C111" t="n">
         <v>1524.087734055307</v>
@@ -2665,7 +2665,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>385653.2351506659</v>
+        <v>6799.305230214113</v>
       </c>
       <c r="C112" t="n">
         <v>1520.543093094203</v>
@@ -2685,7 +2685,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>374803.2729810442</v>
+        <v>6608.013681736081</v>
       </c>
       <c r="C113" t="n">
         <v>1517.169082482122</v>
@@ -2705,7 +2705,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>364388.5178387293</v>
+        <v>6424.395102514579</v>
       </c>
       <c r="C114" t="n">
         <v>1513.941714088878</v>
@@ -2725,7 +2725,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>354390.6304208626</v>
+        <v>6248.126159289364</v>
       </c>
       <c r="C115" t="n">
         <v>1510.842660693703</v>
@@ -2745,7 +2745,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>344790.9912728703</v>
+        <v>6078.878579552059</v>
       </c>
       <c r="C116" t="n">
         <v>1507.857501439554</v>
@@ -2765,7 +2765,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>335571.1809539411</v>
+        <v>5916.327617160712</v>
       </c>
       <c r="C117" t="n">
         <v>1504.974613814267</v>
@@ -2785,7 +2785,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>326713.2596804274</v>
+        <v>5760.156982626045</v>
       </c>
       <c r="C118" t="n">
         <v>1502.184442455871</v>
@@ -2805,7 +2805,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>318199.9271602929</v>
+        <v>5610.061661091692</v>
       </c>
       <c r="C119" t="n">
         <v>1499.47899879525</v>
@@ -2825,7 +2825,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>310014.6087497745</v>
+        <v>5465.749431329475</v>
       </c>
       <c r="C120" t="n">
         <v>1496.851508058806</v>
@@ -2845,7 +2845,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>302141.4954065767</v>
+        <v>5326.941570138941</v>
       </c>
       <c r="C121" t="n">
         <v>1494.29615366903</v>
@@ -2865,7 +2865,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>294565.5543548847</v>
+        <v>5193.373040378161</v>
       </c>
       <c r="C122" t="n">
         <v>1491.807887963311</v>
@@ -2885,7 +2885,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>287272.5211579702</v>
+        <v>5064.792351198843</v>
       </c>
       <c r="C123" t="n">
         <v>1489.382289246392</v>
@@ -2905,7 +2905,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>280248.8801055594</v>
+        <v>4940.961212263508</v>
       </c>
       <c r="C124" t="n">
         <v>1487.01545195176</v>
@@ -2925,7 +2925,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>273481.8374489682</v>
+        <v>4821.654061864351</v>
       </c>
       <c r="C125" t="n">
         <v>1484.703900936704</v>
@@ -2945,7 +2945,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>266959.2904931202</v>
+        <v>4706.657521996382</v>
       </c>
       <c r="C126" t="n">
         <v>1482.444523683196</v>
@@ -2965,7 +2965,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>260669.7945565158</v>
+        <v>4595.769815841246</v>
       </c>
       <c r="C127" t="n">
         <v>1480.234515995893</v>
@@ -2985,7 +2985,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>254602.5291455011</v>
+        <v>4488.800171398634</v>
       </c>
       <c r="C128" t="n">
         <v>1478.071338020577</v>
@@ -3005,7 +3005,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>248747.2642402941</v>
+        <v>4385.56822708807</v>
       </c>
       <c r="C129" t="n">
         <v>1475.952678256884</v>
@@ -3025,7 +3025,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>243094.3272837946</v>
+        <v>4285.90344974118</v>
       </c>
       <c r="C130" t="n">
         <v>1473.876423837202</v>
@@ -3045,7 +3045,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>237634.5712532313</v>
+        <v>4189.644571685099</v>
       </c>
       <c r="C131" t="n">
         <v>1471.840635769427</v>
@@ -3065,7 +3065,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>232359.3440488367</v>
+        <v>4096.639051045823</v>
       </c>
       <c r="C132" t="n">
         <v>1469.843528153303</v>
@@ -3085,7 +3085,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>227260.4593323858</v>
+        <v>4006.742557613637</v>
       </c>
       <c r="C133" t="n">
         <v>1467.883450604228</v>
@@ -3105,7 +3105,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>222330.1688784054</v>
+        <v>3919.818485377793</v>
       </c>
       <c r="C134" t="n">
         <v>1465.958873290048</v>
@@ -3125,7 +3125,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>217561.1364524829</v>
+        <v>3835.737491984939</v>
       </c>
       <c r="C135" t="n">
         <v>1464.068374112465</v>
@@ -3145,7 +3145,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>212946.4131981966</v>
+        <v>3754.377064795469</v>
       </c>
       <c r="C136" t="n">
         <v>1462.210627661815</v>
@@ -3165,7 +3165,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>208479.4144921543</v>
+        <v>3675.62111282352</v>
       </c>
       <c r="C137" t="n">
         <v>1460.384395647929</v>
@@ -3185,7 +3185,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>204153.8982123992</v>
+        <v>3599.35958359552</v>
       </c>
       <c r="C138" t="n">
         <v>1458.588518568143</v>
@@ -3205,7 +3205,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>199963.9443566732</v>
+        <v>3525.488103807561</v>
       </c>
       <c r="C139" t="n">
         <v>1456.821908417602</v>
@@ -3225,7 +3225,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>195903.9359422316</v>
+        <v>3453.907642577302</v>
       </c>
       <c r="C140" t="n">
         <v>1455.083542283136</v>
@@ -3245,7 +3245,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>191968.5411168741</v>
+        <v>3384.52419605038</v>
       </c>
       <c r="C141" t="n">
         <v>1453.372456690528</v>
@@ -3265,7 +3265,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>188152.6964106664</v>
+        <v>3317.24849211789</v>
       </c>
       <c r="C142" t="n">
         <v>1451.687742595542</v>
@@ -3285,7 +3285,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>184451.591059188</v>
+        <v>3251.995714025546</v>
       </c>
       <c r="C143" t="n">
         <v>1450.028540930707</v>
@@ -3305,7 +3305,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>180860.6523311226</v>
+        <v>3188.685241690018</v>
       </c>
       <c r="C144" t="n">
         <v>1448.394038630778</v>
@@ -3325,7 +3325,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>177375.531795818</v>
+        <v>3127.240409587506</v>
       </c>
       <c r="C145" t="n">
         <v>1446.783465074441</v>
@@ -3345,7 +3345,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>173992.092469456</v>
+        <v>3067.588280132771</v>
       </c>
       <c r="C146" t="n">
         <v>1445.196088888432</v>
@@ -3365,7 +3365,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>170706.3967817462</v>
+        <v>3009.659431524487</v>
       </c>
       <c r="C147" t="n">
         <v>1443.631215068655</v>
@@ -3385,7 +3385,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>167514.6953083725</v>
+        <v>2953.387759091314</v>
       </c>
       <c r="C148" t="n">
         <v>1442.088182379546</v>
@@ -3405,7 +3405,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>164413.4162177416</v>
+        <v>2898.710289231526</v>
       </c>
       <c r="C149" t="n">
         <v>1440.5663609985</v>
@@ -3425,7 +3425,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>161399.1553838222</v>
+        <v>2845.567005096257</v>
       </c>
       <c r="C150" t="n">
         <v>1439.065150376832</v>
@@ -3445,7 +3445,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>158468.6671200067</v>
+        <v>2793.900683221743</v>
       </c>
       <c r="C151" t="n">
         <v>1437.583977292683</v>
@@ -3465,7 +3465,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>155618.8554919262</v>
+        <v>2743.656740368877</v>
       </c>
       <c r="C152" t="n">
         <v>1436.122294074546</v>
@@ -3485,7 +3485,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>152846.7661700042</v>
+        <v>2694.783089878688</v>
       </c>
       <c r="C153" t="n">
         <v>1434.679576976916</v>
@@ -3505,7 +3505,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>150149.5787852384</v>
+        <v>2647.230006900034</v>
       </c>
       <c r="C154" t="n">
         <v>1433.25532469192</v>
@@ -3525,7 +3525,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>147524.5997542289</v>
+        <v>2600.950001890424</v>
       </c>
       <c r="C155" t="n">
         <v>1431.84905698282</v>
@@ -3545,7 +3545,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>144969.2555418616</v>
+        <v>2555.897701832943</v>
       </c>
       <c r="C156" t="n">
         <v>1430.460313427016</v>
@@ -3565,7 +3565,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>142481.0863322738</v>
+        <v>2512.029738651462</v>
       </c>
       <c r="C157" t="n">
         <v>1429.088652257663</v>
@@ -3585,7 +3585,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>140057.7400808091</v>
+        <v>2469.304644342927</v>
       </c>
       <c r="C158" t="n">
         <v>1427.733649294293</v>
@@ -3605,7 +3605,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>137696.9669216019</v>
+        <v>2427.682752379605</v>
       </c>
       <c r="C159" t="n">
         <v>1426.394896953956</v>
@@ -3625,7 +3625,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>135396.6139072316</v>
+        <v>2387.126104965935</v>
       </c>
       <c r="C160" t="n">
         <v>1425.072003335443</v>
@@ -3645,7 +3645,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>133154.6200585444</v>
+        <v>2347.598365763822</v>
       </c>
       <c r="C161" t="n">
         <v>1423.764591369586</v>
@@ -3665,7 +3665,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>130969.0117043206</v>
+        <v>2309.064737728086</v>
       </c>
       <c r="C162" t="n">
         <v>1422.472298030168</v>
@@ -3685,7 +3685,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>128837.8980918675</v>
+        <v>2271.491885718503</v>
       </c>
       <c r="C163" t="n">
         <v>1421.194773599688</v>
@@ -3705,7 +3705,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>126759.4672509766</v>
+        <v>2234.847863578804</v>
       </c>
       <c r="C164" t="n">
         <v>1419.931680985428</v>
@@ -3725,7 +3725,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>124731.9820949081</v>
+        <v>2199.10204539462</v>
       </c>
       <c r="C165" t="n">
         <v>1418.68269508149</v>
@@ -3745,7 +3745,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>122753.7767432148</v>
+        <v>2164.225060662597</v>
       </c>
       <c r="C166" t="n">
         <v>1417.44750217298</v>
@@ -3765,7 +3765,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>120823.2530522749</v>
+        <v>2130.18873312153</v>
       </c>
       <c r="C167" t="n">
         <v>1416.225799378885</v>
@@ -3785,7 +3785,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>118938.8773403869</v>
+        <v>2096.966023013773</v>
       </c>
       <c r="C168" t="n">
         <v>1415.0172941305</v>
@@ -3805,7 +3805,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>117099.1772951904</v>
+        <v>2064.530972561149</v>
       </c>
       <c r="C169" t="n">
         <v>1413.821703682611</v>
@@ -3825,7 +3825,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>115302.7390520182</v>
+        <v>2032.858654454481</v>
       </c>
       <c r="C170" t="n">
         <v>1412.638754654882</v>
@@ -3845,7 +3845,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>113548.2044325661</v>
+        <v>2001.925123169643</v>
       </c>
       <c r="C171" t="n">
         <v>1411.4681826011</v>
@@ -3865,7 +3865,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>111834.2683339918</v>
+        <v>1971.70736893575</v>
       </c>
       <c r="C172" t="n">
         <v>1410.309731604221</v>
@@ -3885,7 +3885,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>110159.6762592242</v>
+        <v>1942.183274192982</v>
       </c>
       <c r="C173" t="n">
         <v>1409.163153895263</v>
@@ -3905,7 +3905,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>108523.2219798861</v>
+        <v>1913.331572388478</v>
       </c>
       <c r="C174" t="n">
         <v>1408.02820949436</v>
@@ -3925,7 +3925,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>106923.7453238062</v>
+        <v>1885.13180896878</v>
       </c>
       <c r="C175" t="n">
         <v>1406.90466587216</v>
@@ -3945,7 +3945,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>105360.1300796533</v>
+        <v>1857.564304437261</v>
       </c>
       <c r="C176" t="n">
         <v>1405.79229763074</v>
@@ -3965,7 +3965,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>103831.3020116714</v>
+        <v>1830.610119352657</v>
       </c>
       <c r="C177" t="n">
         <v>1404.690886201691</v>
@@ -3985,7 +3985,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>102336.2269780202</v>
+        <v>1804.251021154257</v>
       </c>
       <c r="C178" t="n">
         <v>1403.60021956112</v>
@@ -4005,7 +4005,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>100873.9091466065</v>
+        <v>1778.469452705901</v>
       </c>
       <c r="C179" t="n">
         <v>1402.52009195999</v>
@@ -4025,7 +4025,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>99443.3893026974</v>
+        <v>1753.248502458158</v>
       </c>
       <c r="C180" t="n">
         <v>1401.450303668636</v>
@@ -4045,7 +4045,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>98043.7432430011</v>
+        <v>1728.57187613497</v>
       </c>
       <c r="C181" t="n">
         <v>1400.390660734996</v>
@@ -4065,7 +4065,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>96674.08025120589</v>
+        <v>1704.423869856465</v>
       </c>
       <c r="C182" t="n">
         <v>1399.340974755179</v>
@@ -4085,7 +4085,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>95333.54165031921</v>
+        <v>1680.789344615799</v>
       </c>
       <c r="C183" t="n">
         <v>1398.301062655877</v>
@@ -4105,7 +4105,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>94021.29942742287</v>
+        <v>1657.653702032738</v>
       </c>
       <c r="C184" t="n">
         <v>1397.270746487634</v>
@@ -4125,7 +4125,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>92736.55492676726</v>
+        <v>1635.002861312101</v>
       </c>
       <c r="C185" t="n">
         <v>1396.249853228835</v>
@@ -4145,7 +4145,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>91478.5376073307</v>
+        <v>1612.823237338758</v>
       </c>
       <c r="C186" t="n">
         <v>1395.238214598789</v>
@@ -4165,7 +4165,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>90246.50386127782</v>
+        <v>1591.101719846327</v>
       </c>
       <c r="C187" t="n">
         <v>1394.23566688037</v>
@@ -4185,7 +4185,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>89039.73588992</v>
+        <v>1569.825653599657</v>
       </c>
       <c r="C188" t="n">
         <v>1393.242050751</v>
@@ -4205,7 +4205,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>87857.54063401457</v>
+        <v>1548.982819535341</v>
       </c>
       <c r="C189" t="n">
         <v>1392.257211121724</v>
@@ -4225,7 +4225,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>86699.24875542815</v>
+        <v>1528.561416807809</v>
       </c>
       <c r="C190" t="n">
         <v>1391.280996983833</v>
@@ -4245,7 +4245,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>85564.21366737082</v>
+        <v>1508.550045691761</v>
       </c>
       <c r="C191" t="n">
         <v>1390.313261262627</v>
@@ -4265,7 +4265,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>84451.8106105749</v>
+        <v>1488.93769129462</v>
       </c>
       <c r="C192" t="n">
         <v>1389.353860677892</v>
@@ -4285,7 +4285,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>83361.43577295382</v>
+        <v>1469.71370803558</v>
       </c>
       <c r="C193" t="n">
         <v>1388.402655610728</v>
@@ -4305,7 +4305,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>82292.50545042023</v>
+        <v>1450.867804850307</v>
       </c>
       <c r="C194" t="n">
         <v>1387.459509976355</v>
@@ -4325,7 +4325,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>81244.45524668235</v>
+        <v>1432.39003108285</v>
       </c>
       <c r="C195" t="n">
         <v>1386.524291102573</v>
@@ -4345,7 +4345,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>80216.73930996603</v>
+        <v>1414.270763028584</v>
       </c>
       <c r="C196" t="n">
         <v>1385.59686961358</v>
@@ -4365,7 +4365,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>79208.82960473002</v>
+        <v>1396.500691094098</v>
       </c>
       <c r="C197" t="n">
         <v>1384.677119318835</v>
@@ -4385,7 +4385,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>78220.21521655483</v>
+        <v>1379.070807541951</v>
       </c>
       <c r="C198" t="n">
         <v>1383.764917106716</v>
@@ -4405,7 +4405,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>77250.40168849085</v>
+        <v>1361.972394790087</v>
       </c>
       <c r="C199" t="n">
         <v>1382.860142842709</v>
@@ -4425,7 +4425,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>76298.9103872511</v>
+        <v>1345.197014237413</v>
       </c>
       <c r="C200" t="n">
         <v>1381.962679271895</v>
@@ -4445,7 +4445,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>75365.27789772462</v>
+        <v>1328.736495588696</v>
       </c>
       <c r="C201" t="n">
         <v>1381.072411925514</v>
@@ -4465,7 +4465,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>74449.055444375</v>
+        <v>1312.582926653469</v>
       </c>
       <c r="C202" t="n">
         <v>1380.189229031391</v>
@@ -4485,7 +4485,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>73549.80833817049</v>
+        <v>1296.728643595056</v>
       </c>
       <c r="C203" t="n">
         <v>1379.31302142808</v>
@@ -4505,7 +4505,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>72667.11544775794</v>
+        <v>1281.166221607049</v>
       </c>
       <c r="C204" t="n">
         <v>1378.443682482258</v>
@@ -4525,7 +4525,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>71800.56869369489</v>
+        <v>1265.888465996302</v>
       </c>
       <c r="C205" t="n">
         <v>1377.581108009899</v>
@@ -4545,7 +4545,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>70949.77256457118</v>
+        <v>1250.888403651857</v>
       </c>
       <c r="C206" t="n">
         <v>1376.725196200141</v>
@@ -4565,7 +4565,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>70114.3436539642</v>
+        <v>1236.159274881181</v>
       </c>
       <c r="C207" t="n">
         <v>1375.875847542371</v>
@@ -4585,7 +4585,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>69293.91021720083</v>
+        <v>1221.694525595599</v>
       </c>
       <c r="C208" t="n">
         <v>1375.032964756115</v>
@@ -4605,7 +4605,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>68488.11174696505</v>
+        <v>1207.487799828001</v>
       </c>
       <c r="C209" t="n">
         <v>1374.196452723645</v>
@@ -4625,7 +4625,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>67696.59856684176</v>
+        <v>1193.53293256676</v>
       </c>
       <c r="C210" t="n">
         <v>1373.366218425182</v>
@@ -4645,7 +4645,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>66919.03144193426</v>
+        <v>1179.823942890683</v>
       </c>
       <c r="C211" t="n">
         <v>1372.542170876565</v>
@@ -4665,7 +4665,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>66155.08120574091</v>
+        <v>1166.355027390613</v>
       </c>
       <c r="C212" t="n">
         <v>1371.724221069232</v>
@@ -4685,7 +4685,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>65404.42840252021</v>
+        <v>1153.120553864106</v>
       </c>
       <c r="C213" t="n">
         <v>1370.912281912499</v>
@@ -4705,7 +4705,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>64666.76294441307</v>
+        <v>1140.115055270281</v>
       </c>
       <c r="C214" t="n">
         <v>1370.106268177947</v>
@@ -4725,7 +4725,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>63941.78378262976</v>
+        <v>1127.333223932645</v>
       </c>
       <c r="C215" t="n">
         <v>1369.306096445863</v>
@@ -4745,7 +4745,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>63229.19859204648</v>
+        <v>1114.769905978335</v>
       </c>
       <c r="C216" t="n">
         <v>1368.511685053633</v>
@@ -4765,7 +4765,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>62528.72346858955</v>
+        <v>1102.420096002814</v>
       </c>
       <c r="C217" t="n">
         <v>1367.722954045995</v>
@@ -4785,7 +4785,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>61840.08263881645</v>
+        <v>1090.278931949605</v>
       </c>
       <c r="C218" t="n">
         <v>1366.939825127035</v>
@@ -4805,7 +4805,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>61163.00818114318</v>
+        <v>1078.341690195354</v>
       </c>
       <c r="C219" t="n">
         <v>1366.162221614165</v>
@@ -4825,7 +4825,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>60497.23975816242</v>
+        <v>1066.60378083044</v>
       </c>
       <c r="C220" t="n">
         <v>1365.390068393008</v>
@@ -4845,7 +4845,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>59842.52435959197</v>
+        <v>1055.06074312699</v>
       </c>
       <c r="C221" t="n">
         <v>1364.623291874864</v>
@@ -4865,7 +4865,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>59198.61605533078</v>
+        <v>1043.708241185107</v>
       </c>
       <c r="C222" t="n">
         <v>1363.861819954845</v>
@@ -4885,7 +4885,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>58565.27575819751</v>
+        <v>1032.542059749804</v>
       </c>
       <c r="C223" t="n">
         <v>1363.105581971817</v>
@@ -4905,7 +4905,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>57942.27099590994</v>
+        <v>1021.558100190862</v>
       </c>
       <c r="C224" t="n">
         <v>1362.354508669629</v>
@@ -4925,7 +4925,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>57329.37569189887</v>
+        <v>1010.752376638438</v>
       </c>
       <c r="C225" t="n">
         <v>1361.608532159711</v>
@@ -4945,7 +4945,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>56726.36995455905</v>
+        <v>1000.121012267432</v>
       </c>
       <c r="C226" t="n">
         <v>1360.867585884668</v>
@@ -4965,7 +4965,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>56133.03987458984</v>
+        <v>989.6602357244792</v>
       </c>
       <c r="C227" t="n">
         <v>1360.131604583717</v>
@@ -4985,7 +4985,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>55549.17733003777</v>
+        <v>979.3663776907248</v>
       </c>
       <c r="C228" t="n">
         <v>1359.400524258476</v>

--- a/motor_sim_data_prac_1.xlsx
+++ b/motor_sim_data_prac_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F228"/>
+  <dimension ref="A1:F203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,13 +465,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>538.0929126736569</v>
+        <v>545.7334155204277</v>
       </c>
       <c r="C2" t="n">
         <v>1599.948022576673</v>
       </c>
       <c r="D2" t="n">
-        <v>5684416.669473503</v>
+        <v>5785335.299042288</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -485,16 +485,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>546.2823226011177</v>
+        <v>554.0394680984062</v>
       </c>
       <c r="C3" t="n">
         <v>1599.946426044152</v>
       </c>
       <c r="D3" t="n">
-        <v>5684275.944534394</v>
+        <v>5785192.0757346</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000461050505050505</v>
+        <v>0.0005315151515151515</v>
       </c>
       <c r="F3" t="n">
         <v>0.0447210101010101</v>
@@ -505,16 +505,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>554.6601423401833</v>
+        <v>562.5366309168612</v>
       </c>
       <c r="C4" t="n">
         <v>1599.94476767804</v>
       </c>
       <c r="D4" t="n">
-        <v>5684129.772868645</v>
+        <v>5785043.309001487</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00092210101010101</v>
+        <v>0.001063030303030303</v>
       </c>
       <c r="F4" t="n">
         <v>0.04438202020202021</v>
@@ -525,16 +525,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>563.2321970776865</v>
+        <v>571.230813587517</v>
       </c>
       <c r="C5" t="n">
         <v>1599.943044578241</v>
       </c>
       <c r="D5" t="n">
-        <v>5683977.899269108</v>
+        <v>5784888.739104963</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001383151515151515</v>
+        <v>0.001594545454545455</v>
       </c>
       <c r="F5" t="n">
         <v>0.04404303030303031</v>
@@ -545,16 +545,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>572.0045389364124</v>
+        <v>580.1281560066255</v>
       </c>
       <c r="C6" t="n">
         <v>1599.941253684435</v>
       </c>
       <c r="D6" t="n">
-        <v>5683820.054449284</v>
+        <v>5784728.091977738</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00184420202020202</v>
+        <v>0.002126060606060606</v>
       </c>
       <c r="F6" t="n">
         <v>0.0437040404040404</v>
@@ -565,16 +565,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>580.983457670881</v>
+        <v>589.2350392128868</v>
       </c>
       <c r="C7" t="n">
         <v>1599.939391765857</v>
       </c>
       <c r="D7" t="n">
-        <v>5683655.954147227</v>
+        <v>5784561.078311205</v>
       </c>
       <c r="E7" t="n">
-        <v>0.002305252525252525</v>
+        <v>0.002657575757575758</v>
       </c>
       <c r="F7" t="n">
         <v>0.04336505050505051</v>
@@ -585,16 +585,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>590.1754919564405</v>
+        <v>598.5580968480239</v>
       </c>
       <c r="C8" t="n">
         <v>1599.937455410342</v>
       </c>
       <c r="D8" t="n">
-        <v>5683485.298164485</v>
+        <v>5784387.392577319</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00276630303030303</v>
+        <v>0.003189090909090909</v>
       </c>
       <c r="F8" t="n">
         <v>0.04302606060606061</v>
@@ -605,16 +605,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>599.5874413093362</v>
+        <v>608.1042272583034</v>
       </c>
       <c r="C9" t="n">
         <v>1599.935441012554</v>
       </c>
       <c r="D9" t="n">
-        <v>5683307.769334725</v>
+        <v>5784206.711978916</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003227353535353535</v>
+        <v>0.003720606060606061</v>
       </c>
       <c r="F9" t="n">
         <v>0.04268707070707071</v>
@@ -625,16 +625,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>609.2263786784232</v>
+        <v>617.8806062783499</v>
       </c>
       <c r="C10" t="n">
         <v>1599.933344761361</v>
       </c>
       <c r="D10" t="n">
-        <v>5683123.03241681</v>
+        <v>5784018.695323138</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00368840404040404</v>
+        <v>0.004252121212121212</v>
       </c>
       <c r="F10" t="n">
         <v>0.04234808080808081</v>
@@ -645,16 +645,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>619.0996637521383</v>
+        <v>627.8947007415934</v>
       </c>
       <c r="C11" t="n">
         <v>1599.931162626261</v>
       </c>
       <c r="D11" t="n">
-        <v>5682930.732905638</v>
+        <v>5783822.981811153</v>
       </c>
       <c r="E11" t="n">
-        <v>0.004149454545454545</v>
+        <v>0.004783636363636364</v>
       </c>
       <c r="F11" t="n">
         <v>0.04200909090909091</v>
@@ -665,16 +665,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>629.2149570275866</v>
+        <v>638.1542827649997</v>
       </c>
       <c r="C12" t="n">
         <v>1599.928890342797</v>
       </c>
       <c r="D12" t="n">
-        <v>5682730.495753942</v>
+        <v>5783619.18973727</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00461050505050505</v>
+        <v>0.005315151515151516</v>
       </c>
       <c r="F12" t="n">
         <v>0.04167010101010101</v>
@@ -685,16 +685,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>639.5802346920633</v>
+        <v>648.6674448592543</v>
       </c>
       <c r="C13" t="n">
         <v>1599.926523396858</v>
       </c>
       <c r="D13" t="n">
-        <v>5682521.923997739</v>
+        <v>5783406.915089983</v>
       </c>
       <c r="E13" t="n">
-        <v>0.005071555555555555</v>
+        <v>0.005846666666666667</v>
       </c>
       <c r="F13" t="n">
         <v>0.04133111111111111</v>
@@ -705,16 +705,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>650.2038043711171</v>
+        <v>659.4426159194226</v>
       </c>
       <c r="C14" t="n">
         <v>1599.924057007792</v>
       </c>
       <c r="D14" t="n">
-        <v>5682304.597277165</v>
+        <v>5783185.730046544</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00553260606060606</v>
+        <v>0.006378181818181818</v>
       </c>
       <c r="F14" t="n">
         <v>0.04099212121212122</v>
@@ -725,16 +725,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>661.094321801349</v>
+        <v>670.4885781552812</v>
       </c>
       <c r="C15" t="n">
         <v>1599.921486110212</v>
       </c>
       <c r="D15" t="n">
-        <v>5682078.070243648</v>
+        <v>5782955.181351859</v>
       </c>
       <c r="E15" t="n">
-        <v>0.005993656565656565</v>
+        <v>0.00690969696969697</v>
       </c>
       <c r="F15" t="n">
         <v>0.04065313131313131</v>
@@ -745,16 +745,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>672.2608084905647</v>
+        <v>681.814485025013</v>
       </c>
       <c r="C16" t="n">
         <v>1599.918805334388</v>
       </c>
       <c r="D16" t="n">
-        <v>5681841.870843858</v>
+        <v>5782714.78857197</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00645470707070707</v>
+        <v>0.007441212121212121</v>
       </c>
       <c r="F16" t="n">
         <v>0.04031414141414141</v>
@@ -765,16 +765,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>683.71267043275</v>
+        <v>693.429880240899</v>
       </c>
       <c r="C17" t="n">
         <v>1599.916008985102</v>
       </c>
       <c r="D17" t="n">
-        <v>5681595.498469385</v>
+        <v>5782464.042210888</v>
       </c>
       <c r="E17" t="n">
-        <v>0.006915757575757575</v>
+        <v>0.007972727272727274</v>
       </c>
       <c r="F17" t="n">
         <v>0.03997515151515152</v>
@@ -785,16 +785,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>695.4597179504111</v>
+        <v>705.3447179208213</v>
       </c>
       <c r="C18" t="n">
         <v>1599.913091018832</v>
       </c>
       <c r="D18" t="n">
-        <v>5681338.421960623</v>
+        <v>5782202.401679031</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00737680808080808</v>
+        <v>0.008504242424242425</v>
       </c>
       <c r="F18" t="n">
         <v>0.03963616161616162</v>
@@ -805,16 +805,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>707.5121867438763</v>
+        <v>717.5693839665563</v>
       </c>
       <c r="C19" t="n">
         <v>1599.910045019104</v>
       </c>
       <c r="D19" t="n">
-        <v>5681070.077451418</v>
+        <v>5781929.293099616</v>
       </c>
       <c r="E19" t="n">
-        <v>0.007837858585858585</v>
+        <v>0.009035757575757575</v>
       </c>
       <c r="F19" t="n">
         <v>0.03929717171717172</v>
@@ -825,16 +825,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>719.8807602269708</v>
+        <v>730.1147187496917</v>
       </c>
       <c r="C20" t="n">
         <v>1599.906864169877</v>
       </c>
       <c r="D20" t="n">
-        <v>5680789.866041806</v>
+        <v>5781644.106940069</v>
       </c>
       <c r="E20" t="n">
-        <v>0.008298909090909089</v>
+        <v>0.009567272727272728</v>
       </c>
       <c r="F20" t="n">
         <v>0.03895818181818182</v>
@@ -845,16 +845,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>732.5765932521258</v>
+        <v>742.9920412100236</v>
       </c>
       <c r="C21" t="n">
         <v>1599.903541226728</v>
       </c>
       <c r="D21" t="n">
-        <v>5680497.151279988</v>
+        <v>5781346.19544931</v>
       </c>
       <c r="E21" t="n">
-        <v>0.008759959595959595</v>
+        <v>0.01009878787878788</v>
       </c>
       <c r="F21" t="n">
         <v>0.03861919191919192</v>
@@ -865,16 +865,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>745.6113373076154</v>
+        <v>756.2131744506504</v>
       </c>
       <c r="C22" t="n">
         <v>1599.900068485703</v>
       </c>
       <c r="D22" t="n">
-        <v>5680191.256440392</v>
+        <v>5781034.869887479</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0092210101010101</v>
+        <v>0.01063030303030303</v>
       </c>
       <c r="F22" t="n">
         <v>0.03828020202020202</v>
@@ -885,16 +885,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>758.9971673060048</v>
+        <v>769.7904729509686</v>
       </c>
       <c r="C23" t="n">
         <v>1599.896437749566</v>
       </c>
       <c r="D23" t="n">
-        <v>5679871.461575774</v>
+        <v>5780709.397525705</v>
       </c>
       <c r="E23" t="n">
-        <v>0.009682060606060605</v>
+        <v>0.01116181818181818</v>
       </c>
       <c r="F23" t="n">
         <v>0.03794121212121213</v>
@@ -905,16 +905,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>772.7468100767595</v>
+        <v>783.7368515125623</v>
       </c>
       <c r="C24" t="n">
         <v>1599.892640291218</v>
       </c>
       <c r="D24" t="n">
-        <v>5679537.000323061</v>
+        <v>5780368.998395241</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01014311111111111</v>
+        <v>0.01169333333333333</v>
       </c>
       <c r="F24" t="n">
         <v>0.03760222222222222</v>
@@ -925,16 +925,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>786.8735746787895</v>
+        <v>798.0658160559268</v>
       </c>
       <c r="C25" t="n">
         <v>1599.888666814036</v>
       </c>
       <c r="D25" t="n">
-        <v>5679187.056442077</v>
+        <v>5780012.841764743</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01060416161616162</v>
+        <v>0.01222484848484849</v>
       </c>
       <c r="F25" t="n">
         <v>0.03726323232323232</v>
@@ -945,16 +945,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>801.3913846851947</v>
+        <v>812.791496423043</v>
       </c>
       <c r="C26" t="n">
         <v>1599.884507408802</v>
       </c>
       <c r="D26" t="n">
-        <v>5678820.760057134</v>
+        <v>5779640.042315135</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01106521212121212</v>
+        <v>0.01275636363636364</v>
       </c>
       <c r="F26" t="n">
         <v>0.03692424242424243</v>
@@ -965,16 +965,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>816.3148125702472</v>
+        <v>827.9286813183166</v>
       </c>
       <c r="C27" t="n">
         <v>1599.880151506928</v>
       </c>
       <c r="D27" t="n">
-        <v>5678437.183578124</v>
+        <v>5779249.655988283</v>
       </c>
       <c r="E27" t="n">
-        <v>0.01152626262626263</v>
+        <v>0.01328787878787879</v>
       </c>
       <c r="F27" t="n">
         <v>0.03658525252525253</v>
@@ -985,16 +985,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>831.6591163676395</v>
+        <v>843.492855560061</v>
       </c>
       <c r="C28" t="n">
         <v>1599.8755878296</v>
       </c>
       <c r="D28" t="n">
-        <v>5678035.337266585</v>
+        <v>5778840.675474341</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01198731313131313</v>
+        <v>0.01381939393939394</v>
       </c>
       <c r="F28" t="n">
         <v>0.03624626262626263</v>
@@ -1005,16 +1005,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>847.4402787691531</v>
+        <v>859.5002398149012</v>
       </c>
       <c r="C29" t="n">
         <v>1599.870804332433</v>
       </c>
       <c r="D29" t="n">
-        <v>5677614.164413529</v>
+        <v>5778412.025303978</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01244836363636364</v>
+        <v>0.01435090909090909</v>
       </c>
       <c r="F29" t="n">
         <v>0.03590727272727273</v>
@@ -1025,16 +1025,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>863.6750488553395</v>
+        <v>875.967833010347</v>
       </c>
       <c r="C30" t="n">
         <v>1599.865788145201</v>
       </c>
       <c r="D30" t="n">
-        <v>5677172.536089581</v>
+        <v>5777962.556505304</v>
       </c>
       <c r="E30" t="n">
-        <v>0.01290941414141414</v>
+        <v>0.01488242424242424</v>
       </c>
       <c r="F30" t="n">
         <v>0.03556828282828283</v>
@@ -1045,16 +1045,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>880.3809866531038</v>
+        <v>892.9134576242458</v>
       </c>
       <c r="C31" t="n">
         <v>1599.860525506155</v>
       </c>
       <c r="D31" t="n">
-        <v>5676709.245427152</v>
+        <v>5777491.040784533</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01337046464646465</v>
+        <v>0.01541393939393939</v>
       </c>
       <c r="F31" t="n">
         <v>0.03522929292929293</v>
@@ -1065,16 +1065,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>897.5765107569591</v>
+        <v>910.3558080924532</v>
       </c>
       <c r="C32" t="n">
         <v>1599.85500169034</v>
       </c>
       <c r="D32" t="n">
-        <v>5676223.001383208</v>
+        <v>5776996.164178023</v>
       </c>
       <c r="E32" t="n">
-        <v>0.01383151515151515</v>
+        <v>0.01594545454545455</v>
       </c>
       <c r="F32" t="n">
         <v>0.03489030303030304</v>
@@ -1085,16 +1085,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>915.2809492443886</v>
+        <v>928.3145025697711</v>
       </c>
       <c r="C33" t="n">
         <v>1599.849200931341</v>
       </c>
       <c r="D33" t="n">
-        <v>5675712.421933503</v>
+        <v>5776476.520125678</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01429256565656566</v>
+        <v>0.0164769696969697</v>
       </c>
       <c r="F33" t="n">
         <v>0.03455131313131313</v>
@@ -1105,16 +1105,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>933.5145941525179</v>
+        <v>946.8101383166992</v>
       </c>
       <c r="C34" t="n">
         <v>1599.843106335746</v>
       </c>
       <c r="D34" t="n">
-        <v>5675176.026638091</v>
+        <v>5775930.601904473</v>
       </c>
       <c r="E34" t="n">
-        <v>0.01475361616161616</v>
+        <v>0.01700848484848485</v>
       </c>
       <c r="F34" t="n">
         <v>0.03421232323232323</v>
@@ -1125,16 +1125,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>952.2987598072541</v>
+        <v>965.864351009034</v>
       </c>
       <c r="C35" t="n">
         <v>1599.836699789563</v>
       </c>
       <c r="D35" t="n">
-        <v>5674612.22851169</v>
+        <v>5775356.794354488</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01521466666666666</v>
+        <v>0.01754</v>
       </c>
       <c r="F35" t="n">
         <v>0.03387333333333333</v>
@@ -1145,16 +1145,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>971.6558453163946</v>
+        <v>985.4998782882366</v>
       </c>
       <c r="C36" t="n">
         <v>1599.829961855739</v>
       </c>
       <c r="D36" t="n">
-        <v>5674019.325127001</v>
+        <v>5774753.364824281</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01567571717171717</v>
+        <v>0.01807151515151515</v>
       </c>
       <c r="F36" t="n">
         <v>0.03353434343434343</v>
@@ -1165,16 +1165,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>991.6094015719214</v>
+        <v>1005.740627904946</v>
       </c>
       <c r="C37" t="n">
         <v>1599.822871661815</v>
       </c>
       <c r="D37" t="n">
-        <v>5673395.488867757</v>
+        <v>5774118.45325089</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01613676767676768</v>
+        <v>0.01860303030303031</v>
       </c>
       <c r="F37" t="n">
         <v>0.03319535353535354</v>
@@ -1185,16 +1185,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1012.184203137676</v>
+        <v>1026.611750839771</v>
       </c>
       <c r="C38" t="n">
         <v>1599.815406776655</v>
       </c>
       <c r="D38" t="n">
-        <v>5672738.756240742</v>
+        <v>5773450.061282105</v>
       </c>
       <c r="E38" t="n">
-        <v>0.01659781818181818</v>
+        <v>0.01913454545454546</v>
       </c>
       <c r="F38" t="n">
         <v>0.03285636363636363</v>
@@ -1205,16 +1205,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1033.40632543456</v>
+        <v>1048.139719822304</v>
       </c>
       <c r="C39" t="n">
         <v>1599.807543075027</v>
       </c>
       <c r="D39" t="n">
-        <v>5672047.016142989</v>
+        <v>5772746.040335367</v>
       </c>
       <c r="E39" t="n">
-        <v>0.01705886868686868</v>
+        <v>0.01966606060606061</v>
       </c>
       <c r="F39" t="n">
         <v>0.03251737373737373</v>
@@ -1225,16 +1225,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1055.303227676443</v>
+        <v>1070.352413711375</v>
       </c>
       <c r="C40" t="n">
         <v>1599.799254588675</v>
       </c>
       <c r="D40" t="n">
-        <v>5671317.996968562</v>
+        <v>5772004.07847565</v>
       </c>
       <c r="E40" t="n">
-        <v>0.01751991919191919</v>
+        <v>0.02019757575757576</v>
       </c>
       <c r="F40" t="n">
         <v>0.03217838383838384</v>
@@ -1245,16 +1245,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1077.903842045766</v>
+        <v>1093.279208236316</v>
       </c>
       <c r="C41" t="n">
         <v>1599.790513342392</v>
       </c>
       <c r="D41" t="n">
-        <v>5670549.252427209</v>
+        <v>5771221.685982341</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0179809696969697</v>
+        <v>0.02072909090909091</v>
       </c>
       <c r="F41" t="n">
         <v>0.03183939393939394</v>
@@ -1265,16 +1265,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1101.238669669553</v>
+        <v>1116.951073672423</v>
       </c>
       <c r="C42" t="n">
         <v>1599.781289173296</v>
       </c>
       <c r="D42" t="n">
-        <v>5669738.145923063</v>
+        <v>5770396.179450613</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0184420202020202</v>
+        <v>0.02126060606060606</v>
       </c>
       <c r="F42" t="n">
         <v>0.03150040404040404</v>
@@ -1285,16 +1285,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1125.339883971777</v>
+        <v>1141.400680039793</v>
       </c>
       <c r="C43" t="n">
         <v>1599.771549531453</v>
       </c>
       <c r="D43" t="n">
-        <v>5668881.833336134</v>
+        <v>5769524.664267221</v>
       </c>
       <c r="E43" t="n">
-        <v>0.01890307070707071</v>
+        <v>0.02179212121212121</v>
       </c>
       <c r="F43" t="n">
         <v>0.03116141414141414</v>
@@ -1305,16 +1305,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1150.24144208083</v>
+        <v>1166.662510519853</v>
       </c>
       <c r="C44" t="n">
         <v>1599.761259259577</v>
       </c>
       <c r="D44" t="n">
-        <v>5667977.244013502</v>
+        <v>5768604.015264225</v>
       </c>
       <c r="E44" t="n">
-        <v>0.01936412121212121</v>
+        <v>0.02232363636363636</v>
       </c>
       <c r="F44" t="n">
         <v>0.03082242424242424</v>
@@ -1325,16 +1325,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1175.979205007393</v>
+        <v>1192.772983821842</v>
       </c>
       <c r="C45" t="n">
         <v>1599.750380349342</v>
       </c>
       <c r="D45" t="n">
-        <v>5667021.059763486</v>
+        <v>5767630.855340232</v>
       </c>
       <c r="E45" t="n">
-        <v>0.01982517171717172</v>
+        <v>0.02285515151515152</v>
       </c>
       <c r="F45" t="n">
         <v>0.03048343434343434</v>
@@ -1345,16 +1345,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1202.591067396823</v>
+        <v>1219.770586322593</v>
       </c>
       <c r="C46" t="n">
         <v>1599.738871671476</v>
       </c>
       <c r="D46" t="n">
-        <v>5666009.691612578</v>
+        <v>5766601.531804681</v>
       </c>
       <c r="E46" t="n">
-        <v>0.02028622222222222</v>
+        <v>0.02338666666666667</v>
       </c>
       <c r="F46" t="n">
         <v>0.03014444444444445</v>
@@ -1365,16 +1365,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1230.117097739797</v>
+        <v>1247.696014885055</v>
       </c>
       <c r="C47" t="n">
         <v>1599.726688676416</v>
       </c>
       <c r="D47" t="n">
-        <v>5664939.254054968</v>
+        <v>5765512.0901702</v>
       </c>
       <c r="E47" t="n">
-        <v>0.02074727272727273</v>
+        <v>0.02391818181818182</v>
       </c>
       <c r="F47" t="n">
         <v>0.02980545454545454</v>
@@ -1385,16 +1385,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1258.599690018883</v>
+        <v>1276.592331357601</v>
       </c>
       <c r="C48" t="n">
         <v>1599.713783061855</v>
       </c>
       <c r="D48" t="n">
-        <v>5663805.536486749</v>
+        <v>5764358.245079676</v>
       </c>
       <c r="E48" t="n">
-        <v>0.02120832323232323</v>
+        <v>0.02444969696969697</v>
       </c>
       <c r="F48" t="n">
         <v>0.02946646464646465</v>
@@ -1405,16 +1405,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1288.083727873024</v>
+        <v>1306.505129863774</v>
       </c>
       <c r="C49" t="n">
         <v>1599.700102403019</v>
       </c>
       <c r="D49" t="n">
-        <v>5662603.97147436</v>
+        <v>5763135.348011346</v>
       </c>
       <c r="E49" t="n">
-        <v>0.02166937373737374</v>
+        <v>0.02498121212121212</v>
       </c>
       <c r="F49" t="n">
         <v>0.02912747474747475</v>
@@ -1425,16 +1425,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1318.616762479098</v>
+        <v>1337.482718112891</v>
       </c>
       <c r="C50" t="n">
         <v>1599.685589740876</v>
       </c>
       <c r="D50" t="n">
-        <v>5661329.599457772</v>
+        <v>5761838.351355336</v>
       </c>
       <c r="E50" t="n">
-        <v>0.02213042424242424</v>
+        <v>0.02551272727272727</v>
       </c>
       <c r="F50" t="n">
         <v>0.02878848484848485</v>
@@ -1445,16 +1445,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1350.24920548106</v>
+        <v>1369.576314097582</v>
       </c>
       <c r="C51" t="n">
         <v>1599.670183122819</v>
       </c>
       <c r="D51" t="n">
-        <v>5659977.02943187</v>
+        <v>5760461.768397</v>
       </c>
       <c r="E51" t="n">
-        <v>0.02259147474747475</v>
+        <v>0.02604424242424242</v>
       </c>
       <c r="F51" t="n">
         <v>0.02844949494949495</v>
@@ -1465,16 +1465,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1383.034538444918</v>
+        <v>1402.840259696928</v>
       </c>
       <c r="C52" t="n">
         <v>1599.653815089532</v>
       </c>
       <c r="D52" t="n">
-        <v>5658540.395082974</v>
+        <v>5758999.628674709</v>
       </c>
       <c r="E52" t="n">
-        <v>0.02305252525252525</v>
+        <v>0.02657575757575758</v>
       </c>
       <c r="F52" t="n">
         <v>0.02811050505050505</v>
@@ -1485,16 +1485,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1417.029540484633</v>
+        <v>1437.332252876467</v>
       </c>
       <c r="C53" t="n">
         <v>1599.636412100828</v>
       </c>
       <c r="D53" t="n">
-        <v>5657013.305780416</v>
+        <v>5757445.428101355</v>
       </c>
       <c r="E53" t="n">
-        <v>0.02351357575757575</v>
+        <v>0.02710727272727273</v>
       </c>
       <c r="F53" t="n">
         <v>0.02777151515151515</v>
@@ -1505,16 +1505,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1452.29453588716</v>
+        <v>1473.113600365981</v>
       </c>
       <c r="C54" t="n">
         <v>1599.617893892123</v>
       </c>
       <c r="D54" t="n">
-        <v>5655388.791735309</v>
+        <v>5755792.073149488</v>
       </c>
       <c r="E54" t="n">
-        <v>0.02397462626262626</v>
+        <v>0.02763878787878788</v>
       </c>
       <c r="F54" t="n">
         <v>0.02743252525252525</v>
@@ -1525,16 +1525,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1488.893663791512</v>
+        <v>1510.24949293064</v>
       </c>
       <c r="C55" t="n">
         <v>1599.598172751895</v>
       </c>
       <c r="D55" t="n">
-        <v>5653659.242527005</v>
+        <v>5754031.818286406</v>
       </c>
       <c r="E55" t="n">
-        <v>0.02443567676767677</v>
+        <v>0.02817030303030303</v>
       </c>
       <c r="F55" t="n">
         <v>0.02709353535353535</v>
@@ -1545,16 +1545,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1526.89517218719</v>
+        <v>1548.8093055701</v>
       </c>
       <c r="C56" t="n">
         <v>1599.577152709059</v>
       </c>
       <c r="D56" t="n">
-        <v>5651816.338087613</v>
+        <v>5752156.195733394</v>
       </c>
       <c r="E56" t="n">
-        <v>0.02489672727272727</v>
+        <v>0.02870181818181818</v>
       </c>
       <c r="F56" t="n">
         <v>0.02675454545454545</v>
@@ -1565,16 +1565,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1566.371738804291</v>
+        <v>1588.866925298365</v>
       </c>
       <c r="C57" t="n">
         <v>1599.554728617219</v>
       </c>
       <c r="D57" t="n">
-        <v>5649850.971074834</v>
+        <v>5750155.936460412</v>
       </c>
       <c r="E57" t="n">
-        <v>0.02535777777777777</v>
+        <v>0.02923333333333333</v>
       </c>
       <c r="F57" t="n">
         <v>0.02641555555555555</v>
@@ -1585,16 +1585,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1607.400821746581</v>
+        <v>1630.501109448181</v>
       </c>
       <c r="C58" t="n">
         <v>1599.530785120812</v>
       </c>
       <c r="D58" t="n">
-        <v>5647753.15940555</v>
+        <v>5748020.881166837</v>
       </c>
       <c r="E58" t="n">
-        <v>0.02581882828282828</v>
+        <v>0.02976484848484848</v>
       </c>
       <c r="F58" t="n">
         <v>0.02607656565656566</v>
@@ -1605,16 +1605,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1650.065043087252</v>
+        <v>1673.795877827296</v>
       </c>
       <c r="C59" t="n">
         <v>1599.505195485496</v>
       </c>
       <c r="D59" t="n">
-        <v>5645511.947514389</v>
+        <v>5745739.879787012</v>
       </c>
       <c r="E59" t="n">
-        <v>0.02627987878787879</v>
+        <v>0.03029636363636364</v>
       </c>
       <c r="F59" t="n">
         <v>0.02573757575757576</v>
@@ -1625,16 +1625,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1694.452609035084</v>
+        <v>1718.840942459259</v>
       </c>
       <c r="C60" t="n">
         <v>1599.477820272232</v>
       </c>
       <c r="D60" t="n">
-        <v>5643115.294666809</v>
+        <v>5743300.6778205</v>
       </c>
       <c r="E60" t="n">
-        <v>0.02674092929292929</v>
+        <v>0.03082787878787879</v>
       </c>
       <c r="F60" t="n">
         <v>0.02539858585858586</v>
@@ -1645,16 +1645,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1740.657770743462</v>
+        <v>1765.732179127122</v>
       </c>
       <c r="C61" t="n">
         <v>1599.44850583085</v>
       </c>
       <c r="D61" t="n">
-        <v>5640549.94836963</v>
+        <v>5740689.787495194</v>
       </c>
       <c r="E61" t="n">
-        <v>0.02720197979797979</v>
+        <v>0.03135939393939394</v>
       </c>
       <c r="F61" t="n">
         <v>0.02505959595959596</v>
@@ -1665,16 +1665,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1788.781330348043</v>
+        <v>1814.572145476624</v>
       </c>
       <c r="C62" t="n">
         <v>1599.417082584645</v>
       </c>
       <c r="D62" t="n">
-        <v>5637801.300586619</v>
+        <v>5737892.341430221</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0276630303030303</v>
+        <v>0.03189090909090909</v>
       </c>
       <c r="F62" t="n">
         <v>0.02472060606060606</v>
@@ -1685,16 +1685,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1838.931197425097</v>
+        <v>1865.470651071581</v>
       </c>
       <c r="C63" t="n">
         <v>1599.383363072317</v>
       </c>
       <c r="D63" t="n">
-        <v>5634853.224058153</v>
+        <v>5734891.926049694</v>
       </c>
       <c r="E63" t="n">
-        <v>0.02812408080808081</v>
+        <v>0.03242242424242425</v>
       </c>
       <c r="F63" t="n">
         <v>0.02438161616161616</v>
@@ -1705,16 +1705,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1891.223001741944</v>
+        <v>1918.545385509502</v>
       </c>
       <c r="C64" t="n">
         <v>1599.347139707366</v>
       </c>
       <c r="D64" t="n">
-        <v>5631687.885540563</v>
+        <v>5731670.391506391</v>
       </c>
       <c r="E64" t="n">
-        <v>0.02858513131313131</v>
+        <v>0.0329539393939394</v>
       </c>
       <c r="F64" t="n">
         <v>0.02404262626262626</v>
@@ -1725,16 +1725,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1945.780768969137</v>
+        <v>1973.922611547241</v>
       </c>
       <c r="C65" t="n">
         <v>1599.308182207413</v>
       </c>
       <c r="D65" t="n">
-        <v>5628285.532189888</v>
+        <v>5728207.634273062</v>
       </c>
       <c r="E65" t="n">
-        <v>0.02904618181818181</v>
+        <v>0.03348545454545455</v>
       </c>
       <c r="F65" t="n">
         <v>0.02370363636363636</v>
@@ -1745,16 +1745,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2002.7376669342</v>
+        <v>2031.737931149425</v>
       </c>
       <c r="C66" t="n">
         <v>1599.266234636703</v>
       </c>
       <c r="D66" t="n">
-        <v>5624624.246605663</v>
+        <v>5724481.347837368</v>
       </c>
       <c r="E66" t="n">
-        <v>0.02950723232323232</v>
+        <v>0.0340169696969697</v>
       </c>
       <c r="F66" t="n">
         <v>0.02336464646464646</v>
@@ -1765,16 +1765,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2062.236831059036</v>
+        <v>2092.137133499127</v>
       </c>
       <c r="C67" t="n">
         <v>1599.221011993698</v>
       </c>
       <c r="D67" t="n">
-        <v>5620679.665181527</v>
+        <v>5720466.736052213</v>
       </c>
       <c r="E67" t="n">
-        <v>0.02996828282828283</v>
+        <v>0.03454848484848485</v>
       </c>
       <c r="F67" t="n">
         <v>0.02302565656565657</v>
@@ -1785,16 +1785,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2124.432278845384</v>
+        <v>2155.27713531144</v>
       </c>
       <c r="C68" t="n">
         <v>1599.172196261754</v>
       </c>
       <c r="D68" t="n">
-        <v>5616424.65335604</v>
+        <v>5716136.182621106</v>
       </c>
       <c r="E68" t="n">
-        <v>0.03042933333333333</v>
+        <v>0.03508</v>
       </c>
       <c r="F68" t="n">
         <v>0.02268666666666666</v>
@@ -1805,16 +1805,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2189.489924725598</v>
+        <v>2221.327025341251</v>
       </c>
       <c r="C69" t="n">
         <v>1599.119431823538</v>
       </c>
       <c r="D69" t="n">
-        <v>5611828.930042487</v>
+        <v>5711458.868860256</v>
       </c>
       <c r="E69" t="n">
-        <v>0.03089038383838384</v>
+        <v>0.03561151515151515</v>
       </c>
       <c r="F69" t="n">
         <v>0.02234767676767677</v>
@@ -1825,16 +1825,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2257.588708233086</v>
+        <v>2290.469226733464</v>
       </c>
       <c r="C70" t="n">
         <v>1599.062320118612</v>
       </c>
       <c r="D70" t="n">
-        <v>5606858.631935013</v>
+        <v>5706400.330269596</v>
       </c>
       <c r="E70" t="n">
-        <v>0.03135143434343434</v>
+        <v>0.0361430303030303</v>
       </c>
       <c r="F70" t="n">
         <v>0.02200868686868687</v>
@@ -1845,16 +1845,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2328.921850453289</v>
+        <v>2362.900793021744</v>
       </c>
       <c r="C71" t="n">
         <v>1599.00041339652</v>
       </c>
       <c r="D71" t="n">
-        <v>5601475.806364875</v>
+        <v>5700921.940385415</v>
       </c>
       <c r="E71" t="n">
-        <v>0.03181248484848485</v>
+        <v>0.03667454545454545</v>
       </c>
       <c r="F71" t="n">
         <v>0.02166969696969697</v>
@@ -1865,16 +1865,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2403.698255992609</v>
+        <v>2438.83485604628</v>
       </c>
       <c r="C72" t="n">
         <v>1598.933207384151</v>
       </c>
       <c r="D72" t="n">
-        <v>5595637.818911927</v>
+        <v>5694980.307874856</v>
       </c>
       <c r="E72" t="n">
-        <v>0.03227353535353535</v>
+        <v>0.03720606060606061</v>
       </c>
       <c r="F72" t="n">
         <v>0.02133070707070707</v>
@@ -1885,16 +1885,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2482.14408044942</v>
+        <v>2518.502247046029</v>
       </c>
       <c r="C73" t="n">
         <v>1598.860132643281</v>
       </c>
       <c r="D73" t="n">
-        <v>5589296.658834751</v>
+        <v>5688526.569634946</v>
       </c>
       <c r="E73" t="n">
-        <v>0.03273458585858586</v>
+        <v>0.03773757575757576</v>
       </c>
       <c r="F73" t="n">
         <v>0.02099171717171717</v>
@@ -1905,16 +1905,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2564.504486606734</v>
+        <v>2602.153315718756</v>
       </c>
       <c r="C74" t="n">
         <v>1598.780544339597</v>
       </c>
       <c r="D74" t="n">
-        <v>5582398.121423336</v>
+        <v>5681505.558629128</v>
       </c>
       <c r="E74" t="n">
-        <v>0.03319563636363636</v>
+        <v>0.03826909090909091</v>
       </c>
       <c r="F74" t="n">
         <v>0.02065272727272727</v>
@@ -1925,16 +1925,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2651.045616431029</v>
+        <v>2690.059976294129</v>
       </c>
       <c r="C75" t="n">
         <v>1598.693710074316</v>
       </c>
       <c r="D75" t="n">
-        <v>5574880.841328056</v>
+        <v>5673854.820054393</v>
       </c>
       <c r="E75" t="n">
-        <v>0.03365668686868686</v>
+        <v>0.03880060606060606</v>
       </c>
       <c r="F75" t="n">
         <v>0.02031373737373737</v>
@@ -1945,16 +1945,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2742.056810594348</v>
+        <v>2782.518014797233</v>
       </c>
       <c r="C76" t="n">
         <v>1598.598795338445</v>
       </c>
       <c r="D76" t="n">
-        <v>5566675.144430358</v>
+        <v>5665503.442828576</v>
       </c>
       <c r="E76" t="n">
-        <v>0.03411773737373737</v>
+        <v>0.03933212121212121</v>
       </c>
       <c r="F76" t="n">
         <v>0.01997474747474747</v>
@@ -1965,16 +1965,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2837.853112823798</v>
+        <v>2879.849697916544</v>
       </c>
       <c r="C77" t="n">
         <v>1598.494846030715</v>
       </c>
       <c r="D77" t="n">
-        <v>5557701.677416052</v>
+        <v>5656370.664833703</v>
       </c>
       <c r="E77" t="n">
-        <v>0.03457878787878788</v>
+        <v>0.03986363636363636</v>
       </c>
       <c r="F77" t="n">
         <v>0.01963575757575757</v>
@@ -1985,16 +1985,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2938.778103161203</v>
+        <v>2982.406731522005</v>
       </c>
       <c r="C78" t="n">
         <v>1598.380767323023</v>
       </c>
       <c r="D78" t="n">
-        <v>5547869.763225142</v>
+        <v>5646364.199169199</v>
       </c>
       <c r="E78" t="n">
-        <v>0.03503983838383838</v>
+        <v>0.04039515151515152</v>
       </c>
       <c r="F78" t="n">
         <v>0.01929676767676768</v>
@@ -2005,16 +2005,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>3045.207112515179</v>
+        <v>3090.573626309158</v>
       </c>
       <c r="C79" t="n">
         <v>1598.255297947532</v>
       </c>
       <c r="D79" t="n">
-        <v>5537075.416037336</v>
+        <v>5635378.213896322</v>
       </c>
       <c r="E79" t="n">
-        <v>0.03550088888888889</v>
+        <v>0.04092666666666667</v>
       </c>
       <c r="F79" t="n">
         <v>0.01895777777777777</v>
@@ -2025,16 +2025,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3157.550881094365</v>
+        <v>3204.77153976613</v>
       </c>
       <c r="C80" t="n">
         <v>1598.116978696982</v>
       </c>
       <c r="D80" t="n">
-        <v>5525198.930102411</v>
+        <v>5623290.87806169</v>
       </c>
       <c r="E80" t="n">
-        <v>0.03596193939393939</v>
+        <v>0.04145818181818182</v>
       </c>
       <c r="F80" t="n">
         <v>0.01861878787878788</v>
@@ -2045,16 +2045,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>3276.259736054577</v>
+        <v>3325.462678457348</v>
       </c>
       <c r="C81" t="n">
         <v>1597.96411354365</v>
       </c>
       <c r="D81" t="n">
-        <v>5512101.930558328</v>
+        <v>5609961.36015692</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0364229898989899</v>
+        <v>0.04198969696969697</v>
       </c>
       <c r="F81" t="n">
         <v>0.01827979797979798</v>
@@ -2065,16 +2065,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>3401.828379686927</v>
+        <v>3453.155363428258</v>
       </c>
       <c r="C82" t="n">
         <v>1597.794721248863</v>
       </c>
       <c r="D82" t="n">
-        <v>5497623.738624417</v>
+        <v>5595226.128781047</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0368840404040404</v>
+        <v>0.04252121212121213</v>
       </c>
       <c r="F82" t="n">
         <v>0.01794080808080808</v>
@@ -2085,16 +2085,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>3534.801399879918</v>
+        <v>3588.409885859484</v>
       </c>
       <c r="C83" t="n">
         <v>1597.606474586041</v>
       </c>
       <c r="D83" t="n">
-        <v>5481576.853923735</v>
+        <v>5578894.354758029</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0373450909090909</v>
+        <v>0.04305272727272728</v>
       </c>
       <c r="F83" t="n">
         <v>0.01760181818181818</v>
@@ -2105,16 +2105,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>3675.779640964</v>
+        <v>3731.845312008017</v>
       </c>
       <c r="C84" t="n">
         <v>1597.396623232931</v>
       </c>
       <c r="D84" t="n">
-        <v>5463741.286749813</v>
+        <v>5560742.142781054</v>
       </c>
       <c r="E84" t="n">
-        <v>0.03780614141414141</v>
+        <v>0.04358424242424243</v>
       </c>
       <c r="F84" t="n">
         <v>0.01726282828282828</v>
@@ -2125,16 +2125,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>3825.42760772143</v>
+        <v>3884.14743909415</v>
       </c>
       <c r="C85" t="n">
         <v>1597.161894840555</v>
       </c>
       <c r="D85" t="n">
-        <v>5443857.372821124</v>
+        <v>5540505.218603324</v>
       </c>
       <c r="E85" t="n">
-        <v>0.03826719191919192</v>
+        <v>0.04411575757575758</v>
       </c>
       <c r="F85" t="n">
         <v>0.01692383838383838</v>
@@ -2145,16 +2145,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>3984.4821218761</v>
+        <v>4046.078161953558</v>
       </c>
       <c r="C86" t="n">
         <v>1596.898366496823</v>
       </c>
       <c r="D86" t="n">
-        <v>5421616.556470187</v>
+        <v>5517869.548595954</v>
       </c>
       <c r="E86" t="n">
-        <v>0.03872824242424242</v>
+        <v>0.04464727272727273</v>
       </c>
       <c r="F86" t="n">
         <v>0.01658484848484848</v>
@@ -2165,16 +2165,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4153.762514241917</v>
+        <v>4218.486591511447</v>
       </c>
       <c r="C87" t="n">
         <v>1596.601295342982</v>
       </c>
       <c r="D87" t="n">
-        <v>5396649.409278418</v>
+        <v>5492459.145670951</v>
       </c>
       <c r="E87" t="n">
-        <v>0.03918929292929293</v>
+        <v>0.04517878787878788</v>
       </c>
       <c r="F87" t="n">
         <v>0.01624585858585858</v>
@@ -2185,16 +2185,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4334.182725829669</v>
+        <v>4402.32238283564</v>
       </c>
       <c r="C88" t="n">
         <v>1596.264891744008</v>
       </c>
       <c r="D88" t="n">
-        <v>5368509.816092592</v>
+        <v>5463819.974543172</v>
       </c>
       <c r="E88" t="n">
-        <v>0.03965034343434343</v>
+        <v>0.04571030303030303</v>
       </c>
       <c r="F88" t="n">
         <v>0.01590686868686868</v>
@@ -2205,16 +2205,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4526.765822459222</v>
+        <v>4598.65190353391</v>
       </c>
       <c r="C89" t="n">
         <v>1595.882009888911</v>
       </c>
       <c r="D89" t="n">
-        <v>5336653.7332838</v>
+        <v>5431398.332872772</v>
       </c>
       <c r="E89" t="n">
-        <v>0.04011139393939393</v>
+        <v>0.04624181818181818</v>
       </c>
       <c r="F89" t="n">
         <v>0.01556787878787878</v>
@@ -2225,16 +2225,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4732.661625814246</v>
+        <v>4808.678139314712</v>
       </c>
       <c r="C90" t="n">
         <v>1595.443716698334</v>
       </c>
       <c r="D90" t="n">
-        <v>5300410.06850326</v>
+        <v>5394511.214033024</v>
       </c>
       <c r="E90" t="n">
-        <v>0.04057244444444444</v>
+        <v>0.04677333333333333</v>
       </c>
       <c r="F90" t="n">
         <v>0.01522888888888889</v>
@@ -2245,16 +2245,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4953.168476965731</v>
+        <v>5033.765660207282</v>
       </c>
       <c r="C91" t="n">
         <v>1594.938676087555</v>
       </c>
       <c r="D91" t="n">
-        <v>5258939.79109837</v>
+        <v>5352304.691590713</v>
       </c>
       <c r="E91" t="n">
-        <v>0.04103349494949494</v>
+        <v>0.04730484848484848</v>
       </c>
       <c r="F91" t="n">
         <v>0.01488989898989899</v>
@@ -2265,16 +2265,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>5189.760667867834</v>
+        <v>5275.472689164742</v>
       </c>
       <c r="C92" t="n">
         <v>1594.352243332719</v>
       </c>
       <c r="D92" t="n">
-        <v>5211176.854109691</v>
+        <v>5303693.792458272</v>
       </c>
       <c r="E92" t="n">
-        <v>0.04149454545454545</v>
+        <v>0.04783636363636364</v>
       </c>
       <c r="F92" t="n">
         <v>0.01455090909090909</v>
@@ -2285,16 +2285,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>5444.123989908881</v>
+        <v>5535.593593604401</v>
       </c>
       <c r="C93" t="n">
         <v>1593.665085392479</v>
       </c>
       <c r="D93" t="n">
-        <v>5155739.843887243</v>
+        <v>5247272.577976295</v>
       </c>
       <c r="E93" t="n">
-        <v>0.04195559595959596</v>
+        <v>0.04836787878787879</v>
       </c>
       <c r="F93" t="n">
         <v>0.01421191919191919</v>
@@ -2305,16 +2305,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>5718.203568554161</v>
+        <v>5816.217552414534</v>
       </c>
       <c r="C94" t="n">
         <v>1592.850986901537</v>
       </c>
       <c r="D94" t="n">
-        <v>5090794.137743935</v>
+        <v>5181173.85437465</v>
       </c>
       <c r="E94" t="n">
-        <v>0.04241664646464646</v>
+        <v>0.04889939393939394</v>
       </c>
       <c r="F94" t="n">
         <v>0.01387292929292929</v>
@@ -2325,16 +2325,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>6014.271664085169</v>
+        <v>6119.814154049006</v>
       </c>
       <c r="C95" t="n">
         <v>1591.873169319847</v>
       </c>
       <c r="D95" t="n">
-        <v>5013825.107343018</v>
+        <v>5102838.349712793</v>
       </c>
       <c r="E95" t="n">
-        <v>0.04287769696969697</v>
+        <v>0.04943090909090909</v>
       </c>
       <c r="F95" t="n">
         <v>0.01353393939393939</v>
@@ -2345,16 +2345,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>6335.031027291698</v>
+        <v>6449.3680148856</v>
       </c>
       <c r="C96" t="n">
         <v>1590.677676382725</v>
       </c>
       <c r="D96" t="n">
-        <v>4921238.495481314</v>
+        <v>5008607.995928424</v>
       </c>
       <c r="E96" t="n">
-        <v>0.04333874747474747</v>
+        <v>0.04996242424242425</v>
       </c>
       <c r="F96" t="n">
         <v>0.01319494949494949</v>
@@ -2365,16 +2365,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>6683.789578457004</v>
+        <v>6808.613535367024</v>
       </c>
       <c r="C97" t="n">
         <v>1589.180347161707</v>
       </c>
       <c r="D97" t="n">
-        <v>4807588.67266059</v>
+        <v>4892940.484215999</v>
       </c>
       <c r="E97" t="n">
-        <v>0.04379979797979797</v>
+        <v>0.0504939393939394</v>
       </c>
       <c r="F97" t="n">
         <v>0.01285595959595959</v>
@@ -2385,16 +2385,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>7064.80301475443</v>
+        <v>7202.508640466591</v>
       </c>
       <c r="C98" t="n">
         <v>1587.237626711098</v>
       </c>
       <c r="D98" t="n">
-        <v>4663882.55225408</v>
+        <v>4746683.068650224</v>
       </c>
       <c r="E98" t="n">
-        <v>0.04426084848484848</v>
+        <v>0.05102545454545455</v>
       </c>
       <c r="F98" t="n">
         <v>0.01251696969696969</v>
@@ -2405,16 +2405,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>7484.116123099915</v>
+        <v>7638.42455294928</v>
       </c>
       <c r="C99" t="n">
         <v>1584.566817399636</v>
       </c>
       <c r="D99" t="n">
-        <v>4473032.869757964</v>
+        <v>4552445.124960206</v>
       </c>
       <c r="E99" t="n">
-        <v>0.04472189898989899</v>
+        <v>0.0515569696969697</v>
       </c>
       <c r="F99" t="n">
         <v>0.01217797979797979</v>
@@ -2425,16 +2425,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>7952.610751391491</v>
+        <v>8130.519662377126</v>
       </c>
       <c r="C100" t="n">
         <v>1580.433447822298</v>
       </c>
       <c r="D100" t="n">
-        <v>4192369.357475933</v>
+        <v>4266798.836313175</v>
       </c>
       <c r="E100" t="n">
-        <v>0.04518294949494949</v>
+        <v>0.05208848484848485</v>
       </c>
       <c r="F100" t="n">
         <v>0.0118389898989899</v>
@@ -2445,16 +2445,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>8379.536236943122</v>
+        <v>8566.995954648828</v>
       </c>
       <c r="C101" t="n">
         <v>1580.433447822298</v>
       </c>
       <c r="D101" t="n">
-        <v>4192369.357475933</v>
+        <v>4266798.836313175</v>
       </c>
       <c r="E101" t="n">
-        <v>0.045644</v>
+        <v>0.05262</v>
       </c>
       <c r="F101" t="n">
         <v>0.0115</v>
@@ -2465,16 +2465,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>8545.326146864265</v>
+        <v>8785.56016349761</v>
       </c>
       <c r="C102" t="n">
         <v>1567.091087169442</v>
       </c>
       <c r="D102" t="n">
-        <v>3397125.337748252</v>
+        <v>3457436.40456361</v>
       </c>
       <c r="E102" t="n">
-        <v>0.045644</v>
+        <v>0.05262</v>
       </c>
       <c r="F102" t="n">
         <v>0.0115</v>
@@ -2485,16 +2485,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>8545.326146864265</v>
+        <v>8785.56016349761</v>
       </c>
       <c r="C103" t="n">
         <v>1567.091087169442</v>
       </c>
       <c r="D103" t="n">
-        <v>3397125.337748252</v>
+        <v>3457436.40456361</v>
       </c>
       <c r="E103" t="n">
-        <v>0.047644</v>
+        <v>0.05462</v>
       </c>
       <c r="F103" t="n">
         <v>0.0115</v>
@@ -2505,16 +2505,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>8545.326146864265</v>
+        <v>8785.56016349761</v>
       </c>
       <c r="C104" t="n">
         <v>1567.091087169442</v>
       </c>
       <c r="D104" t="n">
-        <v>3397125.337748252</v>
+        <v>3457436.40456361</v>
       </c>
       <c r="E104" t="n">
-        <v>0.047644</v>
+        <v>0.05462</v>
       </c>
       <c r="F104" t="n">
         <v>0.0115</v>
@@ -2525,19 +2525,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>8357.701713152866</v>
+        <v>8589.056842483684</v>
       </c>
       <c r="C105" t="n">
-        <v>1553.006991223763</v>
+        <v>1551.133592585169</v>
       </c>
       <c r="D105" t="n">
-        <v>2715423.994868213</v>
+        <v>2682099.865678591</v>
       </c>
       <c r="E105" t="n">
-        <v>0.04857204838709677</v>
+        <v>0.05580837373737374</v>
       </c>
       <c r="F105" t="n">
-        <v>0.01171370967741935</v>
+        <v>0.01176767676767677</v>
       </c>
     </row>
     <row r="106">
@@ -2545,19 +2545,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>8117.196150863224</v>
+        <v>8304.560825334285</v>
       </c>
       <c r="C106" t="n">
-        <v>1546.329938878152</v>
+        <v>1543.485401727465</v>
       </c>
       <c r="D106" t="n">
-        <v>2440129.751833874</v>
+        <v>2372558.382113792</v>
       </c>
       <c r="E106" t="n">
-        <v>0.04950009677419355</v>
+        <v>0.05699674747474748</v>
       </c>
       <c r="F106" t="n">
-        <v>0.01192741935483871</v>
+        <v>0.01203535353535353</v>
       </c>
     </row>
     <row r="107">
@@ -2565,19 +2565,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>7878.473191290912</v>
+        <v>8020.920552159489</v>
       </c>
       <c r="C107" t="n">
-        <v>1540.90697054605</v>
+        <v>1537.257563851128</v>
       </c>
       <c r="D107" t="n">
-        <v>2236453.749355446</v>
+        <v>2146120.835170848</v>
       </c>
       <c r="E107" t="n">
-        <v>0.05042814516129032</v>
+        <v>0.05818512121212122</v>
       </c>
       <c r="F107" t="n">
-        <v>0.01214112903225806</v>
+        <v>0.0123030303030303</v>
       </c>
     </row>
     <row r="108">
@@ -2585,19 +2585,19 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>7646.256501336714</v>
+        <v>7745.787497598107</v>
       </c>
       <c r="C108" t="n">
-        <v>1536.150890350409</v>
+        <v>1531.79126183815</v>
       </c>
       <c r="D108" t="n">
-        <v>2071343.244253843</v>
+        <v>1964592.925011859</v>
       </c>
       <c r="E108" t="n">
-        <v>0.05135619354838709</v>
+        <v>0.05937349494949495</v>
       </c>
       <c r="F108" t="n">
-        <v>0.01235483870967742</v>
+        <v>0.01257070707070707</v>
       </c>
     </row>
     <row r="109">
@@ -2605,19 +2605,19 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>7421.979763006201</v>
+        <v>7481.444586474584</v>
       </c>
       <c r="C109" t="n">
-        <v>1531.833094675875</v>
+        <v>1526.829341203082</v>
       </c>
       <c r="D109" t="n">
-        <v>1931631.123822319</v>
+        <v>1812648.980080531</v>
       </c>
       <c r="E109" t="n">
-        <v>0.05228424193548387</v>
+        <v>0.06056186868686869</v>
       </c>
       <c r="F109" t="n">
-        <v>0.01256854838709677</v>
+        <v>0.01283838383838384</v>
       </c>
     </row>
     <row r="110">
@@ -2625,19 +2625,19 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>7206.07683741522</v>
+        <v>7228.552669614392</v>
       </c>
       <c r="C110" t="n">
-        <v>1527.835588462484</v>
+        <v>1522.238630644404</v>
       </c>
       <c r="D110" t="n">
-        <v>1810379.821404027</v>
+        <v>1682166.011171167</v>
       </c>
       <c r="E110" t="n">
-        <v>0.05321229032258065</v>
+        <v>0.06175024242424243</v>
       </c>
       <c r="F110" t="n">
-        <v>0.01278225806451613</v>
+        <v>0.01310606060606061</v>
       </c>
     </row>
     <row r="111">
@@ -2645,19 +2645,19 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>6998.573520289004</v>
+        <v>6987.119702268403</v>
       </c>
       <c r="C111" t="n">
-        <v>1524.087734055307</v>
+        <v>1517.939095845912</v>
       </c>
       <c r="D111" t="n">
-        <v>1703360.293405056</v>
+        <v>1568169.580692264</v>
       </c>
       <c r="E111" t="n">
-        <v>0.05414033870967742</v>
+        <v>0.06293861616161617</v>
       </c>
       <c r="F111" t="n">
-        <v>0.01299596774193548</v>
+        <v>0.01337373737373737</v>
       </c>
     </row>
     <row r="112">
@@ -2665,19 +2665,19 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>6799.305230214113</v>
+        <v>6756.856415695002</v>
       </c>
       <c r="C112" t="n">
-        <v>1520.543093094203</v>
+        <v>1513.877891154645</v>
       </c>
       <c r="D112" t="n">
-        <v>1607749.041055768</v>
+        <v>1467327.777631404</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0550683870967742</v>
+        <v>0.06412698989898991</v>
       </c>
       <c r="F112" t="n">
-        <v>0.01320967741935484</v>
+        <v>0.01364141414141414</v>
       </c>
     </row>
     <row r="113">
@@ -2685,19 +2685,19 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>6608.013681736081</v>
+        <v>6537.33319952214</v>
       </c>
       <c r="C113" t="n">
-        <v>1517.169082482122</v>
+        <v>1510.017763779192</v>
       </c>
       <c r="D113" t="n">
-        <v>1521539.731859706</v>
+        <v>1377268.397443112</v>
       </c>
       <c r="E113" t="n">
-        <v>0.05599643548387097</v>
+        <v>0.06531536363636364</v>
       </c>
       <c r="F113" t="n">
-        <v>0.01342338709677419</v>
+        <v>0.01390909090909091</v>
       </c>
     </row>
     <row r="114">
@@ -2705,19 +2705,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>6424.395102514579</v>
+        <v>6328.057408065374</v>
       </c>
       <c r="C114" t="n">
-        <v>1513.941714088878</v>
+        <v>1506.331153337415</v>
       </c>
       <c r="D114" t="n">
-        <v>1443240.618202886</v>
+        <v>1296226.318946523</v>
       </c>
       <c r="E114" t="n">
-        <v>0.05692448387096774</v>
+        <v>0.06650373737373738</v>
       </c>
       <c r="F114" t="n">
-        <v>0.01363709677419355</v>
+        <v>0.01417676767676768</v>
       </c>
     </row>
     <row r="115">
@@ -2725,19 +2725,19 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>6248.126159289364</v>
+        <v>6128.514156853419</v>
       </c>
       <c r="C115" t="n">
-        <v>1510.842660693703</v>
+        <v>1502.796898204298</v>
       </c>
       <c r="D115" t="n">
-        <v>1371703.815594865</v>
+        <v>1222843.700835099</v>
       </c>
       <c r="E115" t="n">
-        <v>0.05785253225806451</v>
+        <v>0.06769211111111112</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0138508064516129</v>
+        <v>0.01444444444444444</v>
       </c>
     </row>
     <row r="116">
@@ -2745,19 +2745,19 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>6078.878579552059</v>
+        <v>5938.188708369626</v>
       </c>
       <c r="C116" t="n">
-        <v>1507.857501439554</v>
+        <v>1499.398264061656</v>
       </c>
       <c r="D116" t="n">
-        <v>1306022.01029165</v>
+        <v>1156048.583482025</v>
       </c>
       <c r="E116" t="n">
-        <v>0.05878058064516129</v>
+        <v>0.06888048484848486</v>
       </c>
       <c r="F116" t="n">
-        <v>0.01406451612903226</v>
+        <v>0.01471212121212121</v>
       </c>
     </row>
     <row r="117">
@@ -2765,19 +2765,19 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>5916.327617160712</v>
+        <v>5756.578923503129</v>
       </c>
       <c r="C117" t="n">
-        <v>1504.974613814267</v>
+        <v>1496.121697478616</v>
       </c>
       <c r="D117" t="n">
-        <v>1245462.45217559</v>
+        <v>1094976.994384023</v>
       </c>
       <c r="E117" t="n">
-        <v>0.05970862903225806</v>
+        <v>0.07006885858585858</v>
       </c>
       <c r="F117" t="n">
-        <v>0.01427822580645161</v>
+        <v>0.01497979797979798</v>
       </c>
     </row>
     <row r="118">
@@ -2785,19 +2785,19 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>5760.156982626045</v>
+        <v>5583.202084130339</v>
       </c>
       <c r="C118" t="n">
-        <v>1502.184442455871</v>
+        <v>1492.956002278761</v>
       </c>
       <c r="D118" t="n">
-        <v>1189422.875934087</v>
+        <v>1038920.729739886</v>
       </c>
       <c r="E118" t="n">
-        <v>0.06063667741935484</v>
+        <v>0.07125723232323232</v>
       </c>
       <c r="F118" t="n">
-        <v>0.01449193548387097</v>
+        <v>0.01524747474747475</v>
       </c>
     </row>
     <row r="119">
@@ -2805,19 +2805,19 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>5610.061661091692</v>
+        <v>5417.598414571586</v>
       </c>
       <c r="C119" t="n">
-        <v>1499.47899879525</v>
+        <v>1489.891775053329</v>
       </c>
       <c r="D119" t="n">
-        <v>1137400.980080979</v>
+        <v>987291.0681287053</v>
       </c>
       <c r="E119" t="n">
-        <v>0.06156472580645161</v>
+        <v>0.07244560606060606</v>
       </c>
       <c r="F119" t="n">
-        <v>0.01470564516129032</v>
+        <v>0.01551515151515151</v>
       </c>
     </row>
     <row r="120">
@@ -2825,19 +2825,19 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>5465.749431329475</v>
+        <v>5259.332623343872</v>
       </c>
       <c r="C120" t="n">
-        <v>1496.851508058806</v>
+        <v>1486.921006222635</v>
       </c>
       <c r="D120" t="n">
-        <v>1088972.643146948</v>
+        <v>939592.7882664189</v>
       </c>
       <c r="E120" t="n">
-        <v>0.06249277419354839</v>
+        <v>0.0736339797979798</v>
       </c>
       <c r="F120" t="n">
-        <v>0.01491935483870968</v>
+        <v>0.01578282828282828</v>
       </c>
     </row>
     <row r="121">
@@ -2845,19 +2845,19 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>5326.941570138941</v>
+        <v>5107.994244636398</v>
       </c>
       <c r="C121" t="n">
-        <v>1494.29615366903</v>
+        <v>1484.036790606243</v>
       </c>
       <c r="D121" t="n">
-        <v>1043775.97052549</v>
+        <v>895405.0873225002</v>
       </c>
       <c r="E121" t="n">
-        <v>0.06342082258064516</v>
+        <v>0.07482235353535353</v>
       </c>
       <c r="F121" t="n">
-        <v>0.01513306451612903</v>
+        <v>0.01605050505050505</v>
       </c>
     </row>
     <row r="122">
@@ -2865,19 +2865,19 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>5193.373040378161</v>
+        <v>4963.197253159442</v>
       </c>
       <c r="C122" t="n">
-        <v>1491.807887963311</v>
+        <v>1481.233112629373</v>
       </c>
       <c r="D122" t="n">
-        <v>1001499.350228892</v>
+        <v>854367.2599833857</v>
       </c>
       <c r="E122" t="n">
-        <v>0.06434887096774194</v>
+        <v>0.07601072727272727</v>
       </c>
       <c r="F122" t="n">
-        <v>0.01534677419354839</v>
+        <v>0.01631818181818182</v>
       </c>
     </row>
     <row r="123">
@@ -2885,19 +2885,19 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5064.792351198843</v>
+        <v>4824.579246804993</v>
       </c>
       <c r="C123" t="n">
-        <v>1489.382289246392</v>
+        <v>1478.504683730566</v>
       </c>
       <c r="D123" t="n">
-        <v>961872.3370534808</v>
+        <v>816167.7472932088</v>
       </c>
       <c r="E123" t="n">
-        <v>0.0652769193548387</v>
+        <v>0.07719910101010101</v>
       </c>
       <c r="F123" t="n">
-        <v>0.01556048387096774</v>
+        <v>0.01658585858585859</v>
       </c>
     </row>
     <row r="124">
@@ -2905,19 +2905,19 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4940.961212263508</v>
+        <v>4691.800383150574</v>
       </c>
       <c r="C124" t="n">
-        <v>1487.01545195176</v>
+        <v>1475.846817117063</v>
       </c>
       <c r="D124" t="n">
-        <v>924658.5777478931</v>
+        <v>780535.6245777442</v>
       </c>
       <c r="E124" t="n">
-        <v>0.06620496774193549</v>
+        <v>0.07838747474747475</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0157741935483871</v>
+        <v>0.01685353535353535</v>
       </c>
     </row>
     <row r="125">
@@ -2925,19 +2925,19 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4821.654061864351</v>
+        <v>4564.542188540108</v>
       </c>
       <c r="C125" t="n">
-        <v>1484.703900936704</v>
+        <v>1473.255329780136</v>
       </c>
       <c r="D125" t="n">
-        <v>889650.2384838514</v>
+        <v>747233.8897269344</v>
       </c>
       <c r="E125" t="n">
-        <v>0.06713301612903226</v>
+        <v>0.07957584848484849</v>
       </c>
       <c r="F125" t="n">
-        <v>0.01598790322580645</v>
+        <v>0.01712121212121212</v>
       </c>
     </row>
     <row r="126">
@@ -2945,19 +2945,19 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4706.657521996382</v>
+        <v>4442.506315793104</v>
       </c>
       <c r="C126" t="n">
-        <v>1482.444523683196</v>
+        <v>1470.726464767132</v>
       </c>
       <c r="D126" t="n">
-        <v>856663.5577393303</v>
+        <v>716054.1036180798</v>
       </c>
       <c r="E126" t="n">
-        <v>0.06806106451612903</v>
+        <v>0.08076422222222222</v>
       </c>
       <c r="F126" t="n">
-        <v>0.0162016129032258</v>
+        <v>0.01738888888888889</v>
       </c>
     </row>
     <row r="127">
@@ -2965,19 +2965,19 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4595.769815841246</v>
+        <v>4325.413299067774</v>
       </c>
       <c r="C127" t="n">
-        <v>1480.234515995893</v>
+        <v>1468.256828746424</v>
       </c>
       <c r="D127" t="n">
-        <v>825535.2555865163</v>
+        <v>686812.0617826391</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0689891129032258</v>
+        <v>0.08195259595959596</v>
       </c>
       <c r="F127" t="n">
-        <v>0.01641532258064516</v>
+        <v>0.01765656565656566</v>
       </c>
     </row>
     <row r="128">
@@ -2985,19 +2985,19 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4488.800171398634</v>
+        <v>4213.001336404646</v>
       </c>
       <c r="C128" t="n">
-        <v>1478.071338020577</v>
+        <v>1465.843341287627</v>
       </c>
       <c r="D128" t="n">
-        <v>796119.6039206845</v>
+        <v>659344.2635145701</v>
       </c>
       <c r="E128" t="n">
-        <v>0.06991716129032258</v>
+        <v>0.0831409696969697</v>
       </c>
       <c r="F128" t="n">
-        <v>0.01662903225806452</v>
+        <v>0.01792424242424242</v>
       </c>
     </row>
     <row r="129">
@@ -3005,19 +3005,19 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4385.56822708807</v>
+        <v>4105.025118607426</v>
       </c>
       <c r="C129" t="n">
-        <v>1475.952678256884</v>
+        <v>1463.483193233341</v>
       </c>
       <c r="D129" t="n">
-        <v>768286.013294759</v>
+        <v>633505.0052899987</v>
       </c>
       <c r="E129" t="n">
-        <v>0.07084520967741936</v>
+        <v>0.08432934343434344</v>
       </c>
       <c r="F129" t="n">
-        <v>0.01684274193548387</v>
+        <v>0.01819191919191919</v>
       </c>
     </row>
     <row r="130">
@@ -3025,19 +3025,19 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4285.90344974118</v>
+        <v>4001.254715239437</v>
       </c>
       <c r="C130" t="n">
-        <v>1473.876423837202</v>
+        <v>1461.173812211498</v>
       </c>
       <c r="D130" t="n">
-        <v>741917.0282166417</v>
+        <v>609163.9684573254</v>
       </c>
       <c r="E130" t="n">
-        <v>0.07177325806451613</v>
+        <v>0.08551771717171718</v>
       </c>
       <c r="F130" t="n">
-        <v>0.01705645161290322</v>
+        <v>0.01845959595959596</v>
       </c>
     </row>
     <row r="131">
@@ -3045,19 +3045,19 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4189.644571685099</v>
+        <v>3901.474523281619</v>
       </c>
       <c r="C131" t="n">
-        <v>1471.840635769427</v>
+        <v>1458.912833816561</v>
       </c>
       <c r="D131" t="n">
-        <v>716906.6487839599</v>
+        <v>586204.2022180646</v>
       </c>
       <c r="E131" t="n">
-        <v>0.07270130645161291</v>
+        <v>0.0867060909090909</v>
       </c>
       <c r="F131" t="n">
-        <v>0.01727016129032258</v>
+        <v>0.01872727272727272</v>
       </c>
     </row>
     <row r="132">
@@ -3065,19 +3065,19 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4096.639051045823</v>
+        <v>3805.48228053097</v>
       </c>
       <c r="C132" t="n">
-        <v>1469.843528153303</v>
+        <v>1456.698077338486</v>
       </c>
       <c r="D132" t="n">
-        <v>693158.9155705663</v>
+        <v>564520.4256896954</v>
       </c>
       <c r="E132" t="n">
-        <v>0.07362935483870968</v>
+        <v>0.08789446464646464</v>
       </c>
       <c r="F132" t="n">
-        <v>0.01748387096774193</v>
+        <v>0.0189949494949495</v>
       </c>
     </row>
     <row r="133">
@@ -3085,19 +3085,19 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4006.742557613637</v>
+        <v>3713.088143552059</v>
       </c>
       <c r="C133" t="n">
-        <v>1467.883450604228</v>
+        <v>1454.527525171326</v>
       </c>
       <c r="D133" t="n">
-        <v>670586.7087033897</v>
+        <v>544017.5896851295</v>
       </c>
       <c r="E133" t="n">
-        <v>0.07455740322580645</v>
+        <v>0.08908283838383838</v>
       </c>
       <c r="F133" t="n">
-        <v>0.01769758064516129</v>
+        <v>0.01926262626262626</v>
       </c>
     </row>
     <row r="134">
@@ -3105,19 +3105,19 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>3919.818485377793</v>
+        <v>3624.113828531583</v>
       </c>
       <c r="C134" t="n">
-        <v>1465.958873290048</v>
+        <v>1452.399305227149</v>
       </c>
       <c r="D134" t="n">
-        <v>649110.7226405384</v>
+        <v>524609.6515525023</v>
       </c>
       <c r="E134" t="n">
-        <v>0.07548545161290324</v>
+        <v>0.09027121212121211</v>
       </c>
       <c r="F134" t="n">
-        <v>0.01791129032258065</v>
+        <v>0.01953030303030303</v>
       </c>
     </row>
     <row r="135">
@@ -3125,19 +3125,19 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>3835.737491984939</v>
+        <v>3538.391812483285</v>
       </c>
       <c r="C135" t="n">
-        <v>1464.068374112465</v>
+        <v>1450.31167582188</v>
       </c>
       <c r="D135" t="n">
-        <v>628658.5861355298</v>
+        <v>506218.5260235743</v>
       </c>
       <c r="E135" t="n">
-        <v>0.0764135</v>
+        <v>0.09145958585858585</v>
       </c>
       <c r="F135" t="n">
-        <v>0.018125</v>
+        <v>0.0197979797979798</v>
       </c>
     </row>
     <row r="136">
@@ -3145,19 +3145,19 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>3754.377064795469</v>
+        <v>3455.764591719668</v>
       </c>
       <c r="C136" t="n">
-        <v>1462.210627661815</v>
+        <v>1448.263012611175</v>
       </c>
       <c r="D136" t="n">
-        <v>609164.102997352</v>
+        <v>488773.1824346</v>
       </c>
       <c r="E136" t="n">
-        <v>0.07734154838709678</v>
+        <v>0.09264795959595959</v>
       </c>
       <c r="F136" t="n">
-        <v>0.01833870967741935</v>
+        <v>0.02006565656565656</v>
       </c>
     </row>
     <row r="137">
@@ -3165,19 +3165,19 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>3675.62111282352</v>
+        <v>3376.083994236848</v>
       </c>
       <c r="C137" t="n">
-        <v>1460.384395647929</v>
+        <v>1446.251797236953</v>
       </c>
       <c r="D137" t="n">
-        <v>590566.5939868191</v>
+        <v>472208.8644005184</v>
       </c>
       <c r="E137" t="n">
-        <v>0.07826959677419355</v>
+        <v>0.09383633333333333</v>
       </c>
       <c r="F137" t="n">
-        <v>0.01855241935483871</v>
+        <v>0.02033333333333333</v>
       </c>
     </row>
     <row r="138">
@@ -3185,19 +3185,19 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>3599.35958359552</v>
+        <v>3299.210542559744</v>
       </c>
       <c r="C138" t="n">
-        <v>1458.588518568143</v>
+        <v>1444.27660741115</v>
       </c>
       <c r="D138" t="n">
-        <v>572810.3238942259</v>
+        <v>456466.4125141735</v>
       </c>
       <c r="E138" t="n">
-        <v>0.07919764516129033</v>
+        <v>0.09502470707070707</v>
       </c>
       <c r="F138" t="n">
-        <v>0.01876612903225806</v>
+        <v>0.0206010101010101</v>
       </c>
     </row>
     <row r="139">
@@ -3205,19 +3205,19 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>3525.488103807561</v>
+        <v>3225.012863612282</v>
       </c>
       <c r="C139" t="n">
-        <v>1456.821908417602</v>
+        <v>1442.336108214089</v>
       </c>
       <c r="D139" t="n">
-        <v>555844.0007444154</v>
+        <v>441491.6741765615</v>
       </c>
       <c r="E139" t="n">
-        <v>0.0801256935483871</v>
+        <v>0.0962130808080808</v>
       </c>
       <c r="F139" t="n">
-        <v>0.01897983870967742</v>
+        <v>0.02086868686868687</v>
       </c>
     </row>
     <row r="140">
@@ -3225,19 +3225,19 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>3453.907642577302</v>
+        <v>3153.367142269858</v>
       </c>
       <c r="C140" t="n">
-        <v>1455.083542283136</v>
+        <v>1440.429044425165</v>
       </c>
       <c r="D140" t="n">
-        <v>539620.3363925446</v>
+        <v>427234.9874754098</v>
       </c>
       <c r="E140" t="n">
-        <v>0.08105374193548387</v>
+        <v>0.09740145454545454</v>
       </c>
       <c r="F140" t="n">
-        <v>0.01919354838709677</v>
+        <v>0.02113636363636363</v>
       </c>
     </row>
     <row r="141">
@@ -3245,19 +3245,19 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>3384.52419605038</v>
+        <v>3084.156615391263</v>
       </c>
       <c r="C141" t="n">
-        <v>1453.372456690528</v>
+        <v>1438.55423373556</v>
       </c>
       <c r="D141" t="n">
-        <v>524095.659624341</v>
+        <v>413650.728280196</v>
       </c>
       <c r="E141" t="n">
-        <v>0.08198179032258066</v>
+        <v>0.09858982828282828</v>
       </c>
       <c r="F141" t="n">
-        <v>0.01940725806451613</v>
+        <v>0.0214040404040404</v>
       </c>
     </row>
     <row r="142">
@@ -3265,19 +3265,19 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>3317.24849211789</v>
+        <v>3017.271103295234</v>
       </c>
       <c r="C142" t="n">
-        <v>1451.687742595542</v>
+        <v>1436.710560718347</v>
       </c>
       <c r="D142" t="n">
-        <v>509229.5743441592</v>
+        <v>400696.9115362236</v>
       </c>
       <c r="E142" t="n">
-        <v>0.08290983870967741</v>
+        <v>0.09977820202020202</v>
       </c>
       <c r="F142" t="n">
-        <v>0.01962096774193548</v>
+        <v>0.02167171717171717</v>
       </c>
     </row>
     <row r="143">
@@ -3285,19 +3285,19 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>3251.995714025546</v>
+        <v>2952.606575829059</v>
       </c>
       <c r="C143" t="n">
-        <v>1450.028540930707</v>
+        <v>1434.896971452014</v>
       </c>
       <c r="D143" t="n">
-        <v>494984.6566719972</v>
+        <v>388334.8392122441</v>
       </c>
       <c r="E143" t="n">
-        <v>0.0838378870967742</v>
+        <v>0.1009665757575758</v>
       </c>
       <c r="F143" t="n">
-        <v>0.01983467741935484</v>
+        <v>0.02193939393939394</v>
       </c>
     </row>
     <row r="144">
@@ -3305,19 +3305,19 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>3188.685241690018</v>
+        <v>2890.064750364391</v>
       </c>
       <c r="C144" t="n">
-        <v>1448.394038630778</v>
+        <v>1433.112468710221</v>
       </c>
       <c r="D144" t="n">
-        <v>481326.1857195214</v>
+        <v>376528.7885575559</v>
       </c>
       <c r="E144" t="n">
-        <v>0.08476593548387097</v>
+        <v>0.1021549494949495</v>
       </c>
       <c r="F144" t="n">
-        <v>0.02004838709677419</v>
+        <v>0.02220707070707071</v>
       </c>
     </row>
     <row r="145">
@@ -3325,19 +3325,19 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>3127.240409587506</v>
+        <v>2829.552719242005</v>
       </c>
       <c r="C145" t="n">
-        <v>1446.783465074441</v>
+        <v>1431.356107644284</v>
       </c>
       <c r="D145" t="n">
-        <v>468221.9036458874</v>
+        <v>365245.7353103633</v>
       </c>
       <c r="E145" t="n">
-        <v>0.08569398387096774</v>
+        <v>0.1033433232323232</v>
       </c>
       <c r="F145" t="n">
-        <v>0.02026209677419355</v>
+        <v>0.02247474747474747</v>
       </c>
     </row>
     <row r="146">
@@ -3345,19 +3345,19 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>3067.588280132771</v>
+        <v>2770.982604368839</v>
       </c>
       <c r="C146" t="n">
-        <v>1445.196088888432</v>
+        <v>1429.626991896139</v>
       </c>
       <c r="D146" t="n">
-        <v>455641.8012487175</v>
+        <v>354455.107312622</v>
       </c>
       <c r="E146" t="n">
-        <v>0.08662203225806453</v>
+        <v>0.104531696969697</v>
       </c>
       <c r="F146" t="n">
-        <v>0.0204758064516129</v>
+        <v>0.02274242424242424</v>
       </c>
     </row>
     <row r="147">
@@ -3365,19 +3365,19 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>3009.659431524487</v>
+        <v>2714.271236844642</v>
       </c>
       <c r="C147" t="n">
-        <v>1443.631215068655</v>
+        <v>1427.924270088802</v>
       </c>
       <c r="D147" t="n">
-        <v>443557.9258997283</v>
+        <v>344128.5646610439</v>
       </c>
       <c r="E147" t="n">
-        <v>0.08755008064516129</v>
+        <v>0.1057200707070707</v>
       </c>
       <c r="F147" t="n">
-        <v>0.02068951612903226</v>
+        <v>0.02301010101010101</v>
       </c>
     </row>
     <row r="148">
@@ -3385,19 +3385,19 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>2953.387759091314</v>
+        <v>2659.339859660137</v>
       </c>
       <c r="C148" t="n">
-        <v>1442.088182379546</v>
+        <v>1426.247132649045</v>
       </c>
       <c r="D148" t="n">
-        <v>431944.2090937509</v>
+        <v>334239.8030856792</v>
       </c>
       <c r="E148" t="n">
-        <v>0.08847812903225807</v>
+        <v>0.1069084444444444</v>
       </c>
       <c r="F148" t="n">
-        <v>0.02090322580645161</v>
+        <v>0.02327777777777778</v>
       </c>
     </row>
     <row r="149">
@@ -3405,19 +3405,19 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>2898.710289231526</v>
+        <v>2606.11385166328</v>
       </c>
       <c r="C149" t="n">
-        <v>1440.5663609985</v>
+        <v>1424.594808923526</v>
       </c>
       <c r="D149" t="n">
-        <v>420776.311264277</v>
+        <v>324764.3777183114</v>
       </c>
       <c r="E149" t="n">
-        <v>0.08940617741935485</v>
+        <v>0.1080968181818182</v>
       </c>
       <c r="F149" t="n">
-        <v>0.02111693548387097</v>
+        <v>0.02354545454545454</v>
       </c>
     </row>
     <row r="150">
@@ -3425,19 +3425,19 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>2845.567005096257</v>
+        <v>2554.522471134695</v>
       </c>
       <c r="C150" t="n">
-        <v>1439.065150376832</v>
+        <v>1422.966564554584</v>
       </c>
       <c r="D150" t="n">
-        <v>410031.4818418963</v>
+        <v>315679.5448054491</v>
       </c>
       <c r="E150" t="n">
-        <v>0.09033422580645162</v>
+        <v>0.1092851919191919</v>
       </c>
       <c r="F150" t="n">
-        <v>0.02133064516129032</v>
+        <v>0.02381313131313131</v>
       </c>
     </row>
     <row r="151">
@@ -3445,19 +3445,19 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>2793.900683221743</v>
+        <v>2504.498617446869</v>
       </c>
       <c r="C151" t="n">
-        <v>1437.583977292683</v>
+        <v>1421.361699087244</v>
       </c>
       <c r="D151" t="n">
-        <v>399688.4328047844</v>
+        <v>306964.1192587171</v>
       </c>
       <c r="E151" t="n">
-        <v>0.09126227419354839</v>
+        <v>0.1104735656565657</v>
       </c>
       <c r="F151" t="n">
-        <v>0.02154435483870968</v>
+        <v>0.02408080808080808</v>
       </c>
     </row>
     <row r="152">
@@ -3465,19 +3465,19 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>2743.656740368877</v>
+        <v>2455.978609406176</v>
       </c>
       <c r="C152" t="n">
-        <v>1436.122294074546</v>
+        <v>1419.779543781847</v>
       </c>
       <c r="D152" t="n">
-        <v>389727.2242016062</v>
+        <v>298598.3462121094</v>
       </c>
       <c r="E152" t="n">
-        <v>0.09219032258064516</v>
+        <v>0.1116619393939394</v>
       </c>
       <c r="F152" t="n">
-        <v>0.02175806451612903</v>
+        <v>0.02434848484848485</v>
       </c>
     </row>
     <row r="153">
@@ -3485,19 +3485,19 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>2694.783089878688</v>
+        <v>2408.901978990802</v>
       </c>
       <c r="C153" t="n">
-        <v>1434.679576976916</v>
+        <v>1418.219459610649</v>
       </c>
       <c r="D153" t="n">
-        <v>380129.1603237138</v>
+        <v>290563.7849993147</v>
       </c>
       <c r="E153" t="n">
-        <v>0.09311837096774195</v>
+        <v>0.1128503131313131</v>
       </c>
       <c r="F153" t="n">
-        <v>0.02197177419354839</v>
+        <v>0.02461616161616161</v>
       </c>
     </row>
     <row r="154">
@@ -3505,19 +3505,19 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>2647.230006900034</v>
+        <v>2363.211279302867</v>
       </c>
       <c r="C154" t="n">
-        <v>1433.25532469192</v>
+        <v>1416.680835419201</v>
       </c>
       <c r="D154" t="n">
-        <v>370876.6953715447</v>
+        <v>282843.2041672387</v>
       </c>
       <c r="E154" t="n">
-        <v>0.09404641935483871</v>
+        <v>0.1140386868686869</v>
       </c>
       <c r="F154" t="n">
-        <v>0.02218548387096774</v>
+        <v>0.02488383838383838</v>
       </c>
     </row>
     <row r="155">
@@ -3525,19 +3525,19 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>2600.950001890424</v>
+        <v>2318.851905649868</v>
       </c>
       <c r="C155" t="n">
-        <v>1431.84905698282</v>
+        <v>1415.163086235757</v>
       </c>
       <c r="D155" t="n">
-        <v>361953.3476036834</v>
+        <v>275420.4863171475</v>
       </c>
       <c r="E155" t="n">
-        <v>0.09497446774193549</v>
+        <v>0.1152270606060606</v>
       </c>
       <c r="F155" t="n">
-        <v>0.0223991935483871</v>
+        <v>0.02515151515151515</v>
       </c>
     </row>
     <row r="156">
@@ -3545,19 +3545,19 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>2555.897701832943</v>
+        <v>2275.771928759093</v>
       </c>
       <c r="C156" t="n">
-        <v>1430.460313427016</v>
+        <v>1413.665651713975</v>
       </c>
       <c r="D156" t="n">
-        <v>353343.6210807396</v>
+        <v>268280.5417149727</v>
       </c>
       <c r="E156" t="n">
-        <v>0.09590251612903226</v>
+        <v>0.1164154343434343</v>
       </c>
       <c r="F156" t="n">
-        <v>0.02261290322580645</v>
+        <v>0.02541919191919192</v>
       </c>
     </row>
     <row r="157">
@@ -3565,19 +3565,19 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>2512.029738651462</v>
+        <v>2233.921939210086</v>
       </c>
       <c r="C157" t="n">
-        <v>1429.088652257663</v>
+        <v>1412.187994695906</v>
       </c>
       <c r="D157" t="n">
-        <v>345032.9342226168</v>
+        <v>261409.2297416445</v>
       </c>
       <c r="E157" t="n">
-        <v>0.09683056451612904</v>
+        <v>0.1176038080808081</v>
       </c>
       <c r="F157" t="n">
-        <v>0.0228266129032258</v>
+        <v>0.02568686868686869</v>
       </c>
     </row>
     <row r="158">
@@ -3585,19 +3585,19 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>2469.304644342927</v>
+        <v>2193.254902244636</v>
       </c>
       <c r="C158" t="n">
-        <v>1427.733649294293</v>
+        <v>1410.729599883789</v>
       </c>
       <c r="D158" t="n">
-        <v>337007.5544897919</v>
+        <v>254793.2873658215</v>
       </c>
       <c r="E158" t="n">
-        <v>0.09775861290322582</v>
+        <v>0.1187921818181818</v>
       </c>
       <c r="F158" t="n">
-        <v>0.02304032258064516</v>
+        <v>0.02595454545454545</v>
       </c>
     </row>
     <row r="159">
@@ -3605,19 +3605,19 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>2427.682752379605</v>
+        <v>2153.726022181996</v>
       </c>
       <c r="C159" t="n">
-        <v>1426.394896953956</v>
+        <v>1409.289972610477</v>
       </c>
       <c r="D159" t="n">
-        <v>329254.5385789703</v>
+        <v>248420.2639180119</v>
       </c>
       <c r="E159" t="n">
-        <v>0.09868666129032258</v>
+        <v>0.1199805555555555</v>
       </c>
       <c r="F159" t="n">
-        <v>0.02325403225806452</v>
+        <v>0.02622222222222222</v>
       </c>
     </row>
     <row r="160">
@@ -3625,19 +3625,19 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>2387.126104965935</v>
+        <v>2115.29261572942</v>
       </c>
       <c r="C160" t="n">
-        <v>1425.072003335443</v>
+        <v>1407.86863769945</v>
       </c>
       <c r="D160" t="n">
-        <v>321761.6775936498</v>
+        <v>242278.461528961</v>
       </c>
       <c r="E160" t="n">
-        <v>0.09961470967741937</v>
+        <v>0.1211689292929293</v>
       </c>
       <c r="F160" t="n">
-        <v>0.02346774193548387</v>
+        <v>0.02648989898989899</v>
       </c>
     </row>
     <row r="161">
@@ -3645,19 +3645,19 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>2347.598365763822</v>
+        <v>2077.913993535297</v>
       </c>
       <c r="C161" t="n">
-        <v>1423.764591369586</v>
+        <v>1406.465138406223</v>
       </c>
       <c r="D161" t="n">
-        <v>314517.4467078687</v>
+        <v>236356.8806673549</v>
       </c>
       <c r="E161" t="n">
-        <v>0.1005427580645161</v>
+        <v>0.122357303030303</v>
       </c>
       <c r="F161" t="n">
-        <v>0.02368145161290322</v>
+        <v>0.02675757575757576</v>
       </c>
     </row>
     <row r="162">
@@ -3665,19 +3665,19 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>2309.064737728086</v>
+        <v>2041.551349384143</v>
       </c>
       <c r="C162" t="n">
-        <v>1422.472298030168</v>
+        <v>1405.079035434379</v>
       </c>
       <c r="D162" t="n">
-        <v>307510.9588993437</v>
+        <v>230645.1702780568</v>
       </c>
       <c r="E162" t="n">
-        <v>0.1014708064516129</v>
+        <v>0.1235456767676768</v>
       </c>
       <c r="F162" t="n">
-        <v>0.02389516129032258</v>
+        <v>0.02702525252525252</v>
       </c>
     </row>
     <row r="163">
@@ -3685,19 +3685,19 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>2271.491885718503</v>
+        <v>2006.167656481089</v>
       </c>
       <c r="C163" t="n">
-        <v>1421.194773599688</v>
+        <v>1403.709906019033</v>
       </c>
       <c r="D163" t="n">
-        <v>300731.9223687419</v>
+        <v>225133.5820723897</v>
       </c>
       <c r="E163" t="n">
-        <v>0.1023988548387097</v>
+        <v>0.1247340505050505</v>
       </c>
       <c r="F163" t="n">
-        <v>0.02410887096774193</v>
+        <v>0.02729292929292929</v>
       </c>
     </row>
     <row r="164">
@@ -3705,19 +3705,19 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>2234.847863578804</v>
+        <v>1971.727570316525</v>
       </c>
       <c r="C164" t="n">
-        <v>1419.931680985428</v>
+        <v>1402.357343072899</v>
       </c>
       <c r="D164" t="n">
-        <v>294170.6013064142</v>
+        <v>219812.9285781354</v>
       </c>
       <c r="E164" t="n">
-        <v>0.1033269032258065</v>
+        <v>0.1259224242424242</v>
       </c>
       <c r="F164" t="n">
-        <v>0.02432258064516129</v>
+        <v>0.02756060606060606</v>
       </c>
     </row>
     <row r="165">
@@ -3725,19 +3725,19 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>2199.10204539462</v>
+        <v>1938.197337642473</v>
       </c>
       <c r="C165" t="n">
-        <v>1418.68269508149</v>
+        <v>1401.020954388642</v>
       </c>
       <c r="D165" t="n">
-        <v>287817.7797020311</v>
+        <v>214674.5445907704</v>
       </c>
       <c r="E165" t="n">
-        <v>0.1042549516129032</v>
+        <v>0.127110797979798</v>
       </c>
       <c r="F165" t="n">
-        <v>0.02453629032258065</v>
+        <v>0.02782828282828283</v>
       </c>
     </row>
     <row r="166">
@@ -3745,19 +3745,19 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>2164.225060662597</v>
+        <v>1905.544711128023</v>
       </c>
       <c r="C166" t="n">
-        <v>1417.44750217298</v>
+        <v>1399.700361894153</v>
       </c>
       <c r="D166" t="n">
-        <v>281664.7279244745</v>
+        <v>209710.2517151966</v>
       </c>
       <c r="E166" t="n">
-        <v>0.105183</v>
+        <v>0.1282991717171717</v>
       </c>
       <c r="F166" t="n">
-        <v>0.02475</v>
+        <v>0.02809595959595959</v>
       </c>
     </row>
     <row r="167">
@@ -3765,19 +3765,19 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>2130.18873312153</v>
+        <v>1873.738869295684</v>
       </c>
       <c r="C167" t="n">
-        <v>1416.225799378885</v>
+        <v>1398.395200955362</v>
       </c>
       <c r="D167" t="n">
-        <v>275703.1718270578</v>
+        <v>204912.3257102331</v>
       </c>
       <c r="E167" t="n">
-        <v>0.1061110483870968</v>
+        <v>0.1294875454545454</v>
       </c>
       <c r="F167" t="n">
-        <v>0.02496370967741935</v>
+        <v>0.02836363636363636</v>
       </c>
     </row>
     <row r="168">
@@ -3785,19 +3785,19 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>2096.966023013773</v>
+        <v>1842.750341370701</v>
       </c>
       <c r="C168" t="n">
-        <v>1415.0172941305</v>
+        <v>1397.105119723308</v>
       </c>
       <c r="D168" t="n">
-        <v>269925.2641578505</v>
+        <v>200273.4663843084</v>
       </c>
       <c r="E168" t="n">
-        <v>0.1070390967741936</v>
+        <v>0.1306759191919192</v>
       </c>
       <c r="F168" t="n">
-        <v>0.02517741935483871</v>
+        <v>0.02863131313131313</v>
       </c>
     </row>
     <row r="169">
@@ -3805,19 +3805,19 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>2064.530972561149</v>
+        <v>1812.550936703678</v>
       </c>
       <c r="C169" t="n">
-        <v>1413.821703682611</v>
+        <v>1395.829778522311</v>
       </c>
       <c r="D169" t="n">
-        <v>264323.5580766874</v>
+        <v>195786.7698155502</v>
       </c>
       <c r="E169" t="n">
-        <v>0.1079671451612903</v>
+        <v>0.1318642929292929</v>
       </c>
       <c r="F169" t="n">
-        <v>0.02539112903225806</v>
+        <v>0.0288989898989899</v>
       </c>
     </row>
     <row r="170">
@@ -3825,19 +3825,19 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>2032.858654454481</v>
+        <v>1783.113678453163</v>
       </c>
       <c r="C170" t="n">
-        <v>1412.638754654882</v>
+        <v>1394.568849275235</v>
       </c>
       <c r="D170" t="n">
-        <v>258890.9825999504</v>
+        <v>191445.7026881209</v>
       </c>
       <c r="E170" t="n">
-        <v>0.1088951935483871</v>
+        <v>0.1330526666666667</v>
       </c>
       <c r="F170" t="n">
-        <v>0.02560483870967742</v>
+        <v>0.02916666666666666</v>
       </c>
     </row>
     <row r="171">
@@ -3845,19 +3845,19 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>2001.925123169643</v>
+        <v>1754.412741237988</v>
       </c>
       <c r="C171" t="n">
-        <v>1411.4681826011</v>
+        <v>1393.322014963939</v>
       </c>
       <c r="D171" t="n">
-        <v>253620.8198113369</v>
+        <v>187244.0785637216</v>
       </c>
       <c r="E171" t="n">
-        <v>0.1098232419354839</v>
+        <v>0.1342410404040404</v>
       </c>
       <c r="F171" t="n">
-        <v>0.02581854838709677</v>
+        <v>0.02943434343434343</v>
       </c>
     </row>
     <row r="172">
@@ -3865,19 +3865,19 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>1971.70736893575</v>
+        <v>1726.423392491447</v>
       </c>
       <c r="C172" t="n">
-        <v>1410.309731604221</v>
+        <v>1392.088969121747</v>
       </c>
       <c r="D172" t="n">
-        <v>248506.6836924165</v>
+        <v>183176.0359196863</v>
       </c>
       <c r="E172" t="n">
-        <v>0.1107512903225807</v>
+        <v>0.1354294141414141</v>
       </c>
       <c r="F172" t="n">
-        <v>0.02603225806451613</v>
+        <v>0.0297020202020202</v>
       </c>
     </row>
     <row r="173">
@@ -3885,19 +3885,19 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>1942.183274192982</v>
+        <v>1699.121937269186</v>
       </c>
       <c r="C173" t="n">
-        <v>1409.163153895263</v>
+        <v>1390.869415355774</v>
       </c>
       <c r="D173" t="n">
-        <v>243542.5004403891</v>
+        <v>179236.0178041301</v>
       </c>
       <c r="E173" t="n">
-        <v>0.1116793387096774</v>
+        <v>0.1366177878787879</v>
       </c>
       <c r="F173" t="n">
-        <v>0.02624596774193548</v>
+        <v>0.02996969696969697</v>
       </c>
     </row>
     <row r="174">
@@ -3905,19 +3905,19 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>1913.331572388478</v>
+        <v>1672.485666281156</v>
       </c>
       <c r="C174" t="n">
-        <v>1408.02820949436</v>
+        <v>1389.663066896937</v>
       </c>
       <c r="D174" t="n">
-        <v>238722.4901529655</v>
+        <v>175418.752972136</v>
       </c>
       <c r="E174" t="n">
-        <v>0.1126073870967742</v>
+        <v>0.1378061616161616</v>
       </c>
       <c r="F174" t="n">
-        <v>0.02645967741935484</v>
+        <v>0.03023737373737374</v>
       </c>
     </row>
     <row r="175">
@@ -3925,19 +3925,19 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>1885.13180896878</v>
+        <v>1646.492806934865</v>
       </c>
       <c r="C175" t="n">
-        <v>1406.90466587216</v>
+        <v>1388.469646175656</v>
       </c>
       <c r="D175" t="n">
-        <v>234041.1497703048</v>
+        <v>171719.2383798838</v>
       </c>
       <c r="E175" t="n">
-        <v>0.113535435483871</v>
+        <v>0.1389945353535353</v>
       </c>
       <c r="F175" t="n">
-        <v>0.02667338709677419</v>
+        <v>0.0305050505050505</v>
       </c>
     </row>
     <row r="176">
@@ -3945,19 +3945,19 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1857.564304437261</v>
+        <v>1621.122477192727</v>
       </c>
       <c r="C176" t="n">
-        <v>1405.79229763074</v>
+        <v>1387.28888442148</v>
       </c>
       <c r="D176" t="n">
-        <v>229493.2371772835</v>
+        <v>168132.722925255</v>
       </c>
       <c r="E176" t="n">
-        <v>0.1144634838709677</v>
+        <v>0.1401829090909091</v>
       </c>
       <c r="F176" t="n">
-        <v>0.02688709677419355</v>
+        <v>0.03077272727272727</v>
       </c>
     </row>
     <row r="177">
@@ -3965,19 +3965,19 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>1830.610119352657</v>
+        <v>1596.354642060667</v>
       </c>
       <c r="C177" t="n">
-        <v>1404.690886201691</v>
+        <v>1386.120521284948</v>
       </c>
       <c r="D177" t="n">
-        <v>225073.756371467</v>
+        <v>164654.6923335982</v>
       </c>
       <c r="E177" t="n">
-        <v>0.1153915322580645</v>
+        <v>0.1413712828282828</v>
       </c>
       <c r="F177" t="n">
-        <v>0.0271008064516129</v>
+        <v>0.03104040404040404</v>
       </c>
     </row>
     <row r="178">
@@ -3985,19 +3985,19 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>1804.251021154257</v>
+        <v>1572.170072538256</v>
       </c>
       <c r="C178" t="n">
-        <v>1403.60021956112</v>
+        <v>1384.9643044802</v>
       </c>
       <c r="D178" t="n">
-        <v>220777.9436183599</v>
+        <v>161280.8550967257</v>
       </c>
       <c r="E178" t="n">
-        <v>0.1163195806451613</v>
+        <v>0.1425596565656566</v>
       </c>
       <c r="F178" t="n">
-        <v>0.02731451612903226</v>
+        <v>0.03130808080808081</v>
       </c>
     </row>
     <row r="179">
@@ -4005,19 +4005,19 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>1778.469452705901</v>
+        <v>1548.550306872858</v>
       </c>
       <c r="C179" t="n">
-        <v>1402.52009195999</v>
+        <v>1383.81998944693</v>
       </c>
       <c r="D179" t="n">
-        <v>216601.2545168387</v>
+        <v>158007.1293814261</v>
       </c>
       <c r="E179" t="n">
-        <v>0.1172476290322581</v>
+        <v>0.1437480303030303</v>
       </c>
       <c r="F179" t="n">
-        <v>0.02752822580645161</v>
+        <v>0.03157575757575758</v>
       </c>
     </row>
     <row r="180">
@@ -4025,19 +4025,19 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>1753.248502458158</v>
+        <v>1525.477613971439</v>
       </c>
       <c r="C180" t="n">
-        <v>1401.450303668636</v>
+        <v>1382.687339030389</v>
       </c>
       <c r="D180" t="n">
-        <v>212539.3519055072</v>
+        <v>154829.6308312844</v>
       </c>
       <c r="E180" t="n">
-        <v>0.1181756774193548</v>
+        <v>0.144936404040404</v>
       </c>
       <c r="F180" t="n">
-        <v>0.02774193548387097</v>
+        <v>0.03184343434343434</v>
       </c>
     </row>
     <row r="181">
@@ -4045,19 +4045,19 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>1728.57187613497</v>
+        <v>1502.93495883402</v>
       </c>
       <c r="C181" t="n">
-        <v>1400.390660734996</v>
+        <v>1381.566123178283</v>
       </c>
       <c r="D181" t="n">
-        <v>208588.0945490684</v>
+        <v>151744.6611923604</v>
       </c>
       <c r="E181" t="n">
-        <v>0.1191037258064516</v>
+        <v>0.1461247777777778</v>
       </c>
       <c r="F181" t="n">
-        <v>0.02795564516129032</v>
+        <v>0.0321111111111111</v>
       </c>
     </row>
     <row r="182">
@@ -4065,19 +4065,19 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>1704.423869856465</v>
+        <v>1480.905969882293</v>
       </c>
       <c r="C182" t="n">
-        <v>1399.340974755179</v>
+        <v>1380.456118653454</v>
       </c>
       <c r="D182" t="n">
-        <v>204743.5265451792</v>
+        <v>148748.6976992941</v>
       </c>
       <c r="E182" t="n">
-        <v>0.1200317741935484</v>
+        <v>0.1473131515151515</v>
       </c>
       <c r="F182" t="n">
-        <v>0.02816935483870968</v>
+        <v>0.03237878787878787</v>
       </c>
     </row>
     <row r="183">
@@ -4085,19 +4085,19 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>1680.789344615799</v>
+        <v>1459.374908065701</v>
       </c>
       <c r="C183" t="n">
-        <v>1398.301062655877</v>
+        <v>1379.357108761397</v>
       </c>
       <c r="D183" t="n">
-        <v>201001.8674002808</v>
+        <v>145838.383164062</v>
       </c>
       <c r="E183" t="n">
-        <v>0.1209598225806452</v>
+        <v>0.1485015252525252</v>
       </c>
       <c r="F183" t="n">
-        <v>0.02838306451612903</v>
+        <v>0.03264646464646465</v>
       </c>
     </row>
     <row r="184">
@@ -4105,19 +4105,19 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>1657.653702032738</v>
+        <v>1438.326637635487</v>
       </c>
       <c r="C184" t="n">
-        <v>1397.270746487634</v>
+        <v>1378.268883091388</v>
       </c>
       <c r="D184" t="n">
-        <v>197359.5027251002</v>
+        <v>143010.5167136324</v>
       </c>
       <c r="E184" t="n">
-        <v>0.121887870967742</v>
+        <v>0.149689898989899</v>
       </c>
       <c r="F184" t="n">
-        <v>0.02859677419354838</v>
+        <v>0.03291414141414141</v>
       </c>
     </row>
     <row r="185">
@@ -4125,19 +4125,19 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>1635.002861312101</v>
+        <v>1417.746598484519</v>
       </c>
       <c r="C185" t="n">
-        <v>1396.249853228835</v>
+        <v>1377.191237271081</v>
       </c>
       <c r="D185" t="n">
-        <v>193812.9755074167</v>
+        <v>140262.0451299512</v>
       </c>
       <c r="E185" t="n">
-        <v>0.1228159193548387</v>
+        <v>0.1508782727272727</v>
       </c>
       <c r="F185" t="n">
-        <v>0.02881048387096774</v>
+        <v>0.03318181818181818</v>
       </c>
     </row>
     <row r="186">
@@ -4145,19 +4145,19 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>1612.823237338758</v>
+        <v>1397.620779957984</v>
       </c>
       <c r="C186" t="n">
-        <v>1395.238214598789</v>
+        <v>1376.123972732844</v>
       </c>
       <c r="D186" t="n">
-        <v>190358.9779177028</v>
+        <v>137590.0547453521</v>
       </c>
       <c r="E186" t="n">
-        <v>0.1237439677419355</v>
+        <v>0.1520666464646465</v>
       </c>
       <c r="F186" t="n">
-        <v>0.0290241935483871</v>
+        <v>0.03344949494949495</v>
       </c>
     </row>
     <row r="187">
@@ -4165,19 +4165,19 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>1591.101719846327</v>
+        <v>1377.935696046174</v>
       </c>
       <c r="C187" t="n">
-        <v>1394.23566688037</v>
+        <v>1375.066896491773</v>
       </c>
       <c r="D187" t="n">
-        <v>186994.3436138419</v>
+        <v>134991.763854474</v>
       </c>
       <c r="E187" t="n">
-        <v>0.1246720161290323</v>
+        <v>0.1532550202020202</v>
       </c>
       <c r="F187" t="n">
-        <v>0.02923790322580645</v>
+        <v>0.03371717171717172</v>
       </c>
     </row>
     <row r="188">
@@ -4185,19 +4185,19 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>1569.825653599657</v>
+        <v>1358.678361876663</v>
       </c>
       <c r="C188" t="n">
-        <v>1393.242050751</v>
+        <v>1374.01982093443</v>
       </c>
       <c r="D188" t="n">
-        <v>183716.0405080066</v>
+        <v>132464.5156045549</v>
       </c>
       <c r="E188" t="n">
-        <v>0.125600064516129</v>
+        <v>0.1544433939393939</v>
       </c>
       <c r="F188" t="n">
-        <v>0.02945161290322581</v>
+        <v>0.03398484848484848</v>
       </c>
     </row>
     <row r="189">
@@ -4205,19 +4205,19 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>1548.982819535341</v>
+        <v>1339.836271428707</v>
       </c>
       <c r="C189" t="n">
-        <v>1392.257211121724</v>
+        <v>1372.982563617745</v>
       </c>
       <c r="D189" t="n">
-        <v>180521.1639646564</v>
+        <v>130005.7713300002</v>
       </c>
       <c r="E189" t="n">
-        <v>0.1265281129032258</v>
+        <v>0.1556317676767677</v>
       </c>
       <c r="F189" t="n">
-        <v>0.02966532258064516</v>
+        <v>0.03425252525252525</v>
       </c>
     </row>
     <row r="190">
@@ -4225,19 +4225,19 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>1528.561416807809</v>
+        <v>1321.397376397768</v>
       </c>
       <c r="C190" t="n">
-        <v>1391.280996983833</v>
+        <v>1371.954947077418</v>
       </c>
       <c r="D190" t="n">
-        <v>177406.9304001082</v>
+        <v>127613.1042994239</v>
       </c>
       <c r="E190" t="n">
-        <v>0.1274561612903226</v>
+        <v>0.1568201414141414</v>
       </c>
       <c r="F190" t="n">
-        <v>0.02987903225806451</v>
+        <v>0.03452020202020202</v>
       </c>
     </row>
     <row r="191">
@@ -4245,19 +4245,19 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>1508.550045691761</v>
+        <v>1303.350066142819</v>
       </c>
       <c r="C191" t="n">
-        <v>1390.313261262627</v>
+        <v>1370.936798645321</v>
       </c>
       <c r="D191" t="n">
-        <v>174370.6712565983</v>
+        <v>125284.1938462547</v>
       </c>
       <c r="E191" t="n">
-        <v>0.1283842096774194</v>
+        <v>0.1580085151515151</v>
       </c>
       <c r="F191" t="n">
-        <v>0.03009274193548387</v>
+        <v>0.03478787878787878</v>
       </c>
     </row>
     <row r="192">
@@ -4265,19 +4265,19 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>1488.93769129462</v>
+        <v>1285.683148653466</v>
       </c>
       <c r="C192" t="n">
-        <v>1389.353860677892</v>
+        <v>1369.927950275397</v>
       </c>
       <c r="D192" t="n">
-        <v>171409.8273257359</v>
+        <v>123016.8198561628</v>
       </c>
       <c r="E192" t="n">
-        <v>0.1293122580645161</v>
+        <v>0.1591968888888889</v>
       </c>
       <c r="F192" t="n">
-        <v>0.03030645161290322</v>
+        <v>0.03505555555555555</v>
       </c>
     </row>
     <row r="193">
@@ -4285,19 +4285,19 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>1469.71370803558</v>
+        <v>1268.385832478036</v>
       </c>
       <c r="C193" t="n">
-        <v>1388.402655610728</v>
+        <v>1368.928238377549</v>
       </c>
       <c r="D193" t="n">
-        <v>168521.9433982129</v>
+        <v>120808.8575865462</v>
       </c>
       <c r="E193" t="n">
-        <v>0.1302403064516129</v>
+        <v>0.1603852626262626</v>
       </c>
       <c r="F193" t="n">
-        <v>0.03052016129032258</v>
+        <v>0.03532323232323232</v>
       </c>
     </row>
     <row r="194">
@@ -4305,19 +4305,19 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>1450.867804850307</v>
+        <v>1251.447709557549</v>
       </c>
       <c r="C194" t="n">
-        <v>1387.459509976355</v>
+        <v>1367.937503659069</v>
       </c>
       <c r="D194" t="n">
-        <v>165704.6632183075</v>
+        <v>118658.2727953546</v>
       </c>
       <c r="E194" t="n">
-        <v>0.1311683548387097</v>
+        <v>0.1615736363636364</v>
       </c>
       <c r="F194" t="n">
-        <v>0.03073387096774194</v>
+        <v>0.03559090909090909</v>
       </c>
     </row>
     <row r="195">
@@ -4325,19 +4325,19 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>1432.39003108285</v>
+        <v>1234.858738914007</v>
       </c>
       <c r="C195" t="n">
-        <v>1386.524291102573</v>
+        <v>1366.955590973174</v>
       </c>
       <c r="D195" t="n">
-        <v>162955.7247233474</v>
+        <v>116563.1171581641</v>
       </c>
       <c r="E195" t="n">
-        <v>0.1320964032258065</v>
+        <v>0.1627620101010101</v>
       </c>
       <c r="F195" t="n">
-        <v>0.03094758064516129</v>
+        <v>0.03585858585858585</v>
       </c>
     </row>
     <row r="196">
@@ -4345,19 +4345,19 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>1414.270763028584</v>
+        <v>1218.6092311447</v>
       </c>
       <c r="C196" t="n">
-        <v>1385.59686961358</v>
+        <v>1365.982349174519</v>
       </c>
       <c r="D196" t="n">
-        <v>160272.9555497415</v>
+        <v>114521.523954687</v>
       </c>
       <c r="E196" t="n">
-        <v>0.1330244516129032</v>
+        <v>0.1639503838383838</v>
       </c>
       <c r="F196" t="n">
-        <v>0.03116129032258064</v>
+        <v>0.03612626262626262</v>
       </c>
     </row>
     <row r="197">
@@ -4365,19 +4365,19 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>1396.500691094098</v>
+        <v>1202.689833677419</v>
       </c>
       <c r="C197" t="n">
-        <v>1384.677119318835</v>
+        <v>1365.01763098046</v>
       </c>
       <c r="D197" t="n">
-        <v>157654.2687885131</v>
+        <v>112531.704004912</v>
       </c>
       <c r="E197" t="n">
-        <v>0.1339525</v>
+        <v>0.1651387575757576</v>
       </c>
       <c r="F197" t="n">
-        <v>0.031375</v>
+        <v>0.0363939393939394</v>
       </c>
     </row>
     <row r="198">
@@ -4385,19 +4385,19 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>1379.070807541951</v>
+        <v>1187.091516743916</v>
       </c>
       <c r="C198" t="n">
-        <v>1383.764917106716</v>
+        <v>1364.061292839229</v>
       </c>
       <c r="D198" t="n">
-        <v>155097.6589745266</v>
+        <v>110591.9418414853</v>
       </c>
       <c r="E198" t="n">
-        <v>0.1348805483870968</v>
+        <v>0.1663271313131313</v>
       </c>
       <c r="F198" t="n">
-        <v>0.03158870967741935</v>
+        <v>0.03666161616161616</v>
       </c>
     </row>
     <row r="199">
@@ -4405,19 +4405,19 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>1361.972394790087</v>
+        <v>1171.805560032128</v>
       </c>
       <c r="C199" t="n">
-        <v>1382.860142842709</v>
+        <v>1363.11319480313</v>
       </c>
       <c r="D199" t="n">
-        <v>152601.1982946905</v>
+        <v>108700.5920996044</v>
       </c>
       <c r="E199" t="n">
-        <v>0.1358085967741936</v>
+        <v>0.1675155050505051</v>
       </c>
       <c r="F199" t="n">
-        <v>0.03180241935483871</v>
+        <v>0.03692929292929292</v>
       </c>
     </row>
     <row r="200">
@@ -4425,19 +4425,19 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>1345.197014237413</v>
+        <v>1156.823539979678</v>
       </c>
       <c r="C200" t="n">
-        <v>1381.962679271895</v>
+        <v>1362.173200407458</v>
       </c>
       <c r="D200" t="n">
-        <v>150163.033001512</v>
+        <v>106856.076112335</v>
       </c>
       <c r="E200" t="n">
-        <v>0.1367366451612903</v>
+        <v>0.1687038787878788</v>
       </c>
       <c r="F200" t="n">
-        <v>0.03201612903225806</v>
+        <v>0.03719696969696969</v>
       </c>
     </row>
     <row r="201">
@@ -4445,19 +4445,19 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>1328.736495588696</v>
+        <v>1142.137317673699</v>
       </c>
       <c r="C201" t="n">
-        <v>1381.072411925514</v>
+        <v>1361.241176554507</v>
       </c>
       <c r="D201" t="n">
-        <v>147781.3800192819</v>
+        <v>105056.8786973687</v>
       </c>
       <c r="E201" t="n">
-        <v>0.1376646935483871</v>
+        <v>0.1698922525252525</v>
       </c>
       <c r="F201" t="n">
-        <v>0.03222983870967742</v>
+        <v>0.03746464646464646</v>
       </c>
     </row>
     <row r="202">
@@ -4465,19 +4465,19 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>1312.582926653469</v>
+        <v>1127.739027324112</v>
       </c>
       <c r="C202" t="n">
-        <v>1380.189229031391</v>
+        <v>1360.316993402347</v>
       </c>
       <c r="D202" t="n">
-        <v>145454.5237310828</v>
+        <v>103301.5451229039</v>
       </c>
       <c r="E202" t="n">
-        <v>0.1385927419354839</v>
+        <v>0.1710806262626263</v>
       </c>
       <c r="F202" t="n">
-        <v>0.03244354838709677</v>
+        <v>0.03773232323232323</v>
       </c>
     </row>
     <row r="203">
@@ -4485,518 +4485,18 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>1296.728643595056</v>
+        <v>1113.621065279409</v>
       </c>
       <c r="C203" t="n">
-        <v>1379.31302142808</v>
+        <v>1359.400524258476</v>
       </c>
       <c r="D203" t="n">
-        <v>143180.8129357692</v>
+        <v>101588.6782419375</v>
       </c>
       <c r="E203" t="n">
-        <v>0.1395207903225807</v>
+        <v>0.172269</v>
       </c>
       <c r="F203" t="n">
-        <v>0.03265725806451612</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>1281.166221607049</v>
-      </c>
-      <c r="C204" t="n">
-        <v>1378.443682482258</v>
-      </c>
-      <c r="D204" t="n">
-        <v>140958.6579638857</v>
-      </c>
-      <c r="E204" t="n">
-        <v>0.1404488387096774</v>
-      </c>
-      <c r="F204" t="n">
-        <v>0.03287096774193549</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>1265.888465996302</v>
-      </c>
-      <c r="C205" t="n">
-        <v>1377.581108009899</v>
-      </c>
-      <c r="D205" t="n">
-        <v>138786.5279448754</v>
-      </c>
-      <c r="E205" t="n">
-        <v>0.1413768870967742</v>
-      </c>
-      <c r="F205" t="n">
-        <v>0.03308467741935484</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>1250.888403651857</v>
-      </c>
-      <c r="C206" t="n">
-        <v>1376.725196200141</v>
-      </c>
-      <c r="D206" t="n">
-        <v>136662.9482142039</v>
-      </c>
-      <c r="E206" t="n">
-        <v>0.142304935483871</v>
-      </c>
-      <c r="F206" t="n">
-        <v>0.03329838709677419</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>1236.159274881181</v>
-      </c>
-      <c r="C207" t="n">
-        <v>1375.875847542371</v>
-      </c>
-      <c r="D207" t="n">
-        <v>134586.4978538864</v>
-      </c>
-      <c r="E207" t="n">
-        <v>0.1432329838709678</v>
-      </c>
-      <c r="F207" t="n">
-        <v>0.03351209677419355</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>1221.694525595599</v>
-      </c>
-      <c r="C208" t="n">
-        <v>1375.032964756115</v>
-      </c>
-      <c r="D208" t="n">
-        <v>132555.8073579673</v>
-      </c>
-      <c r="E208" t="n">
-        <v>0.1441610322580645</v>
-      </c>
-      <c r="F208" t="n">
-        <v>0.0337258064516129</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>1207.487799828001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>1374.196452723645</v>
-      </c>
-      <c r="D209" t="n">
-        <v>130569.5564157795</v>
-      </c>
-      <c r="E209" t="n">
-        <v>0.1450890806451613</v>
-      </c>
-      <c r="F209" t="n">
-        <v>0.03393951612903226</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>1193.53293256676</v>
-      </c>
-      <c r="C210" t="n">
-        <v>1373.366218425182</v>
-      </c>
-      <c r="D210" t="n">
-        <v>128626.4718062908</v>
-      </c>
-      <c r="E210" t="n">
-        <v>0.1460171290322581</v>
-      </c>
-      <c r="F210" t="n">
-        <v>0.03415322580645161</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>1179.823942890683</v>
-      </c>
-      <c r="C211" t="n">
-        <v>1372.542170876565</v>
-      </c>
-      <c r="D211" t="n">
-        <v>126725.325397093</v>
-      </c>
-      <c r="E211" t="n">
-        <v>0.1469451774193549</v>
-      </c>
-      <c r="F211" t="n">
-        <v>0.03436693548387097</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>1166.355027390613</v>
-      </c>
-      <c r="C212" t="n">
-        <v>1371.724221069232</v>
-      </c>
-      <c r="D212" t="n">
-        <v>124864.9322421051</v>
-      </c>
-      <c r="E212" t="n">
-        <v>0.1478732258064516</v>
-      </c>
-      <c r="F212" t="n">
-        <v>0.03458064516129032</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>1153.120553864106</v>
-      </c>
-      <c r="C213" t="n">
-        <v>1370.912281912499</v>
-      </c>
-      <c r="D213" t="n">
-        <v>123044.1487725534</v>
-      </c>
-      <c r="E213" t="n">
-        <v>0.1488012741935484</v>
-      </c>
-      <c r="F213" t="n">
-        <v>0.03479435483870967</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>1140.115055270281</v>
-      </c>
-      <c r="C214" t="n">
-        <v>1370.106268177947</v>
-      </c>
-      <c r="D214" t="n">
-        <v>121261.8710759148</v>
-      </c>
-      <c r="E214" t="n">
-        <v>0.1497293225806452</v>
-      </c>
-      <c r="F214" t="n">
-        <v>0.03500806451612903</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>1127.333223932645</v>
-      </c>
-      <c r="C215" t="n">
-        <v>1369.306096445863</v>
-      </c>
-      <c r="D215" t="n">
-        <v>119517.0332579746</v>
-      </c>
-      <c r="E215" t="n">
-        <v>0.150657370967742</v>
-      </c>
-      <c r="F215" t="n">
-        <v>0.03522177419354838</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>1114.769905978335</v>
-      </c>
-      <c r="C216" t="n">
-        <v>1368.511685053633</v>
-      </c>
-      <c r="D216" t="n">
-        <v>117808.6058834267</v>
-      </c>
-      <c r="E216" t="n">
-        <v>0.1515854193548387</v>
-      </c>
-      <c r="F216" t="n">
-        <v>0.03543548387096774</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>1102.420096002814</v>
-      </c>
-      <c r="C217" t="n">
-        <v>1367.722954045995</v>
-      </c>
-      <c r="D217" t="n">
-        <v>116135.5944907295</v>
-      </c>
-      <c r="E217" t="n">
-        <v>0.1525134677419355</v>
-      </c>
-      <c r="F217" t="n">
-        <v>0.0356491935483871</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>1090.278931949605</v>
-      </c>
-      <c r="C218" t="n">
-        <v>1366.939825127035</v>
-      </c>
-      <c r="D218" t="n">
-        <v>114497.0381770916</v>
-      </c>
-      <c r="E218" t="n">
-        <v>0.1534415161290323</v>
-      </c>
-      <c r="F218" t="n">
-        <v>0.03586290322580644</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>1078.341690195354</v>
-      </c>
-      <c r="C219" t="n">
-        <v>1366.162221614165</v>
-      </c>
-      <c r="D219" t="n">
-        <v>112892.0082504713</v>
-      </c>
-      <c r="E219" t="n">
-        <v>0.154369564516129</v>
-      </c>
-      <c r="F219" t="n">
-        <v>0.03607661290322581</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>1066.60378083044</v>
-      </c>
-      <c r="C220" t="n">
-        <v>1365.390068393008</v>
-      </c>
-      <c r="D220" t="n">
-        <v>111319.6069429647</v>
-      </c>
-      <c r="E220" t="n">
-        <v>0.1552976129032258</v>
-      </c>
-      <c r="F220" t="n">
-        <v>0.03629032258064516</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>1055.06074312699</v>
-      </c>
-      <c r="C221" t="n">
-        <v>1364.623291874864</v>
-      </c>
-      <c r="D221" t="n">
-        <v>109778.966185861</v>
-      </c>
-      <c r="E221" t="n">
-        <v>0.1562256612903226</v>
-      </c>
-      <c r="F221" t="n">
-        <v>0.03650403225806451</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>1043.708241185107</v>
-      </c>
-      <c r="C222" t="n">
-        <v>1363.861819954845</v>
-      </c>
-      <c r="D222" t="n">
-        <v>108269.246439373</v>
-      </c>
-      <c r="E222" t="n">
-        <v>0.1571537096774194</v>
-      </c>
-      <c r="F222" t="n">
-        <v>0.03671774193548387</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>1032.542059749804</v>
-      </c>
-      <c r="C223" t="n">
-        <v>1363.105581971817</v>
-      </c>
-      <c r="D223" t="n">
-        <v>106789.6355766159</v>
-      </c>
-      <c r="E223" t="n">
-        <v>0.1580817580645162</v>
-      </c>
-      <c r="F223" t="n">
-        <v>0.03693145161290322</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>1021.558100190862</v>
-      </c>
-      <c r="C224" t="n">
-        <v>1362.354508669629</v>
-      </c>
-      <c r="D224" t="n">
-        <v>105339.3478180768</v>
-      </c>
-      <c r="E224" t="n">
-        <v>0.1590098064516129</v>
-      </c>
-      <c r="F224" t="n">
-        <v>0.03714516129032258</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>1010.752376638438</v>
-      </c>
-      <c r="C225" t="n">
-        <v>1361.608532159711</v>
-      </c>
-      <c r="D225" t="n">
-        <v>103917.6227142247</v>
-      </c>
-      <c r="E225" t="n">
-        <v>0.1599378548387097</v>
-      </c>
-      <c r="F225" t="n">
-        <v>0.03735887096774193</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>1000.121012267432</v>
-      </c>
-      <c r="C226" t="n">
-        <v>1360.867585884668</v>
-      </c>
-      <c r="D226" t="n">
-        <v>102523.7241732137</v>
-      </c>
-      <c r="E226" t="n">
-        <v>0.1608659032258065</v>
-      </c>
-      <c r="F226" t="n">
-        <v>0.03757258064516129</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>989.6602357244792</v>
-      </c>
-      <c r="C227" t="n">
-        <v>1360.131604583717</v>
-      </c>
-      <c r="D227" t="n">
-        <v>101156.9395330528</v>
-      </c>
-      <c r="E227" t="n">
-        <v>0.1617939516129032</v>
-      </c>
-      <c r="F227" t="n">
-        <v>0.03778629032258064</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>979.3663776907248</v>
-      </c>
-      <c r="C228" t="n">
-        <v>1359.400524258476</v>
-      </c>
-      <c r="D228" t="n">
-        <v>99816.57867329573</v>
-      </c>
-      <c r="E228" t="n">
-        <v>0.162722</v>
-      </c>
-      <c r="F228" t="n">
         <v>0.038</v>
       </c>
     </row>
